--- a/data/ensino_links_full.xlsx
+++ b/data/ensino_links_full.xlsx
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/estudante-internacional/provas-acesso</t>
+          <t>Provas de acesso</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/estudante-internacional/provas-acesso</t>
+          <t>Provas de acesso</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/estudante-internacional/provas-acesso</t>
+          <t>Provas de acesso</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/estudante-internacional/provas-acesso</t>
+          <t>Provas de acesso</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/estudante-internacional/provas-acesso</t>
+          <t>Provas de acesso</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/estudante-internacional/provas-acesso</t>
+          <t>Provas de acesso</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/estudante-internacional/provas-acesso</t>
+          <t>Provas de acesso</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/estudante-internacional/provas-acesso</t>
+          <t>Provas de acesso</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1337,17 +1337,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Calendários</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/calendarios</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/calendarios</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1391,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Curso Preparatório de Física</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-fisica</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
         </is>
       </c>
     </row>
@@ -1418,17 +1418,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Curso Preparatório de Matemática</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-matematica</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -1445,17 +1445,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Declaração compromisso concurso não nacional</t>
+          <t>Ordem de Serviço n.º 04/P/2025</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.10.02%20Declara%C3%A7%C3%A3o%20compromisso%20candidato%20n%C3%A3o%20nacional.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_04_2025_Calendario_M23.pdf</t>
         </is>
       </c>
     </row>
@@ -1472,17 +1472,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEC_2526.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -1499,17 +1499,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEE_2526_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/calendarios</t>
         </is>
       </c>
     </row>
@@ -1526,17 +1526,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEETC_2526_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23</t>
         </is>
       </c>
     </row>
@@ -1553,17 +1553,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Concurso Especial de Acesso para Maiores de 23</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEIC_2526_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
         </is>
       </c>
     </row>
@@ -1580,17 +1580,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEIRT_2526.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEB_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -1607,17 +1607,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEM_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEB-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -1634,17 +1634,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Guião de entrevista</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/Guiao_Entrevista_Modelo_M23.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEB-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -1661,17 +1661,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Informações sobre as provas</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEC_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -1688,17 +1688,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEC-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -1715,17 +1715,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Civil</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEC_EDITAL%20Admissao_M23_2025.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEC-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -1742,17 +1742,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Civil</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEC_EDITAL_Prova%20Escrita%20Definitiva_M23_2025_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEE_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -1769,17 +1769,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Civil</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEC_Calend%C3%A1rio_Entrevistas_M23_signed_signed.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEE-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Civil</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEC_EDITAL_Entrevistas_M23_2025_IG_MCCC_JRB_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEE-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -1823,17 +1823,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Civil</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEC_EDITAL_Prova_Escrita_Entrevistas_M23_2025_IG_MCCC_JRB_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEETC_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -1850,17 +1850,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrotécnica</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEE_2526.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEETC-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -1877,17 +1877,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrotécnica</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL_Prova_Definitivo_M23_2025_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEETC-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -1904,17 +1904,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrotécnica</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_Calend%C3%A1rio_Entrevistas_M23_signedPG_signed.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEFA_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -1931,17 +1931,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrotécnica</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL_Entrevista_M23_2025_signedJL_signedJL_signedJL_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEFA-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -1958,17 +1958,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrotécnica</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL_FINAL_ProvaEscrita_Entrevista_M23_2025_signedJL_signedJL_signedJL_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEFA_M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_EDITAL_Prova_Definitivo_M23_2025_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIM_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -2012,17 +2012,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_Calend%C3%A1rio_Entrevistas_M23_signedVC_signed.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIM-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -2039,17 +2039,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_EDITAL_Entrevistas_M23_2025_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIM-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -2066,17 +2066,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_EDITAL_FINAL_ProvaEscrita_Entrevista_M23_2025_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIC_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -2093,17 +2093,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e Multimédia</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIM_EDITAL%20Admissao_M23_DET_DTSP_2025.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIC-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -2120,17 +2120,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e Multimédia</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIM_%20EDITAL_Definitivo_Provas%20Escrita_M23_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIC-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -2147,17 +2147,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e de Computadores</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC%20EDITAL%20Admissao_M23%20DET%20DTSP%202025.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIRT_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -2174,17 +2174,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e de Computadores</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_EDITAL_Prova_Definitivo_M23_2025_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIRT-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -2201,17 +2201,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e de Computadores</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_Calend%C3%A1rio_Entrevistas_M23_signed_signed.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIRT-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -2228,17 +2228,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e de Computadores</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_EDITAL_Entrevistas_2025_signed_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEM_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -2255,17 +2255,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e de Computadores</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_EDITAL_Prova_Escrita_Entrevistas_2025_signed_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEM-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -2282,17 +2282,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIRT%20EDITAL%20Admissao%20M23%202025.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEM-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -2309,17 +2309,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIRT_EDITAL_PROVA_Definitivo_M23_2025_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEQB_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -2336,17 +2336,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIRT_Calend%C3%A1rio_Entrevistas_M23_VF_signed_signed.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEQB-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -2363,17 +2363,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIRT_EDITAL_Entrevista_M23_2025_JR_VF_JT_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEQB-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -2390,17 +2390,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Guião de entrevista</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIRT_EDITAL_Final_M23_2025_JR_VF_JT_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/Guiao_Entrevista_Modelo_M23.pdf</t>
         </is>
       </c>
     </row>
@@ -2417,17 +2417,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Mecânica</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_EDITAL_LEM.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -2444,17 +2444,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Mecânica</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEM_EDITAL_Prova_Definitivo_M23_2025_signed_signed_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LMATE_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -2471,17 +2471,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Mecânica</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEM_Calend%C3%A1rio_Entrevistas_M23_signed_signed.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LMATE-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -2498,17 +2498,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Mecânica</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEM_EDITAL_Entrevistas_2025_signed_signed_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LMATE-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -2525,17 +2525,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Mecânica</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEM_EDITAL_Prova_Escrita_Entrevistas_2025_signed_signed_CV.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -2552,17 +2552,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Química e Biológica</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEQB_EDITAL%20Admissao_2025_retificacao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LTGM_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -2579,17 +2579,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Química e Biológica</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEQB_EDITAL_M23_Definitivo_Prova_Escrita_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LTGM-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -2606,17 +2606,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Licenciatura em Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LMATE_EDITAL%20Admissao_M23_2025.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LTGM-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -2633,17 +2633,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Maiores de 23</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Licenciatura em Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>salas C.3.07 e C3.09 (3.º piso do edifício C)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LMATE_EDITAL%20Definitivo%20Prova%20Escrita_CV.pdf</t>
+          <t>https://www.isel.pt/o-isel-apresenta-se/onde-estamos</t>
         </is>
       </c>
     </row>
@@ -2665,12 +2665,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Licenciatura em Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LMATE_Calenda%CC%81rio_Entrevistas_M23_signed_signed.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/calendarios</t>
         </is>
       </c>
     </row>
@@ -2692,12 +2692,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Licenciatura em Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Concurso Especial de Acesso para Maiores de 23</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LMATE_EDITAL_Entrevistas_2025_CV.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Licenciatura em Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Curso Preparatório de Física</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LMATE_EDITAL_Prova_Escrita_Entrevistas_2025_CV.pdf</t>
+          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-fisica</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Curso Preparatório de Matemática</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LMATE_2526_prov.pdf</t>
+          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-matematica</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Declaração compromisso concurso não nacional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.10.02%20Declara%C3%A7%C3%A3o%20compromisso%20candidato%20n%C3%A3o%20nacional.pdf</t>
         </is>
       </c>
     </row>
@@ -2800,12 +2800,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>icenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_EDITAL_Admissao_M23_DET_DTSP_2025.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEC_2526.pdf</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>requerimento geral</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEE_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -2849,17 +2849,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/calendarios</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEETC_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -2876,17 +2876,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/calendarios</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Concurso Especial de Acesso para Maiores de 23</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/calendarios</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEIC_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -2903,17 +2903,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/calendarios</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Informações sobre as provas</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEIRT_2526.pdf</t>
         </is>
       </c>
     </row>
@@ -2930,17 +2930,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/calendarios</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEM_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -2957,17 +2957,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/calendarios</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ordem de Serviço n.º 04/P/2025</t>
+          <t>Guião de entrevista</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_04_2025_Calendario_M23.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/Guiao_Entrevista_Modelo_M23.pdf</t>
         </is>
       </c>
     </row>
@@ -2984,17 +2984,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/calendarios</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
         </is>
       </c>
     </row>
@@ -3011,17 +3011,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Calendários</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/calendarios</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -3038,17 +3038,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Licenciatura em Engenharia Civil</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEC_EDITAL%20Admissao_M23_2025.pdf</t>
         </is>
       </c>
     </row>
@@ -3065,17 +3065,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Concurso Especial de Acesso para Maiores de 23</t>
+          <t>Licenciatura em Engenharia Civil</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEC_EDITAL_Prova%20Escrita%20Definitiva_M23_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3092,17 +3092,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Licenciatura em Engenharia Civil</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEB_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEC_Calend%C3%A1rio_Entrevistas_M23_signed_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -3119,17 +3119,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Licenciatura em Engenharia Civil</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEB-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEC_EDITAL_Entrevistas_M23_2025_IG_MCCC_JRB_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3146,17 +3146,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Licenciatura em Engenharia Civil</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEB-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEC_EDITAL_Prova_Escrita_Entrevistas_M23_2025_IG_MCCC_JRB_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3173,17 +3173,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Licenciatura em Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEC_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LEE_2526.pdf</t>
         </is>
       </c>
     </row>
@@ -3200,17 +3200,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Licenciatura em Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEC-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL_Prova_Definitivo_M23_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3227,17 +3227,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Licenciatura em Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEC-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_Calend%C3%A1rio_Entrevistas_M23_signedPG_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -3254,17 +3254,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Licenciatura em Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEE_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL_Entrevista_M23_2025_signedJL_signedJL_signedJL_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3281,17 +3281,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Licenciatura em Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEE-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL_FINAL_ProvaEscrita_Entrevista_M23_2025_signedJL_signedJL_signedJL_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3308,17 +3308,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Licenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEE-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_EDITAL_Prova_Definitivo_M23_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3335,17 +3335,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Licenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEETC_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_Calend%C3%A1rio_Entrevistas_M23_signedVC_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Licenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEETC-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_EDITAL_Entrevistas_M23_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3389,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Licenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEETC-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_EDITAL_FINAL_ProvaEscrita_Entrevista_M23_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3416,17 +3416,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Licenciatura em Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEFA_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIM_EDITAL%20Admissao_M23_DET_DTSP_2025.pdf</t>
         </is>
       </c>
     </row>
@@ -3443,17 +3443,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Licenciatura em Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEFA-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIM_%20EDITAL_Definitivo_Provas%20Escrita_M23_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3470,17 +3470,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Licenciatura em Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEFA_M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC%20EDITAL%20Admissao_M23%20DET%20DTSP%202025.pdf</t>
         </is>
       </c>
     </row>
@@ -3497,17 +3497,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Licenciatura em Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIM_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_EDITAL_Prova_Definitivo_M23_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3524,17 +3524,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Licenciatura em Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIM-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_Calend%C3%A1rio_Entrevistas_M23_signed_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -3551,17 +3551,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Licenciatura em Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIM-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_EDITAL_Entrevistas_2025_signed_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3578,17 +3578,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Licenciatura em Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIC_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_EDITAL_Prova_Escrita_Entrevistas_2025_signed_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3605,17 +3605,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Licenciatura em Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIC-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIRT%20EDITAL%20Admissao%20M23%202025.pdf</t>
         </is>
       </c>
     </row>
@@ -3632,17 +3632,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Licenciatura em Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIC-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIRT_EDITAL_PROVA_Definitivo_M23_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3659,17 +3659,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Licenciatura em Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIRT_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIRT_Calend%C3%A1rio_Entrevistas_M23_VF_signed_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -3686,17 +3686,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Licenciatura em Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIRT-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIRT_EDITAL_Entrevista_M23_2025_JR_VF_JT_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3713,17 +3713,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Licenciatura em Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIRT-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIRT_EDITAL_Final_M23_2025_JR_VF_JT_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3740,17 +3740,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Licenciatura em Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEM_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_EDITAL_LEM.pdf</t>
         </is>
       </c>
     </row>
@@ -3767,17 +3767,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Licenciatura em Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEM-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEM_EDITAL_Prova_Definitivo_M23_2025_signed_signed_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3794,17 +3794,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Licenciatura em Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEM-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEM_Calend%C3%A1rio_Entrevistas_M23_signed_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -3821,17 +3821,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Licenciatura em Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEQB_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEM_EDITAL_Entrevistas_2025_signed_signed_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3848,17 +3848,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Licenciatura em Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEQB-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEM_EDITAL_Prova_Escrita_Entrevistas_2025_signed_signed_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3875,17 +3875,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Licenciatura em Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEQB-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEQB_EDITAL%20Admissao_2025_retificacao.pdf</t>
         </is>
       </c>
     </row>
@@ -3902,17 +3902,17 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Guião de entrevista</t>
+          <t>Licenciatura em Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/Guiao_Entrevista_Modelo_M23.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEQB_EDITAL_M23_Definitivo_Prova_Escrita_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3929,17 +3929,17 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Licenciatura em Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LMATE_EDITAL%20Admissao_M23_2025.pdf</t>
         </is>
       </c>
     </row>
@@ -3956,17 +3956,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Licenciatura em Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LMATE_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LMATE_EDITAL%20Definitivo%20Prova%20Escrita_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -3983,17 +3983,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Licenciatura em Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LMATE-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LMATE_Calenda%CC%81rio_Entrevistas_M23_signed_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -4010,17 +4010,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Licenciatura em Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LMATE-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LMATE_EDITAL_Entrevistas_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -4037,17 +4037,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Licenciatura em Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LMATE_EDITAL_Prova_Escrita_Entrevistas_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -4064,17 +4064,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LTGM_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/M23_LMATE_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4091,17 +4091,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LTGM-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -4118,17 +4118,17 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>icenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LTGM-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_EDITAL_Admissao_M23_DET_DTSP_2025.pdf</t>
         </is>
       </c>
     </row>
@@ -4145,17 +4145,17 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-m23/informacoes-sobre-as-provas</t>
+          <t>Maiores de 23</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>salas C.3.07 e C3.09 (3.º piso do edifício C)</t>
+          <t>requerimento geral</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/o-isel-apresenta-se/onde-estamos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
         </is>
       </c>
     </row>
@@ -4172,17 +4172,17 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Mestrado (Acesso e Ingresso)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Calendário</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado/calendario</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
         </is>
       </c>
     </row>
@@ -4199,17 +4199,17 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Mestrado (Acesso e Ingresso)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Declaração de honra como se comprometem em entregar o certificado final de curso</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.16.02%20Declara%C3%A7%C3%A3o%20compromisso%20concurso.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -4226,17 +4226,17 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Mestrado (Acesso e Ingresso)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Mestrado</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEB_1F_2526_def.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado/calendario</t>
         </is>
       </c>
     </row>
@@ -4253,17 +4253,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Mestrado (Acesso e Ingresso)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>O</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEB_2F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_03_2025_Calendario_Mestrados.pdf</t>
         </is>
       </c>
     </row>
@@ -4280,17 +4280,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Mestrado (Acesso e Ingresso)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEB_3F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -4312,12 +4312,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEC_1F_2526.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado/calendario</t>
         </is>
       </c>
     </row>
@@ -4339,12 +4339,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Declaração de honra como se comprometem em entregar o certificado final de curso</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEC_2F_2526_v2.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.16.02%20Declara%C3%A7%C3%A3o%20compromisso%20concurso.pdf</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEC_3F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEB_1F_2526_def.pdf</t>
         </is>
       </c>
     </row>
@@ -4393,12 +4393,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEE_1F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEB_2F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4420,12 +4420,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEE_2F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEB_3F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4447,12 +4447,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEE_3F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEC_1F_2526.pdf</t>
         </is>
       </c>
     </row>
@@ -4474,12 +4474,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEET_1F_2526_def.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEC_2F_2526_v2.pdf</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEET_2F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEC_3F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4528,12 +4528,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEET_3F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEE_1F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4555,12 +4555,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEIM_1F_2526_def.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEE_2F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4582,12 +4582,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEIM_2F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEE_3F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4609,12 +4609,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEIM_3F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEET_1F_2526_def.pdf</t>
         </is>
       </c>
     </row>
@@ -4636,12 +4636,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEIC_1F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEET_2F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEIC_2F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEET_3F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4690,12 +4690,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - Área de Especialização em Energia, Refrigeração e Climatização</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEM-ERC_1F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEIM_1F_2526_def.pdf</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - Área de Especialização em Energia, Refrigeração e Climatização</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEM-ERC_2F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEIM_2F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4744,12 +4744,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - Área de Especialização em Energia, Refrigeração e Climatização</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEM-ERC_3F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEIM_3F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4771,12 +4771,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - Área de Especialização em Manutenção e Produção</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEM-MP_1F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEIC_1F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4798,12 +4798,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - Área de Especialização em Manutenção e Produção</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEM-MP_2F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEIC_2F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4825,12 +4825,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - Área de Especialização em Manutenção e Produção</t>
+          <t>Engenharia Mecânica - Área de Especialização em Energia, Refrigeração e Climatização</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEM-MP_3F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEM-ERC_1F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4852,12 +4852,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia Mecânica - Área de Especialização em Energia, Refrigeração e Climatização</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEQB_1F_2526_prov_.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEM-ERC_2F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4879,12 +4879,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia Mecânica - Área de Especialização em Energia, Refrigeração e Climatização</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEQB_2F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEM-ERC_3F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia Mecânica - Área de Especialização em Manutenção e Produção</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEQB_3F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEM-MP_1F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4933,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Engenharia da Qualidade e Ambiente</t>
+          <t>Engenharia Mecânica - Área de Especialização em Manutenção e Produção</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEQA_1F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEM-MP_2F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4960,12 +4960,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Engenharia da Qualidade e Ambiente</t>
+          <t>Engenharia Mecânica - Área de Especialização em Manutenção e Produção</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEQA_2F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEM-MP_3F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -4987,12 +4987,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Engenharia da Qualidade e Ambiente</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEQA_3F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEQB_1F_2526_prov_.pdf</t>
         </is>
       </c>
     </row>
@@ -5014,12 +5014,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEGI_1F_2526_def.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEQB_2F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEGI_2F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEQB_3F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5068,12 +5068,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Engenharia da Qualidade e Ambiente</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEGI_3F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEQA_1F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5095,12 +5095,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Engenharia da Qualidade e Ambiente</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEQA_2F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5122,12 +5122,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Matemática Aplicada para a Indústria</t>
+          <t>Engenharia da Qualidade e Ambiente</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MMAI_1F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEQA_3F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5149,12 +5149,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Matemática Aplicada para a Indústria</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MMAI_2F_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEGI_1F_2526_def.pdf</t>
         </is>
       </c>
     </row>
@@ -5176,12 +5176,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Mestrado</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEGI_2F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5203,12 +5203,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MEGI_3F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5230,12 +5230,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>declaração de honra como se comprometem em entregar o certificado final de curso</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/SGAAE.MD.16.02%20Declara%C3%A7%C3%A3o%20compromisso%20concurso%2029_2_2024.docx</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -5257,12 +5257,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>requerimento geral</t>
+          <t>Matemática Aplicada para a Indústria</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MMAI_1F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5279,17 +5279,17 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado/calendario</t>
+          <t>Mestrado (Acesso e Ingresso)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Matemática Aplicada para a Indústria</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Mestrado/MMAI_2F_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5306,17 +5306,17 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado/calendario</t>
+          <t>Mestrado (Acesso e Ingresso)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Mestrado</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
         </is>
       </c>
     </row>
@@ -5333,17 +5333,17 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado/calendario</t>
+          <t>Mestrado (Acesso e Ingresso)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Mestrado</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado/calendario</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -5360,17 +5360,17 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado/calendario</t>
+          <t>Mestrado (Acesso e Ingresso)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>declaração de honra como se comprometem em entregar o certificado final de curso</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_03_2025_Calendario_Mestrados.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/SGAAE.MD.16.02%20Declara%C3%A7%C3%A3o%20compromisso%20concurso%2029_2_2024.docx</t>
         </is>
       </c>
     </row>
@@ -5387,17 +5387,17 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado/calendario</t>
+          <t>Mestrado (Acesso e Ingresso)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>requerimento geral</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
         </is>
       </c>
     </row>
@@ -5441,17 +5441,17 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Mudança de par Instituição/Curso</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Calendário</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso/calendario</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso</t>
         </is>
       </c>
     </row>
@@ -5468,17 +5468,17 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Mudança de par Instituição/Curso</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Declaração compromisso de honra</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.20.01%20Declara%C3%A7%C3%A3o%20compromisso%20creditacao%20competencia.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -5495,17 +5495,17 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Mudança de par Instituição/Curso</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Mudança de par Instituição / Curso</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEB_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso/calendario</t>
         </is>
       </c>
     </row>
@@ -5522,17 +5522,17 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Mudança de par Instituição/Curso</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Ordem de Serviço n.º 05/P/2025</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEC_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_05_2025_Calendario_MPIC.pdf</t>
         </is>
       </c>
     </row>
@@ -5549,17 +5549,17 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Mudança de par Instituição/Curso</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEE_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -5581,12 +5581,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEETC_2526_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso/calendario</t>
         </is>
       </c>
     </row>
@@ -5608,12 +5608,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Engenharia Informática Redes e Telecomunicações</t>
+          <t>Declaração compromisso de honra</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEIRT_2526.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.20.01%20Declara%C3%A7%C3%A3o%20compromisso%20creditacao%20competencia.pdf</t>
         </is>
       </c>
     </row>
@@ -5635,12 +5635,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEIM_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEB_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5662,12 +5662,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEIC_2526.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEC_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5689,12 +5689,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - vagas adicionais</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEM_2526_adicional.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEE_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5716,12 +5716,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEQB_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEETC_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5743,12 +5743,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Engenharia Informática Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEIRT_2526.pdf</t>
         </is>
       </c>
     </row>
@@ -5770,12 +5770,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LMATE_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEIM_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5797,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Mudança de par Instituição / Curso</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEIC_2526.pdf</t>
         </is>
       </c>
     </row>
@@ -5824,12 +5824,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia Mecânica - vagas adicionais</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEM_2526_adicional.pdf</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-nacional-de-acesso</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-nacional-de-acesso</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LEQB_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5878,12 +5878,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>requerimento geral</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -5900,17 +5900,17 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso/calendario</t>
+          <t>Mudança de par Instituição/Curso</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/MPIC_LMATE_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -5927,17 +5927,17 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso/calendario</t>
+          <t>Mudança de par Instituição/Curso</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Mudança de par Instituição / Curso</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso</t>
         </is>
       </c>
     </row>
@@ -5954,17 +5954,17 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso/calendario</t>
+          <t>Mudança de par Instituição/Curso</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Mudança de par Instituição / Curso</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso/calendario</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -5981,17 +5981,17 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso/calendario</t>
+          <t>Mudança de par Instituição/Curso</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Ordem de Serviço n.º 05/P/2025</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-nacional-de-acesso</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_05_2025_Calendario_MPIC.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/concurso-nacional-de-acesso</t>
         </is>
       </c>
     </row>
@@ -6008,17 +6008,17 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mudanca-de-par-instituicao-curso/calendario</t>
+          <t>Mudança de par Instituição/Curso</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>requerimento geral</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
         </is>
       </c>
     </row>
@@ -7358,17 +7358,17 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Reingresso (Licenciatura)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Calendário</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-licenciatura/calendario</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-licenciatura</t>
         </is>
       </c>
     </row>
@@ -7385,17 +7385,17 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Reingresso (Licenciatura)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Declaração compromisso de honra</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.19.01%20Declara%C3%A7%C3%A3o%20compromisso%20reingresso.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -7412,17 +7412,17 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Reingresso (Licenciatura)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Ordem de Serviço n.º 06/2025</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEB_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_06_2025_Calendario_Reingressos.pdf</t>
         </is>
       </c>
     </row>
@@ -7439,17 +7439,17 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Reingresso (Licenciatura)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Reingresso</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEC_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-licenciatura/calendario</t>
         </is>
       </c>
     </row>
@@ -7466,17 +7466,17 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Reingresso (Licenciatura)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEC_2fase_prov_v2.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -7498,12 +7498,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEE_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-licenciatura/calendario</t>
         </is>
       </c>
     </row>
@@ -7525,12 +7525,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Declaração compromisso de honra</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEE_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.19.01%20Declara%C3%A7%C3%A3o%20compromisso%20reingresso.pdf</t>
         </is>
       </c>
     </row>
@@ -7552,12 +7552,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEETC_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEB_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7579,12 +7579,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEETC_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEC_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7606,12 +7606,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEFA_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEC_2fase_prov_v2.pdf</t>
         </is>
       </c>
     </row>
@@ -7633,12 +7633,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Engenharia Informática Redes e Telecomunicações</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEIRT_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEE_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7660,12 +7660,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEIM_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEE_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEIM_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEETC_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7714,12 +7714,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEIC_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEETC_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7741,12 +7741,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEIC_2fase.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEFA_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7768,12 +7768,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Informática Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEM_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEIRT_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7795,12 +7795,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEM_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEIM_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7822,12 +7822,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEQB_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEIM_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7849,12 +7849,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEQB_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEIC_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7876,12 +7876,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEIC_2fase.pdf</t>
         </is>
       </c>
     </row>
@@ -7903,12 +7903,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LMATE_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEM_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7930,12 +7930,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Reingresso</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-licenciatura</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEM_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7957,12 +7957,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEQB_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/Reingresso_LTGM_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LEQB_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8011,12 +8011,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LTGM_2fase.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -8038,12 +8038,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>requerimento geral</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LMATE_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8060,12 +8060,12 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-licenciatura/calendario</t>
+          <t>Reingresso (Licenciatura)</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Reingresso</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -8087,17 +8087,17 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-licenciatura/calendario</t>
+          <t>Reingresso (Licenciatura)</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -8114,17 +8114,17 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-licenciatura/calendario</t>
+          <t>Reingresso (Licenciatura)</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Ordem de Serviço n.º 06/2025</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_06_2025_Calendario_Reingressos.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/Reingresso_LTGM_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8141,17 +8141,17 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-licenciatura/calendario</t>
+          <t>Reingresso (Licenciatura)</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Reingresso</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-licenciatura/calendario</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_LTGM_2fase.pdf</t>
         </is>
       </c>
     </row>
@@ -8168,17 +8168,17 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-licenciatura/calendario</t>
+          <t>Reingresso (Licenciatura)</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>requerimento geral</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
         </is>
       </c>
     </row>
@@ -8195,17 +8195,17 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Reingresso (Mestrado)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Calendário</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado/calendario</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado</t>
         </is>
       </c>
     </row>
@@ -8222,17 +8222,17 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Reingresso (Mestrado)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Declaração compromisso de honra</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.19.01%20Declara%C3%A7%C3%A3o%20compromisso%20reingresso.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -8249,17 +8249,17 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Reingresso (Mestrado)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Ordem de Serviço n.º 06/2025</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEB_2526_1_fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_06_2025_Calendario_Reingressos.pdf</t>
         </is>
       </c>
     </row>
@@ -8276,17 +8276,17 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Reingresso (Mestrado)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Reingresso</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEB_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado/calendario</t>
         </is>
       </c>
     </row>
@@ -8303,17 +8303,17 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Reingresso (Mestrado)</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEC_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -8335,12 +8335,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEC_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado/calendario</t>
         </is>
       </c>
     </row>
@@ -8362,12 +8362,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Declaração compromisso de honra</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEE_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.19.01%20Declara%C3%A7%C3%A3o%20compromisso%20reingresso.pdf</t>
         </is>
       </c>
     </row>
@@ -8389,12 +8389,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEET_2526_1fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEB_2526_1_fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8416,12 +8416,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEET_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEB_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEIM_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEC_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8470,12 +8470,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEIC_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEC_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8497,12 +8497,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - Energia, Refrigeração e Climatização</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEM-ERC_2526_1_fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEE_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8524,12 +8524,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - Energia, Refrigeração e Climatização</t>
+          <t>Engenharia Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEM-ERC_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEET_2526_1fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8551,12 +8551,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - Manutenção e Produção</t>
+          <t>Engenharia Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEM-MP_2526_1_fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEET_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8578,12 +8578,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - Manutenção e Produção</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEM-MP_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEIM_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8605,12 +8605,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica - Bioprocessos</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEQB_2526_1_fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEIC_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8632,12 +8632,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Engenharia Mecânica - Energia, Refrigeração e Climatização</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEGI_2526_1_fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEM-ERC_2526_1_fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8659,12 +8659,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Engenharia Mecânica - Energia, Refrigeração e Climatização</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEM-ERC_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8686,12 +8686,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Reingresso</t>
+          <t>Engenharia Mecânica - Manutenção e Produção</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEM-MP_2526_1_fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8713,12 +8713,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia Mecânica - Manutenção e Produção</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEM-MP_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8740,12 +8740,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>requerimento geral</t>
+          <t>Engenharia Química e Biológica - Bioprocessos</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEQB_2526_1_fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8762,17 +8762,17 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado/calendario</t>
+          <t>Reingresso (Mestrado)</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Reingresso/Reingresso_MEGI_2526_1_fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado/calendario</t>
+          <t>Reingresso (Mestrado)</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8816,17 +8816,17 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado/calendario</t>
+          <t>Reingresso (Mestrado)</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Ordem de Serviço n.º 06/2025</t>
+          <t>Reingresso</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_06_2025_Calendario_Reingressos.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado</t>
         </is>
       </c>
     </row>
@@ -8843,17 +8843,17 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado/calendario</t>
+          <t>Reingresso (Mestrado)</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Reingresso</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado/calendario</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -8870,17 +8870,17 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/reingresso-mestrado/calendario</t>
+          <t>Reingresso (Mestrado)</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>requerimento geral</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
         </is>
       </c>
     </row>
@@ -8897,17 +8897,17 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Calendários</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/calendarios</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica</t>
         </is>
       </c>
     </row>
@@ -8924,17 +8924,17 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Declaração compromisso concurso não nacional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.10.02%20Declara%C3%A7%C3%A3o%20compromisso%20candidato%20n%C3%A3o%20nacional.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
         </is>
       </c>
     </row>
@@ -8951,17 +8951,17 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/DET_LEE_2526.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -8978,17 +8978,17 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Ordem de Serviço n.º 04/P/2025</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/DET_LEIM_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_04_2025_Calendario_M23.pdf</t>
         </is>
       </c>
     </row>
@@ -9005,17 +9005,17 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Informações sobre as provas</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -9032,17 +9032,17 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
+          <t>Calendários</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
           <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>Legislação e Regulamentos</t>
-        </is>
-      </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/calendarios</t>
         </is>
       </c>
     </row>
@@ -9059,17 +9059,17 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrotécnica</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL%20Admissao_M23_DET_TeSP_2025.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/calendarios</t>
         </is>
       </c>
     </row>
@@ -9086,17 +9086,17 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrotécnica</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL_Prova_Definitivo_DET_2025_CV.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica</t>
         </is>
       </c>
     </row>
@@ -9113,17 +9113,17 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e Multimédia</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIM_EDITAL%20Admissao_M23_DET_DTSP_2025.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEB_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -9140,17 +9140,17 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e Multimédia</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIM_%20EDITAL_Definitivo_Provas%20Escrita_DET_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEB-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -9167,17 +9167,17 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e de Computadores</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC%20EDITAL%20Admissao_M23%20DET%20DTSP%202025.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEB-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -9194,17 +9194,17 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e de Computadores</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_EDITAL_Prova_Definitivo_DET_2025_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEC_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -9221,17 +9221,17 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEC-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -9248,17 +9248,17 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEC-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -9275,17 +9275,17 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>declaração de compromisso</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.09.03%20Declara%C3%A7%C3%A3o%20compromisso%20candidatura%20provas.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEE_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -9302,17 +9302,17 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>declaração de compromisso de candidatura à vaga</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.16.03%20Declara%C3%A7%C3%A3o%20compromisso%20candidatura%20vaga.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEE-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -9329,17 +9329,17 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>requerimento geral</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEE-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -9356,17 +9356,17 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>área específica</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/Areas_CNAEF_DET_e_DTESP%20_%2014_06_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEETC_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -9383,17 +9383,17 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/calendarios</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEETC-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -9410,17 +9410,17 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/calendarios</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Informações sobre as provas</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEETC-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -9437,17 +9437,17 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/calendarios</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEFA_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -9464,17 +9464,17 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/calendarios</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Ordem de Serviço n.º 04/P/2025</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_04_2025_Calendario_M23.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEFA-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -9491,17 +9491,17 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/calendarios</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEFA_M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -9518,17 +9518,17 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/calendarios</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/calendarios</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIM_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -9545,17 +9545,17 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Calendários</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/calendarios</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIM-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -9572,17 +9572,17 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIM-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -9599,17 +9599,17 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEB_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIC_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -9626,17 +9626,17 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEB-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIC-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -9653,17 +9653,17 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEB-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIC-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -9680,17 +9680,17 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEC_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIRT_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -9707,17 +9707,17 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEC-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIRT-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -9734,17 +9734,17 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEC-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIRT-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -9761,17 +9761,17 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEE_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEM_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -9788,17 +9788,17 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEE-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEM-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -9815,17 +9815,17 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEE-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEM-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -9842,17 +9842,17 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEETC_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEQB_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -9869,17 +9869,17 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEETC-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEQB-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -9896,17 +9896,17 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEETC-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEQB-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -9923,17 +9923,17 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEFA_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -9950,17 +9950,17 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEFA-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LMATE_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -9977,17 +9977,17 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEFA_M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LMATE-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -10004,17 +10004,17 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIM_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LMATE-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -10031,17 +10031,17 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIM-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -10058,17 +10058,17 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIM-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LTGM_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -10085,17 +10085,17 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIC_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LTGM-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -10112,17 +10112,17 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIC-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LTGM-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -10139,17 +10139,17 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
+          <t>Informações sobre as provas</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
           <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>Engenharia Informática e de Computadores</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIC-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -10166,17 +10166,17 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
+          <t>salas C.3.07 e C3.09 (3.º piso do edifício C)</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIRT_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/o-isel-apresenta-se/onde-estamos</t>
         </is>
       </c>
     </row>
@@ -10193,17 +10193,17 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIRT-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/calendarios</t>
         </is>
       </c>
     </row>
@@ -10220,17 +10220,17 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Declaração compromisso concurso não nacional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIRT-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.10.02%20Declara%C3%A7%C3%A3o%20compromisso%20candidato%20n%C3%A3o%20nacional.pdf</t>
         </is>
       </c>
     </row>
@@ -10247,17 +10247,17 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEM_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/DET_LEE_2526.pdf</t>
         </is>
       </c>
     </row>
@@ -10274,17 +10274,17 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEM-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/DET_LEIM_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -10301,17 +10301,17 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Informações sobre as provas</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
           <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>Engenharia Mecânica</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEM-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -10328,17 +10328,17 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEQB_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -10355,17 +10355,17 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Licenciatura em Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEQB-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL%20Admissao_M23_DET_TeSP_2025.pdf</t>
         </is>
       </c>
     </row>
@@ -10382,17 +10382,17 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Licenciatura em Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEQB-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL_Prova_Definitivo_DET_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -10409,17 +10409,17 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Licenciatura em Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIM_EDITAL%20Admissao_M23_DET_DTSP_2025.pdf</t>
         </is>
       </c>
     </row>
@@ -10436,17 +10436,17 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Licenciatura em Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LMATE_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIM_%20EDITAL_Definitivo_Provas%20Escrita_DET_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -10463,17 +10463,17 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Licenciatura em Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LMATE-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC%20EDITAL%20Admissao_M23%20DET%20DTSP%202025.pdf</t>
         </is>
       </c>
     </row>
@@ -10490,17 +10490,17 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Licenciatura em Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LMATE-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_EDITAL_Prova_Definitivo_DET_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -10544,17 +10544,17 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LTGM_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica</t>
         </is>
       </c>
     </row>
@@ -10571,17 +10571,17 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>declaração de compromisso</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LTGM-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.09.03%20Declara%C3%A7%C3%A3o%20compromisso%20candidatura%20provas.pdf</t>
         </is>
       </c>
     </row>
@@ -10598,17 +10598,17 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>declaração de compromisso de candidatura à vaga</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LTGM-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.16.03%20Declara%C3%A7%C3%A3o%20compromisso%20candidatura%20vaga.pdf</t>
         </is>
       </c>
     </row>
@@ -10625,17 +10625,17 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Especialização Tecnológica</t>
+          <t>requerimento geral</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
         </is>
       </c>
     </row>
@@ -10652,17 +10652,17 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-especializacao-tecnologica/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Especialização Tecnológica</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>salas C.3.07 e C3.09 (3.º piso do edifício C)</t>
+          <t>área específica</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/o-isel-apresenta-se/onde-estamos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/Areas_CNAEF_DET_e_DTESP%20_%2014_06_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -10679,17 +10679,17 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Calendários</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/calendarios</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional</t>
         </is>
       </c>
     </row>
@@ -10706,17 +10706,17 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Declaração compromisso concurso não nacional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.10.02%20Declara%C3%A7%C3%A3o%20compromisso%20candidato%20n%C3%A3o%20nacional.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
         </is>
       </c>
     </row>
@@ -10733,17 +10733,17 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/DTSP_LEIC_2526_prov.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -10760,17 +10760,17 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Ordem de Serviço n.º 04/P/2025</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/DTSP_LEQB_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_04_2025_Calendario_M23.pdf</t>
         </is>
       </c>
     </row>
@@ -10787,17 +10787,17 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Informações sobre as provas</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -10814,17 +10814,17 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
+          <t>Calendários</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
           <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>Legislação e Regulamentos</t>
-        </is>
-      </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/calendarios</t>
         </is>
       </c>
     </row>
@@ -10841,17 +10841,17 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrotécnica</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL%20Admissao_M23_DET_TeSP_2025.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/calendarios</t>
         </is>
       </c>
     </row>
@@ -10868,17 +10868,17 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrotécnica</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL_Prova_Definitivo_TeSP_2025_CV.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional</t>
         </is>
       </c>
     </row>
@@ -10895,17 +10895,17 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_EDITAL_Admissao_M23_DET_DTSP_2025.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEB_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -10922,17 +10922,17 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_EDITAL_Prova_Definitivo_DTSP_2025_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEB-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -10949,17 +10949,17 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e Multimédia</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIM_EDITAL%20Admissao_M23_DET_DTSP_2025.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEB-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -10976,17 +10976,17 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e Multimédia</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIM_%20EDITAL_Definitivo_Provas%20Escrita_DTSP_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEC_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -11003,17 +11003,17 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e de Computadores</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC%20EDITAL%20Admissao_M23%20DET%20DTSP%202025.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEC-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -11030,17 +11030,17 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Informática e de Computadores</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_EDITAL_Prova_Definitivo_DTSP_2025_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEC-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -11057,17 +11057,17 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Química e Biológica</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEQB_EDITAL%20Admissao_2025_retificacao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEE_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -11084,17 +11084,17 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Licenciatura em Engenharia Química e Biológica</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEQB_EDITAL_DTSP_Definitivo_Prova_Escrita_CV.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEE-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -11111,17 +11111,17 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEE-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -11138,17 +11138,17 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEETC_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -11165,17 +11165,17 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>declaração de compromisso</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.09.03%20Declara%C3%A7%C3%A3o%20compromisso%20candidatura%20provas.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEETC-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -11192,17 +11192,17 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>declaração de compromisso de candidatura à vaga</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.16.03%20Declara%C3%A7%C3%A3o%20compromisso%20candidatura%20vaga.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEETC-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -11219,17 +11219,17 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>icenciatura em Engenharia Informática e de Computadores - Apreciação de exposição</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_EDITAL_Apreciacao_exposicao_2025.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEFA_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -11246,17 +11246,17 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>requerimento geral</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEFA-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -11273,17 +11273,17 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>área específica</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/Areas_CNAEF_DET_e_DTESP%20_%2014_06_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEFA_M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -11300,17 +11300,17 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/calendarios</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIM_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -11327,17 +11327,17 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/calendarios</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Informações sobre as provas</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIM-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -11354,17 +11354,17 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/calendarios</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIM-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -11381,17 +11381,17 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/calendarios</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Ordem de Serviço n.º 04/P/2025</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_04_2025_Calendario_M23.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIC_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -11408,17 +11408,17 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/calendarios</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIC-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -11435,17 +11435,17 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/calendarios</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/calendarios</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIC-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -11462,17 +11462,17 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Calendários</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/calendarios</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIRT_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -11489,17 +11489,17 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIRT-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -11516,17 +11516,17 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEB_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIRT-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -11543,17 +11543,17 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEB-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEM_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -11570,17 +11570,17 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEB-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEM-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -11597,17 +11597,17 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEC_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEM-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -11624,17 +11624,17 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEC-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEQB_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -11651,17 +11651,17 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEC-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEQB-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -11678,17 +11678,17 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEE_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEQB-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -11705,17 +11705,17 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEE-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -11732,17 +11732,17 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEE-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LMATE_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -11759,17 +11759,17 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEETC_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LMATE-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -11786,17 +11786,17 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEETC-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LMATE-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -11813,17 +11813,17 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEETC-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -11840,17 +11840,17 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEFA_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LTGM_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -11867,17 +11867,17 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEFA-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LTGM-M23-ProvaModelo.pdf</t>
         </is>
       </c>
     </row>
@@ -11894,17 +11894,17 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEFA_M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LTGM-M23-solucao.pdf</t>
         </is>
       </c>
     </row>
@@ -11921,17 +11921,17 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
+          <t>Informações sobre as provas</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
           <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
-        </is>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>Engenharia Informática e Multimédia</t>
-        </is>
-      </c>
-      <c r="E426" t="inlineStr">
-        <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIM_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -11948,17 +11948,17 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Informações sobre as provas</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>salas C.3.07 e C3.09 (3.º piso do edifício C)</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIM-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/o-isel-apresenta-se/onde-estamos</t>
         </is>
       </c>
     </row>
@@ -11975,17 +11975,17 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Calendários</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIM-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/calendarios</t>
         </is>
       </c>
     </row>
@@ -12002,17 +12002,17 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Declaração compromisso concurso não nacional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIC_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.10.02%20Declara%C3%A7%C3%A3o%20compromisso%20candidato%20n%C3%A3o%20nacional.pdf</t>
         </is>
       </c>
     </row>
@@ -12029,7 +12029,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -12039,7 +12039,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIC-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/DTSP_LEIC_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -12056,17 +12056,17 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIC-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/DTSP_LEQB_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -12083,17 +12083,17 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Informações sobre as provas</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
           <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
-        </is>
-      </c>
-      <c r="E432" t="inlineStr">
-        <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEIRT_Programa_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -12110,17 +12110,17 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEIRT-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -12137,17 +12137,17 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Licenciatura em Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEIRT-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL%20Admissao_M23_DET_TeSP_2025.pdf</t>
         </is>
       </c>
     </row>
@@ -12164,17 +12164,17 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Licenciatura em Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEM_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEE_EDITAL_Prova_Definitivo_TeSP_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -12191,17 +12191,17 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Licenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEM-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_EDITAL_Admissao_M23_DET_DTSP_2025.pdf</t>
         </is>
       </c>
     </row>
@@ -12218,17 +12218,17 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Licenciatura em Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEM-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEETC_EDITAL_Prova_Definitivo_DTSP_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -12245,17 +12245,17 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Licenciatura em Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LEQB_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIM_EDITAL%20Admissao_M23_DET_DTSP_2025.pdf</t>
         </is>
       </c>
     </row>
@@ -12272,17 +12272,17 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Licenciatura em Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LEQB-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIM_%20EDITAL_Definitivo_Provas%20Escrita_DTSP_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -12299,17 +12299,17 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Licenciatura em Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LEQB-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC%20EDITAL%20Admissao_M23%20DET%20DTSP%202025.pdf</t>
         </is>
       </c>
     </row>
@@ -12326,17 +12326,17 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Licenciatura em Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_EDITAL_Prova_Definitivo_DTSP_2025_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -12353,17 +12353,17 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Licenciatura em Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LMATE_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEQB_EDITAL%20Admissao_2025_retificacao.pdf</t>
         </is>
       </c>
     </row>
@@ -12380,17 +12380,17 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Licenciatura em Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LMATE-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEQB_EDITAL_DTSP_Definitivo_Prova_Escrita_CV.pdf</t>
         </is>
       </c>
     </row>
@@ -12407,17 +12407,17 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LMATE-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -12434,17 +12434,17 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional</t>
         </is>
       </c>
     </row>
@@ -12461,17 +12461,17 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>declaração de compromisso</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/programas_23/LTGM_Programa_2023.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.09.03%20Declara%C3%A7%C3%A3o%20compromisso%20candidatura%20provas.pdf</t>
         </is>
       </c>
     </row>
@@ -12488,17 +12488,17 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>declaração de compromisso de candidatura à vaga</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_23/LTGM-M23-ProvaModelo.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.16.03%20Declara%C3%A7%C3%A3o%20compromisso%20candidatura%20vaga.pdf</t>
         </is>
       </c>
     </row>
@@ -12515,17 +12515,17 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>icenciatura em Engenharia Informática e de Computadores - Apreciação de exposição</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/concursos_especiais23_modelos/provas_modelo_solucao_23/LTGM-M23-solucao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/LEIC_EDITAL_Apreciacao_exposicao_2025.pdf</t>
         </is>
       </c>
     </row>
@@ -12542,17 +12542,17 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Titulares de Diploma de Técnico Superior Profissional</t>
+          <t>requerimento geral</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
         </is>
       </c>
     </row>
@@ -12569,17 +12569,17 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-diploma-de-tecnico-superior-profissional/informacoes-sobre-as-provas</t>
+          <t>Titulares de Diploma de Técnico Superior Profissional</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>salas C.3.07 e C3.09 (3.º piso do edifício C)</t>
+          <t>área específica</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/o-isel-apresenta-se/onde-estamos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/Areas_CNAEF_DET_e_DTESP%20_%2014_06_2023.pdf</t>
         </is>
       </c>
     </row>
@@ -12596,17 +12596,17 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Titulares de Outros Cursos Superiores</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Calendário</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores/calendario</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores</t>
         </is>
       </c>
     </row>
@@ -12623,17 +12623,17 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Titulares de Outros Cursos Superiores</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Declaração compromisso concurso não nacional</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.10.02%20Declara%C3%A7%C3%A3o%20compromisso%20candidato%20n%C3%A3o%20nacional.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -12650,17 +12650,17 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Titulares de Outros Cursos Superiores</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Ordem de Serviço n.º 05/P/2025</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/TOCS_LEC_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_05_2025_Calendario_MPIC.pdf</t>
         </is>
       </c>
     </row>
@@ -12677,17 +12677,17 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Titulares de Outros Cursos Superiores</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/TOCS_LEE_2526.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -12704,17 +12704,17 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Titulares de Outros Cursos Superiores</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Titulares de outros cursos superiores</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/TOCS_LEETC_2526_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores/calendario</t>
         </is>
       </c>
     </row>
@@ -12736,12 +12736,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/TOCS_LEIM_2526_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores/calendario</t>
         </is>
       </c>
     </row>
@@ -12763,12 +12763,12 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Declaração compromisso concurso não nacional</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/TOCS_LEIC_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.10.02%20Declara%C3%A7%C3%A3o%20compromisso%20candidato%20n%C3%A3o%20nacional.pdf</t>
         </is>
       </c>
     </row>
@@ -12790,12 +12790,12 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/TOCS_LEC_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -12817,12 +12817,12 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/TOCS_LEE_2526.pdf</t>
         </is>
       </c>
     </row>
@@ -12844,12 +12844,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Titulares de outros cursos superiores</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/TOCS_LEETC_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -12871,12 +12871,12 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>requerimento geral</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/TOCS_LEIM_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -12893,17 +12893,17 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores/calendario</t>
+          <t>Titulares de Outros Cursos Superiores</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/Especiais/TOCS_LEIC_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -12920,7 +12920,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores/calendario</t>
+          <t>Titulares de Outros Cursos Superiores</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -12947,17 +12947,17 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores/calendario</t>
+          <t>Titulares de Outros Cursos Superiores</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Ordem de Serviço n.º 05/P/2025</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_05_2025_Calendario_MPIC.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -12974,17 +12974,17 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores/calendario</t>
+          <t>Titulares de Outros Cursos Superiores</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Titulares de outros cursos superiores</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores</t>
         </is>
       </c>
     </row>
@@ -13001,17 +13001,17 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores/calendario</t>
+          <t>Titulares de Outros Cursos Superiores</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Titulares de outros cursos superiores</t>
+          <t>requerimento geral</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/titulares-de-outros-cursos-superiores/calendario</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.01.02%20Requerimento%20geral.pdf</t>
         </is>
       </c>
     </row>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Unidades Curriculares Isoladas</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -13055,17 +13055,17 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Unidades Curriculares Isoladas</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Despacho n.º 39/P/2025</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-isoladas</t>
         </is>
       </c>
     </row>
@@ -13082,17 +13082,17 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Unidades Curriculares Isoladas</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Edital adenda 08-09-2025</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_PG-PMIE_Excecao_adenda_2526_prov.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -13109,17 +13109,17 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Unidades Curriculares Isoladas</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Ordem de Serviço n.º 07/P/2025</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEB_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_07_2025_Calendario_UCI_UCES.pdf</t>
         </is>
       </c>
     </row>
@@ -13136,17 +13136,17 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Unidades Curriculares Isoladas</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEB_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -13163,17 +13163,17 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Unidades Curriculares Isoladas</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>ordem de serviço n.º 08/P/2024</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEC_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2024/OS_08_P_2024_Calendario_UCI_UCCES.pdf</t>
         </is>
       </c>
     </row>
@@ -13195,12 +13195,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEC_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-isoladas/calendario</t>
         </is>
       </c>
     </row>
@@ -13222,12 +13222,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Despacho n.º 39/P/2025</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_MEC_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
@@ -13249,12 +13249,12 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Edital adenda 08-09-2025</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEE_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_PG-PMIE_Excecao_adenda_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13276,12 +13276,12 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEE_2526_2fase_prov_v2.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEB_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13303,12 +13303,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEETC_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEB_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13330,12 +13330,12 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEETC_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEC_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13357,12 +13357,12 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Engenharia Informática Redes e Telecomunicações</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEIRT_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEC_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13384,12 +13384,12 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Engenharia Informática Redes e Telecomunicações</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEIRT_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_MEC_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13411,12 +13411,12 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEIM_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEE_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13438,12 +13438,12 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEIM_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEE_2526_2fase_prov_v2.pdf</t>
         </is>
       </c>
     </row>
@@ -13465,12 +13465,12 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEIC_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEETC_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13492,12 +13492,12 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEIC_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEETC_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13519,12 +13519,12 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Informática Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_MEIC_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEIRT_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13546,12 +13546,12 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Informática Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEM_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEIRT_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13573,12 +13573,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEM_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEIM_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13600,12 +13600,12 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_MEM_MP_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEIM_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13627,12 +13627,12 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_MEM-ERC_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEIC_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13654,12 +13654,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEQB_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEIC_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13681,12 +13681,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_MEQB_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_MEIC_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13708,12 +13708,12 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Engenharia da Qualidade e Ambiente</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_MEQA_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEM_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13735,12 +13735,12 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Formulário de candidatura para a frequência de unidades curriculares isoladas</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.05.04%20Candidatura%20UCI.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEM_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13762,12 +13762,12 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_MEM_MP_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13789,12 +13789,12 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LMATE_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_MEM-ERC_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13816,12 +13816,12 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Projeto e Manutenção de Instalações Elétricas</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_PG-PMIE_Excecao_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LEQB_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13843,12 +13843,12 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_MEQB_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13870,12 +13870,12 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>Engenharia da Qualidade e Ambiente</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LTGM_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_MEQA_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13897,12 +13897,12 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Unidades curriculares isoladas</t>
+          <t>Formulário de candidatura para a frequência de unidades curriculares isoladas</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-isoladas</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.05.04%20Candidatura%20UCI.pdf</t>
         </is>
       </c>
     </row>
@@ -13924,12 +13924,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>instruções</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/informacoes-academicas/requerimentos-e-pedidos#requerimentos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -13951,12 +13951,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>valores associados</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LMATE_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -13973,17 +13973,17 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-isoladas/calendario</t>
+          <t>Unidades Curriculares Isoladas</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Calendário</t>
+          <t>Projeto e Manutenção de Instalações Elétricas</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-isoladas/calendario</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_PG-PMIE_Excecao_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14000,17 +14000,17 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-isoladas/calendario</t>
+          <t>Unidades Curriculares Isoladas</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-isoladas</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -14027,17 +14027,17 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-isoladas/calendario</t>
+          <t>Unidades Curriculares Isoladas</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCI_LTGM_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14054,17 +14054,17 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-isoladas/calendario</t>
+          <t>Unidades Curriculares Isoladas</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>Ordem de Serviço n.º 07/P/2025</t>
+          <t>Unidades curriculares isoladas</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_07_2025_Calendario_UCI_UCES.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-isoladas</t>
         </is>
       </c>
     </row>
@@ -14081,17 +14081,17 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-isoladas/calendario</t>
+          <t>Unidades Curriculares Isoladas</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>instruções</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/informacoes-academicas/requerimentos-e-pedidos#requerimentos</t>
         </is>
       </c>
     </row>
@@ -14108,17 +14108,17 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-isoladas/calendario</t>
+          <t>Unidades Curriculares Isoladas</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>ordem de serviço n.º 08/P/2024</t>
+          <t>valores associados</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2024/OS_08_P_2024_Calendario_UCI_UCCES.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -14162,17 +14162,17 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>Ciclos de estudos subsequentes</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/ciclos</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes</t>
         </is>
       </c>
     </row>
@@ -14189,17 +14189,17 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Ciclos de estudos subsequentes</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEC_2526_2fase.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/ciclos</t>
         </is>
       </c>
     </row>
@@ -14216,17 +14216,17 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Engenharia Civil - Retificação</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEC_2526_1fase_retificacao.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -14243,17 +14243,17 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Ordem de Serviço n.º 07/P/2025</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEE_1_fase_2526.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_07_2025_Calendario_UCI_UCES.pdf</t>
         </is>
       </c>
     </row>
@@ -14270,17 +14270,17 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEE_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -14297,17 +14297,17 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações</t>
+          <t>ordem de serviço n.º 08/P/2024</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEET_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2024/OS_08_P_2024_Calendario_UCI_UCCES.pdf</t>
         </is>
       </c>
     </row>
@@ -14324,17 +14324,17 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Ciclos de estudos subsequentes</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEIM_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/calendario</t>
         </is>
       </c>
     </row>
@@ -14351,17 +14351,17 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Ciclos de estudos subsequentes</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Candidatura</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEIM_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes</t>
         </is>
       </c>
     </row>
@@ -14378,17 +14378,17 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Ciclos de estudos subsequentes</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Ciclos de estudos subsequentes</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEIC_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/ciclos</t>
         </is>
       </c>
     </row>
@@ -14405,17 +14405,17 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Ciclos de estudos subsequentes</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEM_MP_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -14432,17 +14432,17 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Ciclos de estudos subsequentes</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - Energia, Refrigeração e Climatização</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEM_ERC_2526_2fase_adenda_prov.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -14464,12 +14464,12 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica - Manutenção e Produção</t>
+          <t>Calendário</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEM-MP_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/calendario</t>
         </is>
       </c>
     </row>
@@ -14491,12 +14491,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica-Perfil Bioprocessos</t>
+          <t>Ciclos de estudos subsequentes</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEQB_Bio_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/ciclos</t>
         </is>
       </c>
     </row>
@@ -14518,12 +14518,12 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica-Perfil Bioprocessos</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEQB_2526_2fase_prov_v2.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEC_2526_2fase.pdf</t>
         </is>
       </c>
     </row>
@@ -14545,12 +14545,12 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Engenharia da Qualidade e Ambiente</t>
+          <t>Engenharia Civil - Retificação</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEQA_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEC_2526_1fase_retificacao.pdf</t>
         </is>
       </c>
     </row>
@@ -14572,12 +14572,12 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEGI_1_fase_2526_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEE_1_fase_2526.pdf</t>
         </is>
       </c>
     </row>
@@ -14599,12 +14599,12 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEGI_2526_2fase_def.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEE_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14626,12 +14626,12 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>Formulário de candidatura para a frequência de unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Engenharia Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.06.04%20Candidatura%20UCCES.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEET_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14653,12 +14653,12 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEIM_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14680,12 +14680,12 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Matemática Aplicada para a Indústria</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MMAI_2526_2fase_prov.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEIM_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14707,12 +14707,12 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEIC_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14734,12 +14734,12 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEM_MP_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14761,12 +14761,12 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>valores associados</t>
+          <t>Engenharia Mecânica - Energia, Refrigeração e Climatização</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEM_ERC_2526_2fase_adenda_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14783,17 +14783,17 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/calendario</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Calendário</t>
+          <t>Engenharia Mecânica - Manutenção e Produção</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/calendario</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEM-MP_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14810,17 +14810,17 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/calendario</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Engenharia Química e Biológica-Perfil Bioprocessos</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEQB_Bio_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14837,17 +14837,17 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/calendario</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Ciclos de estudos subsequentes</t>
+          <t>Engenharia Química e Biológica-Perfil Bioprocessos</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/ciclos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEQB_2526_2fase_prov_v2.pdf</t>
         </is>
       </c>
     </row>
@@ -14864,17 +14864,17 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/calendario</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Engenharia da Qualidade e Ambiente</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEQA_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14891,17 +14891,17 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/calendario</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Ordem de Serviço n.º 07/P/2025</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2025/OS_07_2025_Calendario_UCI_UCES.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEGI_1_fase_2526_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -14918,17 +14918,17 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/calendario</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MEGI_2526_2fase_def.pdf</t>
         </is>
       </c>
     </row>
@@ -14945,17 +14945,17 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/calendario</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>ordem de serviço n.º 08/P/2024</t>
+          <t>Formulário de candidatura para a frequência de unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Ordens_Servico/2024/OS_08_P_2024_Calendario_UCI_UCCES.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.06.04%20Candidatura%20UCCES.pdf</t>
         </is>
       </c>
     </row>
@@ -14972,17 +14972,17 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/ciclos</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Calendário</t>
+          <t>Legislação e Regulamentos</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/calendario</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
         </is>
       </c>
     </row>
@@ -14999,17 +14999,17 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/ciclos</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>Candidatura</t>
+          <t>Matemática Aplicada para a Indústria</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/2025/UCI_UCCES/UCCES_MMAI_2526_2fase_prov.pdf</t>
         </is>
       </c>
     </row>
@@ -15026,17 +15026,17 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/ciclos</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Ciclos de estudos subsequentes</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/ciclos</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -15053,17 +15053,17 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/ciclos</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>Legislação e Regulamentos</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/legislacao-normas-regulamentos</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes</t>
         </is>
       </c>
     </row>
@@ -15080,17 +15080,17 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/unidades-curriculares-de-ciclos-de-estudo-subsequentes/ciclos</t>
+          <t>Unidades curriculares de ciclos de estudo subsequentes</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>valores associados</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -28337,7 +28337,7 @@
       </c>
       <c r="C1034" t="inlineStr">
         <is>
-          <t>BIP – Blended Intensive Programmes</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="D1034" t="inlineStr">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="C1035" t="inlineStr">
         <is>
-          <t>BIP – Blended Intensive Programmes</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="D1035" t="inlineStr">
@@ -28391,17 +28391,17 @@
       </c>
       <c r="C1036" t="inlineStr">
         <is>
-          <t>BIP – Blended Intensive Programmes</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>FURTHER DETAILS &gt;</t>
         </is>
       </c>
       <c r="E1036" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425-speakers</t>
         </is>
       </c>
     </row>
@@ -28418,17 +28418,17 @@
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -28445,17 +28445,17 @@
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
-          <t>BIP 2024/25</t>
+          <t>physical component</t>
         </is>
       </c>
       <c r="E1038" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
+          <t>https://www.isel.pt/sites/default/files/BIP/BIP_2025-03_Detailed_Programme_Physical_Component_v4.pdf</t>
         </is>
       </c>
     </row>
@@ -28472,17 +28472,17 @@
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>FURTHER DETAILS &gt;</t>
+          <t>virtual component</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425-speakers</t>
+          <t>https://www.isel.pt/sites/default/files/BIP/3%20BIP%202025-03%20Detailed%20Description%20Virtual%20Component.pdf</t>
         </is>
       </c>
     </row>
@@ -28499,17 +28499,17 @@
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
+          <t>BIP – Blended Intensive Programmes</t>
         </is>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip</t>
         </is>
       </c>
     </row>
@@ -28526,17 +28526,17 @@
       </c>
       <c r="C1041" t="inlineStr">
         <is>
+          <t>BIP – Blended Intensive Programmes</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>BIP 2024/25</t>
+        </is>
+      </c>
+      <c r="E1041" t="inlineStr">
+        <is>
           <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
-        </is>
-      </c>
-      <c r="D1041" t="inlineStr">
-        <is>
-          <t>physical component</t>
-        </is>
-      </c>
-      <c r="E1041" t="inlineStr">
-        <is>
-          <t>https://www.isel.pt/sites/default/files/BIP/BIP_2025-03_Detailed_Programme_Physical_Component_v4.pdf</t>
         </is>
       </c>
     </row>
@@ -28553,17 +28553,17 @@
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
+          <t>BIP – Blended Intensive Programmes</t>
         </is>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
-          <t>virtual component</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1042" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/BIP/3%20BIP%202025-03%20Detailed%20Description%20Virtual%20Component.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -29336,7 +29336,7 @@
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1071" t="inlineStr">
@@ -29363,7 +29363,7 @@
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1072" t="inlineStr">
@@ -29390,7 +29390,7 @@
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1073" t="inlineStr">
@@ -29417,7 +29417,7 @@
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1074" t="inlineStr">
@@ -29444,7 +29444,7 @@
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1075" t="inlineStr">
@@ -29471,7 +29471,7 @@
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1076" t="inlineStr">
@@ -29498,7 +29498,7 @@
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1077" t="inlineStr">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1078" t="inlineStr">
@@ -29552,7 +29552,7 @@
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1079" t="inlineStr">
@@ -29579,7 +29579,7 @@
       </c>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1080" t="inlineStr">
@@ -29606,7 +29606,7 @@
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1081" t="inlineStr">
@@ -29633,7 +29633,7 @@
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1082" t="inlineStr">
@@ -29660,7 +29660,7 @@
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1083" t="inlineStr">
@@ -29687,7 +29687,7 @@
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1084" t="inlineStr">
@@ -29714,7 +29714,7 @@
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1085" t="inlineStr">
@@ -29741,7 +29741,7 @@
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1086" t="inlineStr">
@@ -29768,7 +29768,7 @@
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1087" t="inlineStr">
@@ -29795,7 +29795,7 @@
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1088" t="inlineStr">
@@ -29822,7 +29822,7 @@
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1089" t="inlineStr">
@@ -29849,7 +29849,7 @@
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1090" t="inlineStr">
@@ -29876,7 +29876,7 @@
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1091" t="inlineStr">
@@ -29903,7 +29903,7 @@
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1092" t="inlineStr">
@@ -29930,7 +29930,7 @@
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr">
@@ -29957,7 +29957,7 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr">
@@ -29984,7 +29984,7 @@
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="D1095" t="inlineStr">
@@ -30011,7 +30011,7 @@
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="D1096" t="inlineStr">
@@ -30038,7 +30038,7 @@
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="D1097" t="inlineStr">
@@ -30065,7 +30065,7 @@
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="D1098" t="inlineStr">
@@ -30092,7 +30092,7 @@
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1099" t="inlineStr">
@@ -30119,17 +30119,17 @@
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/informacoes-gerais</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-biomedica</t>
         </is>
       </c>
     </row>
@@ -30146,17 +30146,17 @@
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-biomedica</t>
         </is>
       </c>
     </row>
@@ -30173,17 +30173,17 @@
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>Unidades Curriculares</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SREI/Ofertas_ucs_incoming_EN_2024.pdf</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-civil</t>
         </is>
       </c>
     </row>
@@ -30200,17 +30200,17 @@
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-civil</t>
         </is>
       </c>
     </row>
@@ -30227,17 +30227,17 @@
       </c>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E1104" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-biomedica</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-eletrotecnica</t>
         </is>
       </c>
     </row>
@@ -30254,17 +30254,17 @@
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E1105" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-biomedica</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-eletrotecnica</t>
         </is>
       </c>
     </row>
@@ -30281,17 +30281,17 @@
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-civil</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-eletronica-e-telecomunicacoes-e-de-computadores</t>
         </is>
       </c>
     </row>
@@ -30308,17 +30308,17 @@
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1107" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-civil</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-fisica-aplicada</t>
         </is>
       </c>
     </row>
@@ -30335,17 +30335,17 @@
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-eletrotecnica</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-e-multimedia</t>
         </is>
       </c>
     </row>
@@ -30362,17 +30362,17 @@
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-eletrotecnica</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-informatica-e-multimedia</t>
         </is>
       </c>
     </row>
@@ -30389,17 +30389,17 @@
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E1110" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-eletronica-e-telecomunicacoes-e-de-computadores</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-e-de-computadores</t>
         </is>
       </c>
     </row>
@@ -30416,17 +30416,17 @@
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1111" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E1111" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-fisica-aplicada</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-informatica-e-de-computadores</t>
         </is>
       </c>
     </row>
@@ -30443,17 +30443,17 @@
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E1112" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-e-multimedia</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-redes-e-telecomunicacoes</t>
         </is>
       </c>
     </row>
@@ -30470,17 +30470,17 @@
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-informatica-e-multimedia</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-mecanica</t>
         </is>
       </c>
     </row>
@@ -30497,17 +30497,17 @@
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-e-de-computadores</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-mecanica</t>
         </is>
       </c>
     </row>
@@ -30524,17 +30524,17 @@
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-informatica-e-de-computadores</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-quimica-e-biologica</t>
         </is>
       </c>
     </row>
@@ -30551,17 +30551,17 @@
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-redes-e-telecomunicacoes</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-quimica-e-biologica</t>
         </is>
       </c>
     </row>
@@ -30578,17 +30578,17 @@
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia da Qualidade e Ambiente</t>
         </is>
       </c>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-mecanica</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-da-qualidade-e-ambiente</t>
         </is>
       </c>
     </row>
@@ -30605,17 +30605,17 @@
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia de Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-mecanica</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-de-eletronica-e-telecomunicacoes</t>
         </is>
       </c>
     </row>
@@ -30632,17 +30632,17 @@
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-quimica-e-biologica</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-e-gestao-industrial</t>
         </is>
       </c>
     </row>
@@ -30659,17 +30659,17 @@
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1120" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-quimica-e-biologica</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -30686,17 +30686,17 @@
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>Engenharia da Qualidade e Ambiente</t>
+          <t>Matemática Aplicada para a Indústria</t>
         </is>
       </c>
       <c r="E1121" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-da-qualidade-e-ambiente</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-matematica-aplicada-para-industria</t>
         </is>
       </c>
     </row>
@@ -30713,17 +30713,17 @@
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>Engenharia de Eletrónica e Telecomunicações</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-de-eletronica-e-telecomunicacoes</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-matematica-aplicada-tecnologia-e-empresa</t>
         </is>
       </c>
     </row>
@@ -30740,17 +30740,17 @@
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-e-gestao-industrial</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -30767,17 +30767,17 @@
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/informacoes-gerais</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-tecnologias-e-gestao-municipal</t>
         </is>
       </c>
     </row>
@@ -30794,17 +30794,17 @@
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>Matemática Aplicada para a Indústria</t>
+          <t>Unidades Curriculares</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-matematica-aplicada-para-industria</t>
+          <t>https://www.isel.pt/sites/default/files/SREI/Ofertas_ucs_incoming_EN_2024.pdf</t>
         </is>
       </c>
     </row>
@@ -30821,17 +30821,17 @@
       </c>
       <c r="C1126" t="inlineStr">
         <is>
+          <t>Erasmus+ Incoming Students</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>Cursos</t>
+        </is>
+      </c>
+      <c r="E1126" t="inlineStr">
+        <is>
           <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
-        </is>
-      </c>
-      <c r="D1126" t="inlineStr">
-        <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
-        </is>
-      </c>
-      <c r="E1126" t="inlineStr">
-        <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-matematica-aplicada-tecnologia-e-empresa</t>
         </is>
       </c>
     </row>
@@ -30848,17 +30848,17 @@
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -30875,17 +30875,17 @@
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-tecnologias-e-gestao-municipal</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -30902,7 +30902,7 @@
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr">
@@ -31064,7 +31064,7 @@
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-staff/instituicoes-parceiras</t>
+          <t>Instituições parceiras</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr">
@@ -31172,7 +31172,7 @@
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programa-vulcanus</t>
+          <t>Programa Vulcanus</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr">
@@ -31199,7 +31199,7 @@
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programa-vulcanus</t>
+          <t>Programa Vulcanus</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr">
@@ -31226,7 +31226,7 @@
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programa-vulcanus</t>
+          <t>Programa Vulcanus</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr">

--- a/data/ensino_links_full.xlsx
+++ b/data/ensino_links_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1141"/>
+  <dimension ref="A1:E1142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24260,17 +24260,17 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Curso Preparatório de Física</t>
+          <t>Academia MikroTik</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>António Casaca</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/antonio-manuel-carreiras-casaca</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/50_MikroTikAcademy_EN.pdf</t>
         </is>
       </c>
     </row>
@@ -24292,12 +24292,12 @@
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>António Casaca</t>
         </is>
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-fisica</t>
+          <t>https://www.isel.pt/docentes/antonio-manuel-carreiras-casaca</t>
         </is>
       </c>
     </row>
@@ -24319,12 +24319,12 @@
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-fisica</t>
         </is>
       </c>
     </row>
@@ -24346,12 +24346,12 @@
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -24373,12 +24373,12 @@
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>Programa detalhado</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-curso/curso-preparatorio-de-fisica-programa-detalhado</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -24400,12 +24400,12 @@
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>Programa detalhado</t>
         </is>
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/DF/Plano_Curso%20Fis2024%20-%20v2.pdf</t>
+          <t>https://www.isel.pt/curso/outros-curso/curso-preparatorio-de-fisica-programa-detalhado</t>
         </is>
       </c>
     </row>
@@ -24432,7 +24432,7 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/001_imagens_isel/pdf/15471_2016.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/DF/Plano_Curso%20Fis2024%20-%20v2.pdf</t>
         </is>
       </c>
     </row>
@@ -24449,17 +24449,17 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Curso Preparatório de Matemática</t>
+          <t>Curso Preparatório de Física</t>
         </is>
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-matematica</t>
+          <t>https://www.isel.pt/sites/default/files/001_imagens_isel/pdf/15471_2016.pdf</t>
         </is>
       </c>
     </row>
@@ -24481,12 +24481,12 @@
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-matematica</t>
         </is>
       </c>
     </row>
@@ -24508,12 +24508,12 @@
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -24535,12 +24535,12 @@
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>José Rodrigues</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/jose-alberto-de-sousa-rodrigues</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -24562,12 +24562,12 @@
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>Programa detalhado</t>
+          <t>José Rodrigues</t>
         </is>
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-matematica-programa-detalhado</t>
+          <t>https://www.isel.pt/docentes/jose-alberto-de-sousa-rodrigues</t>
         </is>
       </c>
     </row>
@@ -24584,17 +24584,17 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Formação de Analistas Químicos</t>
+          <t>Curso Preparatório de Matemática</t>
         </is>
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Programa detalhado</t>
         </is>
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-cursos/formacao-de-analistas-quimicos</t>
+          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-matematica-programa-detalhado</t>
         </is>
       </c>
     </row>
@@ -24616,12 +24616,12 @@
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/outros-cursos/formacao-de-analistas-quimicos</t>
         </is>
       </c>
     </row>
@@ -24643,12 +24643,12 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -24670,12 +24670,12 @@
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>Programa e Avaliação</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-cursos/formacao-de-analistas-quimicos/programa-e-avaliacao</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -24687,22 +24687,22 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>Pós-Graduações</t>
+          <t>Outros Cursos</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Conservação e Reabilitação de Construções</t>
+          <t>Formação de Analistas Químicos</t>
         </is>
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>Ana Rita Gião</t>
+          <t>Programa e Avaliação</t>
         </is>
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ana-rita-faria-conceicao-de-sousa-giao</t>
+          <t>https://www.isel.pt/curso/outros-cursos/formacao-de-analistas-quimicos/programa-e-avaliacao</t>
         </is>
       </c>
     </row>
@@ -24724,12 +24724,12 @@
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Ana Rita Gião</t>
         </is>
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-conservacao-e-reabilitacao-de-construcoes</t>
+          <t>https://www.isel.pt/docentes/ana-rita-faria-conceicao-de-sousa-giao</t>
         </is>
       </c>
     </row>
@@ -24751,12 +24751,12 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-conservacao-e-reabilitacao-de-construcoes/candidaturas</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-conservacao-e-reabilitacao-de-construcoes</t>
         </is>
       </c>
     </row>
@@ -24778,12 +24778,12 @@
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-conservacao-e-reabilitacao-de-construcoes/candidaturas</t>
         </is>
       </c>
     </row>
@@ -24805,12 +24805,12 @@
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>Cristina Borges Azevedo</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ana-cristina-gaminha-ribeiro-borges-de-azevedo</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -24832,12 +24832,12 @@
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>Disponível aqui</t>
+          <t>Cristina Borges Azevedo</t>
         </is>
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_CRC/13%C2%AA.%20EsquemaAulas.pdf</t>
+          <t>https://www.isel.pt/docentes/ana-cristina-gaminha-ribeiro-borges-de-azevedo</t>
         </is>
       </c>
     </row>
@@ -24859,12 +24859,12 @@
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t>Dulce Henriques</t>
+          <t>Disponível aqui</t>
         </is>
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-dulce-e-silva-franco-henriques</t>
+          <t>https://www.isel.pt/sites/default/files/PG_CRC/13%C2%AA.%20EsquemaAulas.pdf</t>
         </is>
       </c>
     </row>
@@ -24886,12 +24886,12 @@
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Dulce Henriques</t>
         </is>
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docentes/maria-dulce-e-silva-franco-henriques</t>
         </is>
       </c>
     </row>
@@ -24913,12 +24913,12 @@
       </c>
       <c r="D907" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -24940,12 +24940,12 @@
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/38154/plano-de-estudos</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -24967,12 +24967,12 @@
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/38154/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -24994,12 +24994,12 @@
       </c>
       <c r="D910" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -25021,12 +25021,12 @@
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/bolsas-next-level-impulso-adultos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -25048,12 +25048,12 @@
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGCRC.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/bolsas-next-level-impulso-adultos</t>
         </is>
       </c>
     </row>
@@ -25075,12 +25075,12 @@
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>propina</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E913" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGCRC.pdf</t>
         </is>
       </c>
     </row>
@@ -25097,17 +25097,17 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Eficiência Energética e Sustentabilidade em Edifícios</t>
+          <t>Conservação e Reabilitação de Construções</t>
         </is>
       </c>
       <c r="D914" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>propina</t>
         </is>
       </c>
       <c r="E914" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-eficiencia-energetica-e-sustentabilidade-em-edificios</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
@@ -25129,12 +25129,12 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-eficiencia-energetica-e-sustentabilidade-em-edificios/candidaturas</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-eficiencia-energetica-e-sustentabilidade-em-edificios</t>
         </is>
       </c>
     </row>
@@ -25156,12 +25156,12 @@
       </c>
       <c r="D916" t="inlineStr">
         <is>
-          <t>Cláudia Casaca</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/claudia-sofia-seneca-da-luz-casaca</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-eficiencia-energetica-e-sustentabilidade-em-edificios/candidaturas</t>
         </is>
       </c>
     </row>
@@ -25183,12 +25183,12 @@
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Cláudia Casaca</t>
         </is>
       </c>
       <c r="E917" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/docentes/claudia-sofia-seneca-da-luz-casaca</t>
         </is>
       </c>
     </row>
@@ -25210,12 +25210,12 @@
       </c>
       <c r="D918" t="inlineStr">
         <is>
-          <t>Despacho nº 8933/2022, de 20 de julho – Homologação do curso de pós-graduação em Eficiência Energética e Sustentabilidade em Edifícios</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_EESE/Despacho%208933_2022.pdf</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -25237,12 +25237,12 @@
       </c>
       <c r="D919" t="inlineStr">
         <is>
-          <t>Gonçalo Duarte</t>
+          <t>Despacho nº 8933/2022, de 20 de julho – Homologação do curso de pós-graduação em Eficiência Energética e Sustentabilidade em Edifícios</t>
         </is>
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/goncalo-nuno-de-oliveira-duarte</t>
+          <t>https://www.isel.pt/sites/default/files/PG_EESE/Despacho%208933_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -25264,12 +25264,12 @@
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Gonçalo Duarte</t>
         </is>
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docentes/goncalo-nuno-de-oliveira-duarte</t>
         </is>
       </c>
     </row>
@@ -25291,12 +25291,12 @@
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -25318,12 +25318,12 @@
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>Nuno Henriques</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-paulo-ferreira-henriques</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -25345,12 +25345,12 @@
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>Nuno Henriques</t>
         </is>
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39616/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/nuno-paulo-ferreira-henriques</t>
         </is>
       </c>
     </row>
@@ -25372,12 +25372,12 @@
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/39616/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -25399,12 +25399,12 @@
       </c>
       <c r="D925" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -25426,12 +25426,12 @@
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEESE.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -25448,17 +25448,17 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Engenharia Optoeletrónica e Fotónica</t>
+          <t>Eficiência Energética e Sustentabilidade em Edifícios</t>
         </is>
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>Alessandro Fantoni</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/alessandro-fantoni</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEESE.pdf</t>
         </is>
       </c>
     </row>
@@ -25480,12 +25480,12 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Alessandro Fantoni</t>
         </is>
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-optoeletronica-e-fotonica</t>
+          <t>https://www.isel.pt/docentes/alessandro-fantoni</t>
         </is>
       </c>
     </row>
@@ -25507,12 +25507,12 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-optoeletronica-e-fotonica/candidaturas</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-optoeletronica-e-fotonica</t>
         </is>
       </c>
     </row>
@@ -25534,12 +25534,12 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-optoeletronica-e-fotonica/candidaturas</t>
         </is>
       </c>
     </row>
@@ -25561,12 +25561,12 @@
       </c>
       <c r="D931" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -25588,12 +25588,12 @@
       </c>
       <c r="D932" t="inlineStr">
         <is>
-          <t>Luís Fernandes</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luis-miguel-tavares-fernandes</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -25615,12 +25615,12 @@
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>Paula Louro</t>
+          <t>Luís Fernandes</t>
         </is>
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paula-maria-garcia-louro</t>
+          <t>https://www.isel.pt/docentes/luis-miguel-tavares-fernandes</t>
         </is>
       </c>
     </row>
@@ -25642,12 +25642,12 @@
       </c>
       <c r="D934" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>Paula Louro</t>
         </is>
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39476/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/paula-maria-garcia-louro</t>
         </is>
       </c>
     </row>
@@ -25669,12 +25669,12 @@
       </c>
       <c r="D935" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/39476/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -25696,12 +25696,12 @@
       </c>
       <c r="D936" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E936" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -25723,12 +25723,12 @@
       </c>
       <c r="D937" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E937" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGOPE.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -25745,17 +25745,17 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão de Energias Renováveis</t>
+          <t>Engenharia Optoeletrónica e Fotónica</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E938" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-e-gestao-de-energias-renovaveis</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGOPE.pdf</t>
         </is>
       </c>
     </row>
@@ -25777,12 +25777,12 @@
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>Calendário de aulas 2025/2026</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E939" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_EGER/Calend%C3%A1rio%20EGER%2025_26.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-e-gestao-de-energias-renovaveis</t>
         </is>
       </c>
     </row>
@@ -25804,12 +25804,12 @@
       </c>
       <c r="D940" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Calendário de aulas 2025/2026</t>
         </is>
       </c>
       <c r="E940" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-e-gestao-de-energias-renovaveis/candidaturas</t>
+          <t>https://www.isel.pt/sites/default/files/PG_EGER/Calend%C3%A1rio%20EGER%2025_26.pdf</t>
         </is>
       </c>
     </row>
@@ -25831,12 +25831,12 @@
       </c>
       <c r="D941" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E941" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-e-gestao-de-energias-renovaveis/candidaturas</t>
         </is>
       </c>
     </row>
@@ -25858,12 +25858,12 @@
       </c>
       <c r="D942" t="inlineStr">
         <is>
-          <t>Cristina Camus</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E942" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/cristina-ines-camus</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -25885,12 +25885,12 @@
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>Filipe Barata</t>
+          <t>Cristina Camus</t>
         </is>
       </c>
       <c r="E943" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/filipe-andre-de-sousa-figueira-barata</t>
+          <t>https://www.isel.pt/docentes/cristina-ines-camus</t>
         </is>
       </c>
     </row>
@@ -25912,12 +25912,12 @@
       </c>
       <c r="D944" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Filipe Barata</t>
         </is>
       </c>
       <c r="E944" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docentes/filipe-andre-de-sousa-figueira-barata</t>
         </is>
       </c>
     </row>
@@ -25939,12 +25939,12 @@
       </c>
       <c r="D945" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E945" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -25966,12 +25966,12 @@
       </c>
       <c r="D946" t="inlineStr">
         <is>
-          <t>João Lagarto</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E946" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joao-herminio-ninitas-lagarto</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -25993,12 +25993,12 @@
       </c>
       <c r="D947" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>João Lagarto</t>
         </is>
       </c>
       <c r="E947" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10532/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/joao-herminio-ninitas-lagarto</t>
         </is>
       </c>
     </row>
@@ -26020,12 +26020,12 @@
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E948" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/10532/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -26047,12 +26047,12 @@
       </c>
       <c r="D949" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -26074,12 +26074,12 @@
       </c>
       <c r="D950" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E950" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao-em-engenharia-e-gestao-de-energias-renovaveis/testemunhos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -26101,12 +26101,12 @@
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="E951" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEGER.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao-em-engenharia-e-gestao-de-energias-renovaveis/testemunhos</t>
         </is>
       </c>
     </row>
@@ -26128,12 +26128,12 @@
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>propina</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E952" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEGER.pdf</t>
         </is>
       </c>
     </row>
@@ -26150,17 +26150,17 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão de Risco de Desastres</t>
+          <t>Engenharia e Gestão de Energias Renováveis</t>
         </is>
       </c>
       <c r="D953" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>propina</t>
         </is>
       </c>
       <c r="E953" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-engenharia_e_gestao_do_risco_de_desastres</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
@@ -26182,12 +26182,12 @@
       </c>
       <c r="D954" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E954" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-engenharia_e_gestao_do_risco_de_desastres/candidaturas</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-engenharia_e_gestao_do_risco_de_desastres</t>
         </is>
       </c>
     </row>
@@ -26209,12 +26209,12 @@
       </c>
       <c r="D955" t="inlineStr">
         <is>
-          <t>Carla Costa</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E955" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/carla-maria-duarte-da-silva-e-costa</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-engenharia_e_gestao_do_risco_de_desastres/candidaturas</t>
         </is>
       </c>
     </row>
@@ -26236,12 +26236,12 @@
       </c>
       <c r="D956" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Carla Costa</t>
         </is>
       </c>
       <c r="E956" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/docentes/carla-maria-duarte-da-silva-e-costa</t>
         </is>
       </c>
     </row>
@@ -26263,12 +26263,12 @@
       </c>
       <c r="D957" t="inlineStr">
         <is>
-          <t>Despacho n.º 5379/2024</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E957" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_EGRD/Despacho5379_2024_PG%20EGRD.pdf</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -26290,12 +26290,12 @@
       </c>
       <c r="D958" t="inlineStr">
         <is>
-          <t>Duarte Caldeira</t>
+          <t>Despacho n.º 5379/2024</t>
         </is>
       </c>
       <c r="E958" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docente/duarte-caldeira</t>
+          <t>https://www.isel.pt/sites/default/files/PG_EGRD/Despacho5379_2024_PG%20EGRD.pdf</t>
         </is>
       </c>
     </row>
@@ -26317,12 +26317,12 @@
       </c>
       <c r="D959" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Duarte Caldeira</t>
         </is>
       </c>
       <c r="E959" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docente/duarte-caldeira</t>
         </is>
       </c>
     </row>
@@ -26344,12 +26344,12 @@
       </c>
       <c r="D960" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E960" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -26371,12 +26371,12 @@
       </c>
       <c r="D961" t="inlineStr">
         <is>
-          <t>José Nascimento</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E961" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/jose-manuel-peixoto-nascimento</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -26398,12 +26398,12 @@
       </c>
       <c r="D962" t="inlineStr">
         <is>
-          <t>Maria Ana Baptista</t>
+          <t>José Nascimento</t>
         </is>
       </c>
       <c r="E962" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-ana-carvalho-viana-baptista</t>
+          <t>https://www.isel.pt/docentes/jose-manuel-peixoto-nascimento</t>
         </is>
       </c>
     </row>
@@ -26425,12 +26425,12 @@
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t>Pedro Silva</t>
+          <t>Maria Ana Baptista</t>
         </is>
       </c>
       <c r="E963" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-manuel-fernandes-carvalho-da-silva</t>
+          <t>https://www.isel.pt/docentes/maria-ana-carvalho-viana-baptista</t>
         </is>
       </c>
     </row>
@@ -26452,12 +26452,12 @@
       </c>
       <c r="D964" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>Pedro Silva</t>
         </is>
       </c>
       <c r="E964" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/40413/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/pedro-manuel-fernandes-carvalho-da-silva</t>
         </is>
       </c>
     </row>
@@ -26479,12 +26479,12 @@
       </c>
       <c r="D965" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E965" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/40413/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -26506,12 +26506,12 @@
       </c>
       <c r="D966" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E966" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -26533,12 +26533,12 @@
       </c>
       <c r="D967" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E967" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEGRD.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -26560,12 +26560,12 @@
       </c>
       <c r="D968" t="inlineStr">
         <is>
-          <t>propina</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E968" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEGRD.pdf</t>
         </is>
       </c>
     </row>
@@ -26582,17 +26582,17 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Especialização em Engenharia Ferroviária</t>
+          <t>Engenharia e Gestão de Risco de Desastres</t>
         </is>
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>Alexandra Costa</t>
+          <t>propina</t>
         </is>
       </c>
       <c r="E969" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-alexandra-cardoso-da-costa</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
@@ -26614,12 +26614,12 @@
       </c>
       <c r="D970" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Alexandra Costa</t>
         </is>
       </c>
       <c r="E970" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-especializacao-em-engenharia-ferroviaria</t>
+          <t>https://www.isel.pt/docentes/maria-alexandra-cardoso-da-costa</t>
         </is>
       </c>
     </row>
@@ -26641,12 +26641,12 @@
       </c>
       <c r="D971" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E971" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-especializacao-em-engenharia-ferroviaria/candidaturas</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-especializacao-em-engenharia-ferroviaria</t>
         </is>
       </c>
     </row>
@@ -26668,12 +26668,12 @@
       </c>
       <c r="D972" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E972" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-especializacao-em-engenharia-ferroviaria/candidaturas</t>
         </is>
       </c>
     </row>
@@ -26695,12 +26695,12 @@
       </c>
       <c r="D973" t="inlineStr">
         <is>
-          <t>Despacho nº 2313/2022, de 22 de fevereiro – Homologação do curso de pós-graduação em Especialização em Engenharia Ferroviária</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/2022-02/Despacho_n_2313_2022_22_fev.pdf</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -26722,12 +26722,12 @@
       </c>
       <c r="D974" t="inlineStr">
         <is>
-          <t>Henrique Miranda</t>
+          <t>Despacho nº 2313/2022, de 22 de fevereiro – Homologação do curso de pós-graduação em Especialização em Engenharia Ferroviária</t>
         </is>
       </c>
       <c r="E974" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/henrique-manuel-borges-miranda</t>
+          <t>https://www.isel.pt/sites/default/files/2022-02/Despacho_n_2313_2022_22_fev.pdf</t>
         </is>
       </c>
     </row>
@@ -26749,12 +26749,12 @@
       </c>
       <c r="D975" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Henrique Miranda</t>
         </is>
       </c>
       <c r="E975" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docentes/henrique-manuel-borges-miranda</t>
         </is>
       </c>
     </row>
@@ -26776,12 +26776,12 @@
       </c>
       <c r="D976" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -26803,12 +26803,12 @@
       </c>
       <c r="D977" t="inlineStr">
         <is>
-          <t>Luísa Teles Fortes</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luisa-maria-conceicao-ferreira-cardoso-teles-fortes</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -26830,12 +26830,12 @@
       </c>
       <c r="D978" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>Luísa Teles Fortes</t>
         </is>
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39431/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/luisa-maria-conceicao-ferreira-cardoso-teles-fortes</t>
         </is>
       </c>
     </row>
@@ -26857,12 +26857,12 @@
       </c>
       <c r="D979" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/39431/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -26884,12 +26884,12 @@
       </c>
       <c r="D980" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -26911,12 +26911,12 @@
       </c>
       <c r="D981" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-especializacao-em-engenharia-ferroviaria/testemunhos</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -26938,12 +26938,12 @@
       </c>
       <c r="D982" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEEF.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-especializacao-em-engenharia-ferroviaria/testemunhos</t>
         </is>
       </c>
     </row>
@@ -26965,12 +26965,12 @@
       </c>
       <c r="D983" t="inlineStr">
         <is>
-          <t>propina</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEEF.pdf</t>
         </is>
       </c>
     </row>
@@ -26987,17 +26987,17 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>Matemática para Ciência de Dados</t>
+          <t>Especialização em Engenharia Ferroviária</t>
         </is>
       </c>
       <c r="D984" t="inlineStr">
         <is>
-          <t>Ana Martins</t>
+          <t>propina</t>
         </is>
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ana-alexandra-antunes-figueiredo-martins</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
@@ -27019,12 +27019,12 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Ana Martins</t>
         </is>
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-matematica-para-ciencia-de-dados</t>
+          <t>https://www.isel.pt/docentes/ana-alexandra-antunes-figueiredo-martins</t>
         </is>
       </c>
     </row>
@@ -27046,12 +27046,12 @@
       </c>
       <c r="D986" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-matematica-para-ciencia-de-dados/candidaturas</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-matematica-para-ciencia-de-dados</t>
         </is>
       </c>
     </row>
@@ -27073,12 +27073,12 @@
       </c>
       <c r="D987" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-matematica-para-ciencia-de-dados/candidaturas</t>
         </is>
       </c>
     </row>
@@ -27100,12 +27100,12 @@
       </c>
       <c r="D988" t="inlineStr">
         <is>
-          <t>Despacho nº 8888/2022, de 20 de julho – Homologação do curso de pós-graduação em Matemática para Ciência de Dados</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_MCD/Despacho%208888_2022.pdf</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -27127,12 +27127,12 @@
       </c>
       <c r="D989" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Despacho nº 8888/2022, de 20 de julho – Homologação do curso de pós-graduação em Matemática para Ciência de Dados</t>
         </is>
       </c>
       <c r="E989" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/sites/default/files/PG_MCD/Despacho%208888_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -27154,12 +27154,12 @@
       </c>
       <c r="D990" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -27181,12 +27181,12 @@
       </c>
       <c r="D991" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E991" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39610/plano-de-estudos</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -27208,12 +27208,12 @@
       </c>
       <c r="D992" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E992" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/39610/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -27235,12 +27235,12 @@
       </c>
       <c r="D993" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -27262,12 +27262,12 @@
       </c>
       <c r="D994" t="inlineStr">
         <is>
-          <t>Sónia Carvalho</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E994" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/sonia-raquel-ferreira-carvalho</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -27289,12 +27289,12 @@
       </c>
       <c r="D995" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Sónia Carvalho</t>
         </is>
       </c>
       <c r="E995" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGMCD.pdf</t>
+          <t>https://www.isel.pt/docentes/sonia-raquel-ferreira-carvalho</t>
         </is>
       </c>
     </row>
@@ -27316,12 +27316,12 @@
       </c>
       <c r="D996" t="inlineStr">
         <is>
-          <t>propina</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E996" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGMCD.pdf</t>
         </is>
       </c>
     </row>
@@ -27338,17 +27338,17 @@
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>Novas Abordagens em Acústica Aplicada e Áudio</t>
+          <t>Matemática para Ciência de Dados</t>
         </is>
       </c>
       <c r="D997" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>propina</t>
         </is>
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-novas-abordagens-em-acustica-aplicada-e-audio</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
@@ -27370,12 +27370,12 @@
       </c>
       <c r="D998" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-novas-abordagens-em-acustica-aplicada-e-audio/candidaturas</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-novas-abordagens-em-acustica-aplicada-e-audio</t>
         </is>
       </c>
     </row>
@@ -27397,12 +27397,12 @@
       </c>
       <c r="D999" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E999" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-novas-abordagens-em-acustica-aplicada-e-audio/candidaturas</t>
         </is>
       </c>
     </row>
@@ -27424,12 +27424,12 @@
       </c>
       <c r="D1000" t="inlineStr">
         <is>
-          <t>Despacho nº 8887/2022, de 20 de julho – Homologação do curso de pós-graduação em Novas Abordagens em Acústica Aplicada e Áudio</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_N4A/Despacho%208887_2022.pdf</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -27451,12 +27451,12 @@
       </c>
       <c r="D1001" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Despacho nº 8887/2022, de 20 de julho – Homologação do curso de pós-graduação em Novas Abordagens em Acústica Aplicada e Áudio</t>
         </is>
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/sites/default/files/PG_N4A/Despacho%208887_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -27478,12 +27478,12 @@
       </c>
       <c r="D1002" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E1002" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -27505,12 +27505,12 @@
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>Joel Paulo</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joel-vera-cruz-preto-paulo</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -27532,12 +27532,12 @@
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>Paulo Trigo</t>
+          <t>Joel Paulo</t>
         </is>
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paulo-manuel-trigo-candido-da-silva</t>
+          <t>https://www.isel.pt/docentes/joel-vera-cruz-preto-paulo</t>
         </is>
       </c>
     </row>
@@ -27559,12 +27559,12 @@
       </c>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>Paulo Trigo</t>
         </is>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39595/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/paulo-manuel-trigo-candido-da-silva</t>
         </is>
       </c>
     </row>
@@ -27586,12 +27586,12 @@
       </c>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/39595/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -27613,12 +27613,12 @@
       </c>
       <c r="D1007" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E1007" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -27640,12 +27640,12 @@
       </c>
       <c r="D1008" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGNAAAA.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -27662,17 +27662,17 @@
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>Processos Avançados de Fabrico</t>
+          <t>Novas Abordagens em Acústica Aplicada e Áudio</t>
         </is>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-processos-avancados-de-fabrico</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGNAAAA.pdf</t>
         </is>
       </c>
     </row>
@@ -27694,12 +27694,12 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-processos-avancados-de-fabrico/candidaturas</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-processos-avancados-de-fabrico</t>
         </is>
       </c>
     </row>
@@ -27721,12 +27721,12 @@
       </c>
       <c r="D1011" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-processos-avancados-de-fabrico/candidaturas</t>
         </is>
       </c>
     </row>
@@ -27748,12 +27748,12 @@
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>Despacho nº 8886/2022, de 20 de julho – Homologação do curso de pós-graduação em Processos Avançados de Fabrico</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E1012" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_PAF/Despacho%208886_2022.pdf</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -27775,12 +27775,12 @@
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Despacho nº 8886/2022, de 20 de julho – Homologação do curso de pós-graduação em Processos Avançados de Fabrico</t>
         </is>
       </c>
       <c r="E1013" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/sites/default/files/PG_PAF/Despacho%208886_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -27802,12 +27802,12 @@
       </c>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>Ivan Galvão</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E1014" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ivan-rodolfo-pereira-garcia-de-galvao</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -27829,12 +27829,12 @@
       </c>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>Ivo Bragança</t>
+          <t>Ivan Galvão</t>
         </is>
       </c>
       <c r="E1015" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ivo-manuel-ferreira-de-braganca</t>
+          <t>https://www.isel.pt/docentes/ivan-rodolfo-pereira-garcia-de-galvao</t>
         </is>
       </c>
     </row>
@@ -27856,12 +27856,12 @@
       </c>
       <c r="D1016" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Ivo Bragança</t>
         </is>
       </c>
       <c r="E1016" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39639/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/ivo-manuel-ferreira-de-braganca</t>
         </is>
       </c>
     </row>
@@ -27883,12 +27883,12 @@
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/39639/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -27910,12 +27910,12 @@
       </c>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E1018" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -27937,12 +27937,12 @@
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E1019" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGPAF.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -27959,17 +27959,17 @@
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>Projeto e Manutenção de Instalações Elétricas</t>
+          <t>Processos Avançados de Fabrico</t>
         </is>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>António Antunes</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/antonio-moises-ribeiro-antunes</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGPAF.pdf</t>
         </is>
       </c>
     </row>
@@ -27991,12 +27991,12 @@
       </c>
       <c r="D1021" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>António Antunes</t>
         </is>
       </c>
       <c r="E1021" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-projeto-e-manutencao-de-instalacoes-eletricas</t>
+          <t>https://www.isel.pt/docentes/antonio-moises-ribeiro-antunes</t>
         </is>
       </c>
     </row>
@@ -28018,12 +28018,12 @@
       </c>
       <c r="D1022" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E1022" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-projeto-e-manutencao-de-instalacoes-eletricas/candidaturas</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-projeto-e-manutencao-de-instalacoes-eletricas</t>
         </is>
       </c>
     </row>
@@ -28045,12 +28045,12 @@
       </c>
       <c r="D1023" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E1023" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-projeto-e-manutencao-de-instalacoes-eletricas/candidaturas</t>
         </is>
       </c>
     </row>
@@ -28072,12 +28072,12 @@
       </c>
       <c r="D1024" t="inlineStr">
         <is>
-          <t>Despacho nº 9366/2025, de 07 de agosto – Homologação do curso de pós-graduação em Projeto e Manutenção de Instalações Elétricas</t>
+          <t>Copilot</t>
         </is>
       </c>
       <c r="E1024" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_PMIE/PG_PMIE_Despacho_9366_2025.pdf</t>
+          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
         </is>
       </c>
     </row>
@@ -28099,12 +28099,12 @@
       </c>
       <c r="D1025" t="inlineStr">
         <is>
-          <t>Filipe Barata</t>
+          <t>Despacho nº 9366/2025, de 07 de agosto – Homologação do curso de pós-graduação em Projeto e Manutenção de Instalações Elétricas</t>
         </is>
       </c>
       <c r="E1025" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/filipe-andre-de-sousa-figueira-barata</t>
+          <t>https://www.isel.pt/sites/default/files/PG_PMIE/PG_PMIE_Despacho_9366_2025.pdf</t>
         </is>
       </c>
     </row>
@@ -28126,12 +28126,12 @@
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Filipe Barata</t>
         </is>
       </c>
       <c r="E1026" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docentes/filipe-andre-de-sousa-figueira-barata</t>
         </is>
       </c>
     </row>
@@ -28153,12 +28153,12 @@
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E1027" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -28180,12 +28180,12 @@
       </c>
       <c r="D1028" t="inlineStr">
         <is>
-          <t>Luís Elvas</t>
+          <t>Incentivo à Investigação Exploratória</t>
         </is>
       </c>
       <c r="E1028" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luis-miguel-silveiro-elvas</t>
+          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
         </is>
       </c>
     </row>
@@ -28207,12 +28207,12 @@
       </c>
       <c r="D1029" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>Luís Elvas</t>
         </is>
       </c>
       <c r="E1029" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39612/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/luis-miguel-silveiro-elvas</t>
         </is>
       </c>
     </row>
@@ -28234,12 +28234,12 @@
       </c>
       <c r="D1030" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E1030" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/39612/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -28261,12 +28261,12 @@
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -28288,12 +28288,12 @@
       </c>
       <c r="D1032" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E1032" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGPMIE.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -28315,39 +28315,39 @@
       </c>
       <c r="D1033" t="inlineStr">
         <is>
-          <t>propina</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E1033" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGPMIE.pdf</t>
         </is>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Programas de Mobilidade</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>BIP – Blended Intensive Programmes</t>
+          <t>Pós-Graduações</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
         <is>
-          <t>BIP 2024/25</t>
+          <t>Projeto e Manutenção de Instalações Elétricas</t>
         </is>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>propina</t>
         </is>
       </c>
       <c r="E1034" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
@@ -28369,12 +28369,12 @@
       </c>
       <c r="D1035" t="inlineStr">
         <is>
-          <t>BIP 2024/25</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E1035" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip</t>
         </is>
       </c>
     </row>
@@ -28396,12 +28396,12 @@
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>FURTHER DETAILS &gt;</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="E1036" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425-speakers</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
         </is>
       </c>
     </row>
@@ -28423,12 +28423,12 @@
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>FURTHER DETAILS &gt;</t>
         </is>
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425-speakers</t>
         </is>
       </c>
     </row>
@@ -28450,12 +28450,12 @@
       </c>
       <c r="D1038" t="inlineStr">
         <is>
-          <t>physical component</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1038" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/BIP/BIP_2025-03_Detailed_Programme_Physical_Component_v4.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -28477,12 +28477,12 @@
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>virtual component</t>
+          <t>physical component</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/BIP/3%20BIP%202025-03%20Detailed%20Description%20Virtual%20Component.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/BIP/BIP_2025-03_Detailed_Programme_Physical_Component_v4.pdf</t>
         </is>
       </c>
     </row>
@@ -28499,17 +28499,17 @@
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t>BIP – Blended Intensive Programmes</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>virtual component</t>
         </is>
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip</t>
+          <t>https://www.isel.pt/sites/default/files/BIP/3%20BIP%202025-03%20Detailed%20Description%20Virtual%20Component.pdf</t>
         </is>
       </c>
     </row>
@@ -28531,12 +28531,12 @@
       </c>
       <c r="D1041" t="inlineStr">
         <is>
-          <t>BIP 2024/25</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E1041" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip</t>
         </is>
       </c>
     </row>
@@ -28558,12 +28558,12 @@
       </c>
       <c r="D1042" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="E1042" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
         </is>
       </c>
     </row>
@@ -28575,22 +28575,22 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Erasmus+ Alunos Outgoing</t>
+          <t>BIP – Blended Intensive Programmes</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t>Erasmus+ Alunos Outgoing</t>
+          <t>BIP – Blended Intensive Programmes</t>
         </is>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
-          <t>FAQ</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -28612,12 +28612,12 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>Guia Erasmus+ para Estudantes Outgoing</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="E1044" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/001_imagens_isel/pdf/Guia_ERASMUS-Plus_Outgoing_Alunos_Ver_05102024.pdf</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
         </is>
       </c>
     </row>
@@ -28639,12 +28639,12 @@
       </c>
       <c r="D1045" t="inlineStr">
         <is>
-          <t>Informação sobre as Bolsas Santander Mobilidade Global</t>
+          <t>Guia Erasmus+ para Estudantes Outgoing</t>
         </is>
       </c>
       <c r="E1045" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/bolsa-para-estudantes</t>
+          <t>https://www.isel.pt/sites/default/files/001_imagens_isel/pdf/Guia_ERASMUS-Plus_Outgoing_Alunos_Ver_05102024.pdf</t>
         </is>
       </c>
     </row>
@@ -28666,12 +28666,12 @@
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>Informação sobre as Bolsas Santander Mobilidade Global</t>
         </is>
       </c>
       <c r="E1046" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/informacoes-gerais</t>
+          <t>https://www.isel.pt/comunidade/estudantes/bolsa-para-estudantes</t>
         </is>
       </c>
     </row>
@@ -28693,12 +28693,12 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>LEB – Elisabete Alegria</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1047" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/elisabete-clara-bastos-do-amaral-alegria</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -28720,12 +28720,12 @@
       </c>
       <c r="D1048" t="inlineStr">
         <is>
-          <t>LEC – Paulo Gil Pedro</t>
+          <t>LEB – Elisabete Alegria</t>
         </is>
       </c>
       <c r="E1048" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paulo-gil-figueiredo-tavares-pedro</t>
+          <t>https://www.isel.pt/docentes/elisabete-clara-bastos-do-amaral-alegria</t>
         </is>
       </c>
     </row>
@@ -28747,12 +28747,12 @@
       </c>
       <c r="D1049" t="inlineStr">
         <is>
-          <t>LEE – Ricardo Luís</t>
+          <t>LEC – Paulo Gil Pedro</t>
         </is>
       </c>
       <c r="E1049" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ricardo-jorge-ferreira-luis</t>
+          <t>https://www.isel.pt/docentes/paulo-gil-figueiredo-tavares-pedro</t>
         </is>
       </c>
     </row>
@@ -28774,12 +28774,12 @@
       </c>
       <c r="D1050" t="inlineStr">
         <is>
-          <t>LEETC – António Serrador</t>
+          <t>LEE – Ricardo Luís</t>
         </is>
       </c>
       <c r="E1050" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/antonio-joao-nunes-serrador</t>
+          <t>https://www.isel.pt/docentes/ricardo-jorge-ferreira-luis</t>
         </is>
       </c>
     </row>
@@ -28801,12 +28801,12 @@
       </c>
       <c r="D1051" t="inlineStr">
         <is>
-          <t>LEFA - Pedro Patrício</t>
+          <t>LEETC – António Serrador</t>
         </is>
       </c>
       <c r="E1051" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-manuel-alves-patricio-da-silva</t>
+          <t>https://www.isel.pt/docentes/antonio-joao-nunes-serrador</t>
         </is>
       </c>
     </row>
@@ -28828,12 +28828,12 @@
       </c>
       <c r="D1052" t="inlineStr">
         <is>
-          <t>LEIC – Nuno Leite</t>
+          <t>LEFA - Pedro Patrício</t>
         </is>
       </c>
       <c r="E1052" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-miguel-da-costa-de-sousa-leite</t>
+          <t>https://www.isel.pt/docentes/pedro-manuel-alves-patricio-da-silva</t>
         </is>
       </c>
     </row>
@@ -28855,12 +28855,12 @@
       </c>
       <c r="D1053" t="inlineStr">
         <is>
-          <t>LEIM – Manfred Niehus</t>
+          <t>LEIC – Nuno Leite</t>
         </is>
       </c>
       <c r="E1053" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/manfred-niehus</t>
+          <t>https://www.isel.pt/docentes/nuno-miguel-da-costa-de-sousa-leite</t>
         </is>
       </c>
     </row>
@@ -28882,12 +28882,12 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>LEIRT – João Ferreira Martins</t>
+          <t>LEIM – Manfred Niehus</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joao-manuel-ferreira-martins</t>
+          <t>https://www.isel.pt/docentes/manfred-niehus</t>
         </is>
       </c>
     </row>
@@ -28909,12 +28909,12 @@
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t>LEM – Nuno Serra</t>
+          <t>LEIRT – João Ferreira Martins</t>
         </is>
       </c>
       <c r="E1055" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-ricardo-piedade-antunes-serra</t>
+          <t>https://www.isel.pt/docentes/joao-manuel-ferreira-martins</t>
         </is>
       </c>
     </row>
@@ -28936,12 +28936,12 @@
       </c>
       <c r="D1056" t="inlineStr">
         <is>
-          <t>LMATE – Cátia Dias</t>
+          <t>LEM – Nuno Serra</t>
         </is>
       </c>
       <c r="E1056" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/catia-sofia-peniche-lente-dinis-dias</t>
+          <t>https://www.isel.pt/docentes/nuno-ricardo-piedade-antunes-serra</t>
         </is>
       </c>
     </row>
@@ -28963,12 +28963,12 @@
       </c>
       <c r="D1057" t="inlineStr">
         <is>
-          <t>LTGM – Maria Teresa Santos</t>
+          <t>LMATE – Cátia Dias</t>
         </is>
       </c>
       <c r="E1057" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-teresa-loureiro-dos-santos</t>
+          <t>https://www.isel.pt/docentes/catia-sofia-peniche-lente-dinis-dias</t>
         </is>
       </c>
     </row>
@@ -28990,12 +28990,12 @@
       </c>
       <c r="D1058" t="inlineStr">
         <is>
-          <t>MEET – Alessandro Fantoni</t>
+          <t>LTGM – Maria Teresa Santos</t>
         </is>
       </c>
       <c r="E1058" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/alessandro-fantoni</t>
+          <t>https://www.isel.pt/docentes/maria-teresa-loureiro-dos-santos</t>
         </is>
       </c>
     </row>
@@ -29017,12 +29017,12 @@
       </c>
       <c r="D1059" t="inlineStr">
         <is>
-          <t>MEGI – Vítor Anes</t>
+          <t>MEET – Alessandro Fantoni</t>
         </is>
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/vitor-manuel-rodrigues-anes</t>
+          <t>https://www.isel.pt/docentes/alessandro-fantoni</t>
         </is>
       </c>
     </row>
@@ -29044,12 +29044,12 @@
       </c>
       <c r="D1060" t="inlineStr">
         <is>
-          <t>MEIC – Nuno Datia</t>
+          <t>MEGI – Vítor Anes</t>
         </is>
       </c>
       <c r="E1060" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-miguel-soares-datia</t>
+          <t>https://www.isel.pt/docentes/vitor-manuel-rodrigues-anes</t>
         </is>
       </c>
     </row>
@@ -29071,12 +29071,12 @@
       </c>
       <c r="D1061" t="inlineStr">
         <is>
-          <t>MEIM – Pedro Santos</t>
+          <t>MEIC – Nuno Datia</t>
         </is>
       </c>
       <c r="E1061" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docente/pedro-emanuel-albuquerque-e-baptista-dos-santos</t>
+          <t>https://www.isel.pt/docentes/nuno-miguel-soares-datia</t>
         </is>
       </c>
     </row>
@@ -29098,12 +29098,12 @@
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>MEM – André Carvalho</t>
+          <t>MEIM – Pedro Santos</t>
         </is>
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/andre-rui-dantas-carvalho</t>
+          <t>https://www.isel.pt/docente/pedro-emanuel-albuquerque-e-baptista-dos-santos</t>
         </is>
       </c>
     </row>
@@ -29125,12 +29125,12 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>MEQA – Isabel João</t>
+          <t>MEM – André Carvalho</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/isabel-maria-da-silva-joao</t>
+          <t>https://www.isel.pt/docentes/andre-rui-dantas-carvalho</t>
         </is>
       </c>
     </row>
@@ -29152,12 +29152,12 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>MMAI – Teresa Melo Quinteiro</t>
+          <t>MEQA – Isabel João</t>
         </is>
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/teresa-maria-de-araujo-melo-quinteiro</t>
+          <t>https://www.isel.pt/docentes/isabel-maria-da-silva-joao</t>
         </is>
       </c>
     </row>
@@ -29179,12 +29179,12 @@
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>Regulamento do Incentivo à Mobilidade Internacional do ISEL</t>
+          <t>MMAI – Teresa Melo Quinteiro</t>
         </is>
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_15_01_Regulamento_Incentivo_Mobilidade_internacional_ISEL_signed.pdf</t>
+          <t>https://www.isel.pt/docentes/teresa-maria-de-araujo-melo-quinteiro</t>
         </is>
       </c>
     </row>
@@ -29206,12 +29206,12 @@
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>Regulamento para Mobilidade Académica do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Regulamento do Incentivo à Mobilidade Internacional do ISEL</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SREI/SREI_RG_01_01%20Regulamento_Mobilidade%20Academica_ISEL_17Marco2023_signed.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_15_01_Regulamento_Incentivo_Mobilidade_internacional_ISEL_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -29233,12 +29233,12 @@
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>Regulamento para Mobilidade Académica no Instituto Politécnico de Lisboa</t>
+          <t>Regulamento para Mobilidade Académica do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SREI/03_regulamento_mobilidade_academica_IPL_DR.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SREI/SREI_RG_01_01%20Regulamento_Mobilidade%20Academica_ISEL_17Marco2023_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -29260,12 +29260,12 @@
       </c>
       <c r="D1068" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Regulamento para Mobilidade Académica no Instituto Politécnico de Lisboa</t>
         </is>
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/SREI/03_regulamento_mobilidade_academica_IPL_DR.pdf</t>
         </is>
       </c>
     </row>
@@ -29287,12 +29287,12 @@
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -29314,12 +29314,12 @@
       </c>
       <c r="D1070" t="inlineStr">
         <is>
-          <t>também podes consultar este esquema</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/inline-images/06_Erasmus%2BOUT_QGuide_NEW_1.png</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
         </is>
       </c>
     </row>
@@ -29336,17 +29336,17 @@
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>FAQ</t>
+          <t>Erasmus+ Alunos Outgoing</t>
         </is>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>FAQ</t>
+          <t>também podes consultar este esquema</t>
         </is>
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>https://www.isel.pt/sites/default/files/inline-images/06_Erasmus%2BOUT_QGuide_NEW_1.png</t>
         </is>
       </c>
     </row>
@@ -29368,12 +29368,12 @@
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="E1072" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/informacoes-gerais</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
         </is>
       </c>
     </row>
@@ -29395,12 +29395,12 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>LEB – Manuel Matos</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/manuel-jose-de-matos</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -29422,12 +29422,12 @@
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>LEC – Paulo Gil Pedro</t>
+          <t>LEB – Manuel Matos</t>
         </is>
       </c>
       <c r="E1074" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paulo-gil-figueiredo-tavares-pedro</t>
+          <t>https://www.isel.pt/docentes/manuel-jose-de-matos</t>
         </is>
       </c>
     </row>
@@ -29449,12 +29449,12 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>LEE – Ricardo Luís</t>
+          <t>LEC – Paulo Gil Pedro</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ricardo-jorge-ferreira-luis</t>
+          <t>https://www.isel.pt/docentes/paulo-gil-figueiredo-tavares-pedro</t>
         </is>
       </c>
     </row>
@@ -29476,12 +29476,12 @@
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>LEETC – António Serrador</t>
+          <t>LEE – Ricardo Luís</t>
         </is>
       </c>
       <c r="E1076" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/antonio-joao-nunes-serrador</t>
+          <t>https://www.isel.pt/docentes/ricardo-jorge-ferreira-luis</t>
         </is>
       </c>
     </row>
@@ -29503,12 +29503,12 @@
       </c>
       <c r="D1077" t="inlineStr">
         <is>
-          <t>LEFA - Pedro Patrício</t>
+          <t>LEETC – António Serrador</t>
         </is>
       </c>
       <c r="E1077" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-manuel-alves-patricio-da-silva</t>
+          <t>https://www.isel.pt/docentes/antonio-joao-nunes-serrador</t>
         </is>
       </c>
     </row>
@@ -29530,12 +29530,12 @@
       </c>
       <c r="D1078" t="inlineStr">
         <is>
-          <t>LEIC – Nuno Leite</t>
+          <t>LEFA - Pedro Patrício</t>
         </is>
       </c>
       <c r="E1078" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-miguel-da-costa-de-sousa-leite</t>
+          <t>https://www.isel.pt/docentes/pedro-manuel-alves-patricio-da-silva</t>
         </is>
       </c>
     </row>
@@ -29557,12 +29557,12 @@
       </c>
       <c r="D1079" t="inlineStr">
         <is>
-          <t>LEIM – Manfred Niehus</t>
+          <t>LEIC – Nuno Leite</t>
         </is>
       </c>
       <c r="E1079" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/manfred-niehus</t>
+          <t>https://www.isel.pt/docentes/nuno-miguel-da-costa-de-sousa-leite</t>
         </is>
       </c>
     </row>
@@ -29584,12 +29584,12 @@
       </c>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>LEIRT – João Ferreira Martins</t>
+          <t>LEIM – Manfred Niehus</t>
         </is>
       </c>
       <c r="E1080" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joao-manuel-ferreira-martins</t>
+          <t>https://www.isel.pt/docentes/manfred-niehus</t>
         </is>
       </c>
     </row>
@@ -29611,12 +29611,12 @@
       </c>
       <c r="D1081" t="inlineStr">
         <is>
-          <t>LEM – Nuno Serra</t>
+          <t>LEIRT – João Ferreira Martins</t>
         </is>
       </c>
       <c r="E1081" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-ricardo-piedade-antunes-serra</t>
+          <t>https://www.isel.pt/docentes/joao-manuel-ferreira-martins</t>
         </is>
       </c>
     </row>
@@ -29638,12 +29638,12 @@
       </c>
       <c r="D1082" t="inlineStr">
         <is>
-          <t>LEQB – Elisabete Alegria</t>
+          <t>LEM – Nuno Serra</t>
         </is>
       </c>
       <c r="E1082" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/elisabete-clara-bastos-do-amaral-alegria</t>
+          <t>https://www.isel.pt/docentes/nuno-ricardo-piedade-antunes-serra</t>
         </is>
       </c>
     </row>
@@ -29665,12 +29665,12 @@
       </c>
       <c r="D1083" t="inlineStr">
         <is>
-          <t>LMATE – Cátia Dias</t>
+          <t>LEQB – Elisabete Alegria</t>
         </is>
       </c>
       <c r="E1083" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/catia-sofia-peniche-lente-dinis-dias</t>
+          <t>https://www.isel.pt/docentes/elisabete-clara-bastos-do-amaral-alegria</t>
         </is>
       </c>
     </row>
@@ -29692,12 +29692,12 @@
       </c>
       <c r="D1084" t="inlineStr">
         <is>
-          <t>LTGM – Maria Teresa Santos</t>
+          <t>LMATE – Cátia Dias</t>
         </is>
       </c>
       <c r="E1084" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-teresa-loureiro-dos-santos</t>
+          <t>https://www.isel.pt/docentes/catia-sofia-peniche-lente-dinis-dias</t>
         </is>
       </c>
     </row>
@@ -29719,12 +29719,12 @@
       </c>
       <c r="D1085" t="inlineStr">
         <is>
-          <t>MEET – Alessandro Fantoni</t>
+          <t>LTGM – Maria Teresa Santos</t>
         </is>
       </c>
       <c r="E1085" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/alessandro-fantoni</t>
+          <t>https://www.isel.pt/docentes/maria-teresa-loureiro-dos-santos</t>
         </is>
       </c>
     </row>
@@ -29746,12 +29746,12 @@
       </c>
       <c r="D1086" t="inlineStr">
         <is>
-          <t>MEGI – Vítor Anes</t>
+          <t>MEET – Alessandro Fantoni</t>
         </is>
       </c>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/vitor-manuel-rodrigues-anes</t>
+          <t>https://www.isel.pt/docentes/alessandro-fantoni</t>
         </is>
       </c>
     </row>
@@ -29773,12 +29773,12 @@
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>MEIC – Nuno Datia</t>
+          <t>MEGI – Vítor Anes</t>
         </is>
       </c>
       <c r="E1087" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-miguel-soares-datia</t>
+          <t>https://www.isel.pt/docentes/vitor-manuel-rodrigues-anes</t>
         </is>
       </c>
     </row>
@@ -29800,12 +29800,12 @@
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t>MEIM – Rui Jesus</t>
+          <t>MEIC – Nuno Datia</t>
         </is>
       </c>
       <c r="E1088" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/rui-manuel-feliciano-de-jesus</t>
+          <t>https://www.isel.pt/docentes/nuno-miguel-soares-datia</t>
         </is>
       </c>
     </row>
@@ -29827,12 +29827,12 @@
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>MEM – André Carvalho</t>
+          <t>MEIM – Rui Jesus</t>
         </is>
       </c>
       <c r="E1089" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/andre-rui-dantas-carvalho</t>
+          <t>https://www.isel.pt/docentes/rui-manuel-feliciano-de-jesus</t>
         </is>
       </c>
     </row>
@@ -29854,12 +29854,12 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>MEQA – Isabel João</t>
+          <t>MEM – André Carvalho</t>
         </is>
       </c>
       <c r="E1090" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/isabel-maria-da-silva-joao</t>
+          <t>https://www.isel.pt/docentes/andre-rui-dantas-carvalho</t>
         </is>
       </c>
     </row>
@@ -29881,12 +29881,12 @@
       </c>
       <c r="D1091" t="inlineStr">
         <is>
-          <t>MMAI – Teresa Melo Quinteiro</t>
+          <t>MEQA – Isabel João</t>
         </is>
       </c>
       <c r="E1091" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/teresa-maria-de-araujo-melo-quinteiro</t>
+          <t>https://www.isel.pt/docentes/isabel-maria-da-silva-joao</t>
         </is>
       </c>
     </row>
@@ -29908,12 +29908,12 @@
       </c>
       <c r="D1092" t="inlineStr">
         <is>
-          <t>Regulamento para a Mobilidade Académica no IPL</t>
+          <t>MMAI – Teresa Melo Quinteiro</t>
         </is>
       </c>
       <c r="E1092" t="inlineStr">
         <is>
-          <t>https://static.escs.ipl.pt/old/pdfs/regulamentos/Regulamento-Mobilidade-IPL.pdf</t>
+          <t>https://www.isel.pt/docentes/teresa-maria-de-araujo-melo-quinteiro</t>
         </is>
       </c>
     </row>
@@ -29935,12 +29935,12 @@
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Regulamento para a Mobilidade Académica no IPL</t>
         </is>
       </c>
       <c r="E1093" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://static.escs.ipl.pt/old/pdfs/regulamentos/Regulamento-Mobilidade-IPL.pdf</t>
         </is>
       </c>
     </row>
@@ -29962,12 +29962,12 @@
       </c>
       <c r="D1094" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1094" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -29984,17 +29984,17 @@
       </c>
       <c r="C1095" t="inlineStr">
         <is>
+          <t>FAQ</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
           <t>Testemunhos</t>
         </is>
       </c>
-      <c r="D1095" t="inlineStr">
-        <is>
-          <t>FAQ</t>
-        </is>
-      </c>
       <c r="E1095" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
         </is>
       </c>
     </row>
@@ -30016,12 +30016,12 @@
       </c>
       <c r="D1096" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="E1096" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/informacoes-gerais</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
         </is>
       </c>
     </row>
@@ -30043,12 +30043,12 @@
       </c>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1097" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -30070,12 +30070,12 @@
       </c>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -30087,22 +30087,22 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Erasmus+ Alunos Outgoing</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="E1099" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
         </is>
       </c>
     </row>
@@ -30124,12 +30124,12 @@
       </c>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-biomedica</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
         </is>
       </c>
     </row>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-biomedica</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-biomedica</t>
         </is>
       </c>
     </row>
@@ -30178,12 +30178,12 @@
       </c>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-civil</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-biomedica</t>
         </is>
       </c>
     </row>
@@ -30210,7 +30210,7 @@
       </c>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-civil</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-civil</t>
         </is>
       </c>
     </row>
@@ -30232,12 +30232,12 @@
       </c>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E1104" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-eletrotecnica</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-civil</t>
         </is>
       </c>
     </row>
@@ -30264,7 +30264,7 @@
       </c>
       <c r="E1105" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-eletrotecnica</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-eletrotecnica</t>
         </is>
       </c>
     </row>
@@ -30286,12 +30286,12 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-eletronica-e-telecomunicacoes-e-de-computadores</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-eletrotecnica</t>
         </is>
       </c>
     </row>
@@ -30313,12 +30313,12 @@
       </c>
       <c r="D1107" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-fisica-aplicada</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-eletronica-e-telecomunicacoes-e-de-computadores</t>
         </is>
       </c>
     </row>
@@ -30340,12 +30340,12 @@
       </c>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-e-multimedia</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-fisica-aplicada</t>
         </is>
       </c>
     </row>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-informatica-e-multimedia</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-e-multimedia</t>
         </is>
       </c>
     </row>
@@ -30394,12 +30394,12 @@
       </c>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E1110" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-e-de-computadores</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-informatica-e-multimedia</t>
         </is>
       </c>
     </row>
@@ -30426,7 +30426,7 @@
       </c>
       <c r="E1111" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-informatica-e-de-computadores</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-e-de-computadores</t>
         </is>
       </c>
     </row>
@@ -30448,12 +30448,12 @@
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E1112" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-redes-e-telecomunicacoes</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-informatica-e-de-computadores</t>
         </is>
       </c>
     </row>
@@ -30475,12 +30475,12 @@
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-mecanica</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-redes-e-telecomunicacoes</t>
         </is>
       </c>
     </row>
@@ -30507,7 +30507,7 @@
       </c>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-mecanica</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-mecanica</t>
         </is>
       </c>
     </row>
@@ -30529,12 +30529,12 @@
       </c>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-quimica-e-biologica</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-mecanica</t>
         </is>
       </c>
     </row>
@@ -30561,7 +30561,7 @@
       </c>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-quimica-e-biologica</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-quimica-e-biologica</t>
         </is>
       </c>
     </row>
@@ -30583,12 +30583,12 @@
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>Engenharia da Qualidade e Ambiente</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-da-qualidade-e-ambiente</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-quimica-e-biologica</t>
         </is>
       </c>
     </row>
@@ -30610,12 +30610,12 @@
       </c>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>Engenharia de Eletrónica e Telecomunicações</t>
+          <t>Engenharia da Qualidade e Ambiente</t>
         </is>
       </c>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-de-eletronica-e-telecomunicacoes</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-da-qualidade-e-ambiente</t>
         </is>
       </c>
     </row>
@@ -30637,12 +30637,12 @@
       </c>
       <c r="D1119" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Engenharia de Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-e-gestao-industrial</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-de-eletronica-e-telecomunicacoes</t>
         </is>
       </c>
     </row>
@@ -30664,12 +30664,12 @@
       </c>
       <c r="D1120" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/informacoes-gerais</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-e-gestao-industrial</t>
         </is>
       </c>
     </row>
@@ -30691,12 +30691,12 @@
       </c>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>Matemática Aplicada para a Indústria</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1121" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-matematica-aplicada-para-industria</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -30718,12 +30718,12 @@
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Matemática Aplicada para a Indústria</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-matematica-aplicada-tecnologia-e-empresa</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-matematica-aplicada-para-industria</t>
         </is>
       </c>
     </row>
@@ -30745,12 +30745,12 @@
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-matematica-aplicada-tecnologia-e-empresa</t>
         </is>
       </c>
     </row>
@@ -30772,12 +30772,12 @@
       </c>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-tecnologias-e-gestao-municipal</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -30799,12 +30799,12 @@
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>Unidades Curriculares</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SREI/Ofertas_ucs_incoming_EN_2024.pdf</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-tecnologias-e-gestao-municipal</t>
         </is>
       </c>
     </row>
@@ -30821,17 +30821,17 @@
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Unidades Curriculares</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>https://www.isel.pt/sites/default/files/SREI/Ofertas_ucs_incoming_EN_2024.pdf</t>
         </is>
       </c>
     </row>
@@ -30853,12 +30853,12 @@
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/informacoes-gerais</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
         </is>
       </c>
     </row>
@@ -30880,12 +30880,12 @@
       </c>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -30907,12 +30907,12 @@
       </c>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>Unidades Curriculares</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SREI/Ofertas_ucs_incoming_EN_2024.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -30924,22 +30924,22 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Erasmus+ Staff</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Erasmus+ Staff</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>Guia Erasmus+ para Staff</t>
+          <t>Unidades Curriculares</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SREI/Guia_ERASMUS-Plus_Staff.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SREI/Ofertas_ucs_incoming_EN_2024.pdf</t>
         </is>
       </c>
     </row>
@@ -30961,12 +30961,12 @@
       </c>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>Guia Erasmus+ para Staff</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-staff/informacoes-gerais</t>
+          <t>https://www.isel.pt/sites/default/files/SREI/Guia_ERASMUS-Plus_Staff.pdf</t>
         </is>
       </c>
     </row>
@@ -30988,12 +30988,12 @@
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>Instituições parceiras</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-staff/instituicoes-parceiras</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-staff/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -31015,12 +31015,12 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>Regulamento do Incentivo à Mobilidade Internacional do ISEL</t>
+          <t>Instituições parceiras</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_15_01_Regulamento_Incentivo_Mobilidade_internacional_ISEL_signed.pdf</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-staff/instituicoes-parceiras</t>
         </is>
       </c>
     </row>
@@ -31042,12 +31042,12 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Regulamento do Incentivo à Mobilidade Internacional do ISEL</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_15_01_Regulamento_Incentivo_Mobilidade_internacional_ISEL_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -31064,7 +31064,7 @@
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Instituições parceiras</t>
+          <t>Erasmus+ Staff</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr">
@@ -31086,22 +31086,22 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Outros Programas</t>
+          <t>Erasmus+ Staff</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Outros Programas</t>
+          <t>Instituições parceiras</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>Programa Vulcanus</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programa-vulcanus</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -31123,12 +31123,12 @@
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>Programas de intercâmbio</t>
+          <t>Programa Vulcanus</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programas-de-intercambio</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programa-vulcanus</t>
         </is>
       </c>
     </row>
@@ -31150,12 +31150,12 @@
       </c>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Programas de intercâmbio</t>
         </is>
       </c>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programas-de-intercambio</t>
         </is>
       </c>
     </row>
@@ -31172,17 +31172,17 @@
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Programa Vulcanus</t>
+          <t>Outros Programas</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>Programa Vulcanus</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programa-vulcanus</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -31204,12 +31204,12 @@
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>Programas de intercâmbio</t>
+          <t>Programa Vulcanus</t>
         </is>
       </c>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programas-de-intercambio</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programa-vulcanus</t>
         </is>
       </c>
     </row>
@@ -31231,10 +31231,37 @@
       </c>
       <c r="D1141" t="inlineStr">
         <is>
+          <t>Programas de intercâmbio</t>
+        </is>
+      </c>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programas-de-intercambio</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>Programas de Mobilidade</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>Outros Programas</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>Programa Vulcanus</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
           <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
-      <c r="E1141" t="inlineStr">
+      <c r="E1142" t="inlineStr">
         <is>
           <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>

--- a/data/ensino_links_full.xlsx
+++ b/data/ensino_links_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1142"/>
+  <dimension ref="A1:E1138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.05.04%20Candidatura%20UCI.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.05.05%20Requerimento%20UCI.pdf</t>
         </is>
       </c>
     </row>
@@ -14955,7 +14955,7 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.06.04%20Candidatura%20UCCES.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/formularios/SGAAE.MD.06.05%20Requerimento%20UCCES.pdf</t>
         </is>
       </c>
     </row>
@@ -15193,12 +15193,12 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEB.pdf</t>
         </is>
       </c>
     </row>
@@ -15220,12 +15220,12 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEB.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -15247,12 +15247,12 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -15274,12 +15274,12 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>João Ramos da Costa</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docente/joao-pedro-barrigana-ramos-da-costa-estesl</t>
         </is>
       </c>
     </row>
@@ -15301,12 +15301,12 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>João Ramos da Costa</t>
+          <t>Luís Minhalma</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docente/joao-pedro-barrigana-ramos-da-costa-estesl</t>
+          <t>https://www.isel.pt/docentes/luis-miguel-minhalma</t>
         </is>
       </c>
     </row>
@@ -15328,12 +15328,12 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>Luís Minhalma</t>
+          <t>Manuel Matos</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luis-miguel-minhalma</t>
+          <t>https://www.isel.pt/docentes/manuel-jose-de-matos</t>
         </is>
       </c>
     </row>
@@ -15355,12 +15355,12 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>Manuel Matos</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/manuel-jose-de-matos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -15382,12 +15382,12 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Modalidades de ingresso</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
         </is>
       </c>
     </row>
@@ -15409,12 +15409,12 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>Modalidades de ingresso</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
+          <t>https://www.isel.pt/curso/10538/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -15436,12 +15436,12 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Propinas</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10538/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -15463,12 +15463,12 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>Propinas</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -15517,12 +15517,12 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEC.pdf</t>
         </is>
       </c>
     </row>
@@ -15544,12 +15544,12 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEC.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -15571,12 +15571,12 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>Idália Gomes</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docentes/maria-idalia-da-silva-gomes</t>
         </is>
       </c>
     </row>
@@ -15598,12 +15598,12 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Idália Gomes</t>
+          <t>Jorge Reis de Barros</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-idalia-da-silva-gomes</t>
+          <t>https://www.isel.pt/docentes/jorge-alexandre-dias-dos-reis-de-barros</t>
         </is>
       </c>
     </row>
@@ -15625,12 +15625,12 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -15652,12 +15652,12 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>Jorge Reis de Barros</t>
+          <t>Luís Evangelista</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/jorge-alexandre-dias-dos-reis-de-barros</t>
+          <t>https://www.isel.pt/docentes/luis-manuel-faria-da-rocha-evangelista</t>
         </is>
       </c>
     </row>
@@ -15679,12 +15679,12 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>Luís Evangelista</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luis-manuel-faria-da-rocha-evangelista</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -15706,12 +15706,12 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Maria do Carmo Conde</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/docentes/maria-do-carmo-cachao-conde</t>
         </is>
       </c>
     </row>
@@ -15733,12 +15733,12 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Maria do Carmo Conde</t>
+          <t>Modalidades de ingresso</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-do-carmo-cachao-conde</t>
+          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
         </is>
       </c>
     </row>
@@ -15760,12 +15760,12 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>Modalidades de ingresso</t>
+          <t>Paulo Mendes</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
+          <t>https://www.isel.pt/docentes/paulo-jorge-henriques-mendes</t>
         </is>
       </c>
     </row>
@@ -15787,12 +15787,12 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>Paulo Mendes</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paulo-jorge-henriques-mendes</t>
+          <t>https://www.isel.pt/curso/36831/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -15814,12 +15814,12 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Propinas</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/36831/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -15841,12 +15841,12 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>Propinas</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -15922,12 +15922,12 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEE.pdf</t>
         </is>
       </c>
     </row>
@@ -15949,12 +15949,12 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEE.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -15976,12 +15976,12 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>José Gabriel Lopes</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docentes/jose-gabriel-da-silva-lopes</t>
         </is>
       </c>
     </row>
@@ -16003,12 +16003,12 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -16030,12 +16030,12 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>José Gabriel Lopes</t>
+          <t>Luís Rocha da Encarnação</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/jose-gabriel-da-silva-lopes</t>
+          <t>https://www.isel.pt/docentes/luis-jose-lamy-rocha-da-encarnacao</t>
         </is>
       </c>
     </row>
@@ -16057,12 +16057,12 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Luís Rocha da Encarnação</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luis-jose-lamy-rocha-da-encarnacao</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -16084,12 +16084,12 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Miguel Chaves</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/docentes/miguel-cabral-ferreira-chaves</t>
         </is>
       </c>
     </row>
@@ -16111,12 +16111,12 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>Miguel Chaves</t>
+          <t>Modalidades de ingresso</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/miguel-cabral-ferreira-chaves</t>
+          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
         </is>
       </c>
     </row>
@@ -16138,12 +16138,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>Modalidades de ingresso</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
+          <t>https://www.isel.pt/curso/10515/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -16165,12 +16165,12 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Propinas</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10515/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -16192,12 +16192,12 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>Propinas</t>
+          <t>Ricardo Luís</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/docentes/ricardo-jorge-ferreira-luis</t>
         </is>
       </c>
     </row>
@@ -16219,12 +16219,12 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>Ricardo Luís</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ricardo-jorge-ferreira-luis</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -16327,12 +16327,12 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEETC.pdf</t>
         </is>
       </c>
     </row>
@@ -16354,12 +16354,12 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEETC.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -16381,12 +16381,12 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>Jorge Martins Pião</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docentes/jorge-manuel-rodrigues-martins-piao</t>
         </is>
       </c>
     </row>
@@ -16408,12 +16408,12 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -16435,12 +16435,12 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>Jorge Martins Pião</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/jorge-manuel-rodrigues-martins-piao</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -16462,12 +16462,12 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Modalidades de ingresso</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
         </is>
       </c>
     </row>
@@ -16489,12 +16489,12 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Modalidades de ingresso</t>
+          <t>Pedro Sampaio</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
+          <t>https://www.isel.pt/docentes/pedro-miguel-fernandes-sampaio</t>
         </is>
       </c>
     </row>
@@ -16516,12 +16516,12 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>Pedro Sampaio</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-miguel-fernandes-sampaio</t>
+          <t>https://www.isel.pt/curso/10519/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -16543,12 +16543,12 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Propinas</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10519/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -16570,12 +16570,12 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Propinas</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -16678,12 +16678,12 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEFA.pdf</t>
         </is>
       </c>
     </row>
@@ -16705,12 +16705,12 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEFA.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -16732,12 +16732,12 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -16759,12 +16759,12 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Lucía Suárez</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docentes/lucia-fernandez-suarez</t>
         </is>
       </c>
     </row>
@@ -16786,12 +16786,12 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>Lucía Suárez</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/lucia-fernandez-suarez</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -16813,12 +16813,12 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Modalidades de ingresso</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
         </is>
       </c>
     </row>
@@ -16840,12 +16840,12 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>Modalidades de ingresso</t>
+          <t>Pedro Ferreira</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
+          <t>https://www.isel.pt/docentes/pedro-miguel-martins-ferreira</t>
         </is>
       </c>
     </row>
@@ -16867,12 +16867,12 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>Pedro Ferreira</t>
+          <t>Pedro Patrício</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-miguel-martins-ferreira</t>
+          <t>https://www.isel.pt/docentes/pedro-manuel-alves-patricio-da-silva</t>
         </is>
       </c>
     </row>
@@ -16894,12 +16894,12 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>Pedro Patrício</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-manuel-alves-patricio-da-silva</t>
+          <t>https://www.isel.pt/curso/38165/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -16921,12 +16921,12 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Propinas</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/38165/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -16948,12 +16948,12 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Propinas</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -17056,12 +17056,12 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEIM.pdf</t>
         </is>
       </c>
     </row>
@@ -17083,12 +17083,12 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Filipa Almeida</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEIM.pdf</t>
+          <t>https://www.isel.pt/docentes/filipa-soares-de-almeida</t>
         </is>
       </c>
     </row>
@@ -17110,12 +17110,12 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>Filipa Almeida</t>
+          <t>Gonçalo Valadão Matias</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/filipa-soares-de-almeida</t>
+          <t>https://www.isel.pt/docentes/goncalo-ramiro-valadao-matias</t>
         </is>
       </c>
     </row>
@@ -17137,12 +17137,12 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>Gonçalo Valadão Matias</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/goncalo-ramiro-valadao-matias</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -17164,12 +17164,12 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -17191,12 +17191,12 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Manfred Niehus</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docentes/manfred-niehus</t>
         </is>
       </c>
     </row>
@@ -17218,12 +17218,12 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Manfred Niehus</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/manfred-niehus</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -17245,12 +17245,12 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Modalidades de ingresso</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
         </is>
       </c>
     </row>
@@ -17272,12 +17272,12 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>Modalidades de ingresso</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
+          <t>https://www.isel.pt/curso/10517/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -17299,12 +17299,12 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Propinas</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10517/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -17326,12 +17326,12 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>Propinas</t>
+          <t>Rui Jesus</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/docentes/rui-manuel-feliciano-de-jesus</t>
         </is>
       </c>
     </row>
@@ -17353,12 +17353,12 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>Rui Jesus</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/rui-manuel-feliciano-de-jesus</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -17434,12 +17434,12 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Cátia Vaz</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/docentes/catia-raquel-jesus-vaz</t>
         </is>
       </c>
     </row>
@@ -17461,12 +17461,12 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>Cátia Vaz</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/catia-raquel-jesus-vaz</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEIC.pdf</t>
         </is>
       </c>
     </row>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEIC.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -17515,12 +17515,12 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -17542,12 +17542,12 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -17569,12 +17569,12 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Modalidades de ingresso</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
         </is>
       </c>
     </row>
@@ -17596,12 +17596,12 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>Modalidades de ingresso</t>
+          <t>Nuno Leite</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
+          <t>https://www.isel.pt/docentes/nuno-miguel-da-costa-de-sousa-leite</t>
         </is>
       </c>
     </row>
@@ -17623,12 +17623,12 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>Nuno Leite</t>
+          <t>Pedro Miguens Matutino</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-miguel-da-costa-de-sousa-leite</t>
+          <t>https://www.isel.pt/docentes/pedro-miguel-florindo-miguens-matutino</t>
         </is>
       </c>
     </row>
@@ -17650,12 +17650,12 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>Pedro Miguens Matutino</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-miguel-florindo-miguens-matutino</t>
+          <t>https://www.isel.pt/curso/10514/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -17677,12 +17677,12 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Propinas</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10514/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -17704,12 +17704,12 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>Propinas</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -17785,12 +17785,12 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEIRT.pdf</t>
         </is>
       </c>
     </row>
@@ -17812,12 +17812,12 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Filipe Freitas</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEIRT.pdf</t>
+          <t>https://www.isel.pt/docentes/filipe-bastos-de-freitas</t>
         </is>
       </c>
     </row>
@@ -17839,12 +17839,12 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>Filipe Freitas</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/filipe-bastos-de-freitas</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -17866,12 +17866,12 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>Isabel Matos</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docentes/isabel-maria-teixeira-de-matos</t>
         </is>
       </c>
     </row>
@@ -17893,12 +17893,12 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -17920,12 +17920,12 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>Isabel Matos</t>
+          <t>João Trindade</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/isabel-maria-teixeira-de-matos</t>
+          <t>https://www.isel.pt/docentes/joao-humberto-holbeche-trindade</t>
         </is>
       </c>
     </row>
@@ -17947,12 +17947,12 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>João Trindade</t>
+          <t>Luis Mata</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joao-humberto-holbeche-trindade</t>
+          <t>https://www.isel.pt/docente/luis-miguel-maia-bravo-da-mata</t>
         </is>
       </c>
     </row>
@@ -17974,12 +17974,12 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>Luis Mata</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docente/luis-miguel-maia-bravo-da-mata</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -18001,12 +18001,12 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Modalidades de ingresso</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
         </is>
       </c>
     </row>
@@ -18028,12 +18028,12 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>Modalidades de ingresso</t>
+          <t>Pedro Vieira</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
+          <t>https://www.isel.pt/docentes/pedro-manuel-de-almeida-carvalho-vieira</t>
         </is>
       </c>
     </row>
@@ -18055,12 +18055,12 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>Pedro Vieira</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-manuel-de-almeida-carvalho-vieira</t>
+          <t>https://www.isel.pt/curso/10564/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -18082,12 +18082,12 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Propinas</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10564/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -18109,12 +18109,12 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>Propinas</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -18190,12 +18190,12 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEM.pdf</t>
         </is>
       </c>
     </row>
@@ -18217,12 +18217,12 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Fernando Carreira</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEM.pdf</t>
+          <t>https://www.isel.pt/docentes/fernando-paulo-neves-da-fonseca-carreira</t>
         </is>
       </c>
     </row>
@@ -18244,12 +18244,12 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Fernando Carreira</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/fernando-paulo-neves-da-fonseca-carreira</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -18271,12 +18271,12 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>José Sobral</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docentes/jose-augusto-da-silva-sobral</t>
         </is>
       </c>
     </row>
@@ -18298,12 +18298,12 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -18325,12 +18325,12 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>José Sobral</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/jose-augusto-da-silva-sobral</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -18352,12 +18352,12 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Modalidades de ingresso</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
         </is>
       </c>
     </row>
@@ -18379,12 +18379,12 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>Modalidades de ingresso</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
+          <t>https://www.isel.pt/curso/10520/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -18406,12 +18406,12 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Propinas</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10520/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -18433,12 +18433,12 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>Propinas</t>
+          <t>Ricardo Portal</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/docentes/ricardo-jose-fontes-portal</t>
         </is>
       </c>
     </row>
@@ -18460,12 +18460,12 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>Ricardo Portal</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ricardo-jose-fontes-portal</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -18595,12 +18595,12 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEQB.pdf</t>
         </is>
       </c>
     </row>
@@ -18622,12 +18622,12 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LEQB.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -18649,12 +18649,12 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -18676,12 +18676,12 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Magda Semedo</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docentes/magda-sofia-soares-de-carvalho-cardoso-nobre-semedo</t>
         </is>
       </c>
     </row>
@@ -18703,12 +18703,12 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>Magda Semedo</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/magda-sofia-soares-de-carvalho-cardoso-nobre-semedo</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -18730,12 +18730,12 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Modalidades de ingresso</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
         </is>
       </c>
     </row>
@@ -18757,12 +18757,12 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>Modalidades de ingresso</t>
+          <t>Nelson Nunes</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
+          <t>https://www.isel.pt/docentes/nelson-guerreiro-cortez-nunes</t>
         </is>
       </c>
     </row>
@@ -18784,12 +18784,12 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>Nelson Nunes</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nelson-guerreiro-cortez-nunes</t>
+          <t>https://www.isel.pt/curso/10521/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -18811,12 +18811,12 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Propinas</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10521/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -18838,12 +18838,12 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>Propinas</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -18946,12 +18946,12 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Cátia Dias</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/docentes/catia-sofia-peniche-lente-dinis-dias</t>
         </is>
       </c>
     </row>
@@ -18973,12 +18973,12 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>Cátia Dias</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/catia-sofia-peniche-lente-dinis-dias</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LMATE.pdf</t>
         </is>
       </c>
     </row>
@@ -19000,12 +19000,12 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LMATE.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -19027,12 +19027,12 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -19054,12 +19054,12 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Lucía Suárez</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docentes/lucia-fernandez-suarez</t>
         </is>
       </c>
     </row>
@@ -19081,12 +19081,12 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>Lucía Suárez</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/lucia-fernandez-suarez</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -19108,12 +19108,12 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Modalidades de ingresso</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
         </is>
       </c>
     </row>
@@ -19135,12 +19135,12 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>Modalidades de ingresso</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
+          <t>https://www.isel.pt/curso/10545/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -19162,12 +19162,12 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Propinas</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10545/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -19189,12 +19189,12 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>Propinas</t>
+          <t>Sandra Aleixo</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/docentes/sandra-maria-da-silva-figueiredo-aleixo</t>
         </is>
       </c>
     </row>
@@ -19216,12 +19216,12 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>Sandra Aleixo</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/sandra-maria-da-silva-figueiredo-aleixo</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -19270,12 +19270,12 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LTGM.pdf</t>
         </is>
       </c>
     </row>
@@ -19297,12 +19297,12 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-LTGM.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -19324,12 +19324,12 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -19351,12 +19351,12 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Luísa Teles Fortes</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docentes/luisa-maria-conceicao-ferreira-cardoso-teles-fortes</t>
         </is>
       </c>
     </row>
@@ -19378,12 +19378,12 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>Luísa Teles Fortes</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luisa-maria-conceicao-ferreira-cardoso-teles-fortes</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -19405,12 +19405,12 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Maria Teresa Santos</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/docentes/maria-teresa-loureiro-dos-santos</t>
         </is>
       </c>
     </row>
@@ -19432,12 +19432,12 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>Maria Teresa Santos</t>
+          <t>Modalidades de ingresso</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-teresa-loureiro-dos-santos</t>
+          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
         </is>
       </c>
     </row>
@@ -19459,12 +19459,12 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>Modalidades de ingresso</t>
+          <t>Paula Lamego</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/candidatos/modalidades-de-ingresso</t>
+          <t>https://www.isel.pt/docentes/paula-raquel-pires-da-cunha-lamego</t>
         </is>
       </c>
     </row>
@@ -19486,12 +19486,12 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>Paula Lamego</t>
+          <t>Paulo Matos Martins</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paula-raquel-pires-da-cunha-lamego</t>
+          <t>https://www.isel.pt/docentes/paulo-jose-de-matos-martins</t>
         </is>
       </c>
     </row>
@@ -19513,12 +19513,12 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>Paulo Matos Martins</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paulo-jose-de-matos-martins</t>
+          <t>https://www.isel.pt/curso/10537/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -19540,12 +19540,12 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Propinas</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10537/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -19567,12 +19567,12 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>Propinas</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -19675,12 +19675,12 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEB.pdf</t>
         </is>
       </c>
     </row>
@@ -19702,12 +19702,12 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>EDITAIS</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEB.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
         </is>
       </c>
     </row>
@@ -19729,12 +19729,12 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>EDITAIS</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -19756,12 +19756,12 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>José Matos</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docente/jose-fulgencio-de-matos-estesl</t>
         </is>
       </c>
     </row>
@@ -19783,12 +19783,12 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>João Costa</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docentes/joao-pedro-barrigana-ramos-da-costa</t>
         </is>
       </c>
     </row>
@@ -19810,12 +19810,12 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>José Matos</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docente/jose-fulgencio-de-matos-estesl</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -19837,12 +19837,12 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>João Costa</t>
+          <t>Luís Minhalma</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joao-pedro-barrigana-ramos-da-costa</t>
+          <t>https://www.isel.pt/docentes/luis-miguel-minhalma</t>
         </is>
       </c>
     </row>
@@ -19864,12 +19864,12 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>Luís Minhalma</t>
+          <t>Manuel Matos</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luis-miguel-minhalma</t>
+          <t>https://www.isel.pt/docentes/manuel-jose-de-matos</t>
         </is>
       </c>
     </row>
@@ -19891,12 +19891,12 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>Manuel Matos</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/manuel-jose-de-matos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -19918,12 +19918,12 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Marisa Cebola</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/node/12601</t>
         </is>
       </c>
     </row>
@@ -19945,12 +19945,12 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>Marisa Cebola</t>
+          <t>Paulo Guerreiro</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/node/12601</t>
+          <t>https://www.isel.pt/docente/paulo-guerreiro-estesl</t>
         </is>
       </c>
     </row>
@@ -19972,12 +19972,12 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>Paulo Guerreiro</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docente/paulo-guerreiro-estesl</t>
+          <t>https://www.isel.pt/curso/10539/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -19999,12 +19999,12 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10539/plano-de-estudos</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -20161,12 +20161,12 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEC.pdf</t>
         </is>
       </c>
     </row>
@@ -20188,12 +20188,12 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Dulce Henriques</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEC.pdf</t>
+          <t>https://www.isel.pt/docentes/maria-dulce-e-silva-franco-henriques</t>
         </is>
       </c>
     </row>
@@ -20215,12 +20215,12 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>Dulce Henriques</t>
+          <t>Editais</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-dulce-e-silva-franco-henriques</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
         </is>
       </c>
     </row>
@@ -20242,12 +20242,12 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>Editais</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -20269,12 +20269,12 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -20296,12 +20296,12 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Luísa Teles Fortes</t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docentes/luisa-maria-conceicao-ferreira-cardoso-teles-fortes</t>
         </is>
       </c>
     </row>
@@ -20323,12 +20323,12 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>Luísa Teles Fortes</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luisa-maria-conceicao-ferreira-cardoso-teles-fortes</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -20350,12 +20350,12 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Maria do Carmo Conde</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/docentes/maria-do-carmo-cachao-conde</t>
         </is>
       </c>
     </row>
@@ -20377,12 +20377,12 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>Maria do Carmo Conde</t>
+          <t>Paula Lamego</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-do-carmo-cachao-conde</t>
+          <t>https://www.isel.pt/docentes/paula-raquel-pires-da-cunha-lamego</t>
         </is>
       </c>
     </row>
@@ -20404,12 +20404,12 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>Paula Lamego</t>
+          <t>Pedro Silva</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paula-raquel-pires-da-cunha-lamego</t>
+          <t>https://www.isel.pt/docentes/pedro-miguel-soares-raposeiro-da-silva</t>
         </is>
       </c>
     </row>
@@ -20431,12 +20431,12 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>Pedro Silva</t>
+          <t>Plano de estudos 2025/26</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-miguel-soares-raposeiro-da-silva</t>
+          <t>https://www.isel.pt/node/40866</t>
         </is>
       </c>
     </row>
@@ -20458,12 +20458,12 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>Plano de estudos 2025/26</t>
+          <t>Plano de estudos antigo</t>
         </is>
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/node/40866</t>
+          <t>https://www.isel.pt/node/40867</t>
         </is>
       </c>
     </row>
@@ -20485,12 +20485,12 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>Plano de estudos antigo</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/node/40867</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -20620,12 +20620,12 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEE.pdf</t>
         </is>
       </c>
     </row>
@@ -20647,12 +20647,12 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Editais</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEE.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
         </is>
       </c>
     </row>
@@ -20674,12 +20674,12 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>Editais</t>
+          <t>Energia</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
+          <t>https://www.isel.pt/curso/38336/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -20701,12 +20701,12 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>Energia</t>
+          <t>Filipe Barata</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/38336/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/filipe-andre-de-sousa-figueira-barata</t>
         </is>
       </c>
     </row>
@@ -20728,12 +20728,12 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>Filipe Barata</t>
+          <t>Hiren Canacsinh</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/filipe-andre-de-sousa-figueira-barata</t>
+          <t>https://www.isel.pt/docentes/hiren-canacsinh</t>
         </is>
       </c>
     </row>
@@ -20755,12 +20755,12 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>Hiren Canacsinh</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/hiren-canacsinh</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -20782,12 +20782,12 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -20809,12 +20809,12 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>João Lagarto</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docentes/joao-herminio-ninitas-lagarto</t>
         </is>
       </c>
     </row>
@@ -20836,12 +20836,12 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>João Lagarto</t>
+          <t>Luís Redondo</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joao-herminio-ninitas-lagarto</t>
+          <t>https://www.isel.pt/docentes/luis-manuel-dos-santos-redondo</t>
         </is>
       </c>
     </row>
@@ -20863,12 +20863,12 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>Luís Redondo</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luis-manuel-dos-santos-redondo</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -20890,12 +20890,12 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Rita Pereira</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/docentes/rita-marcos-fontes-murta-pereira</t>
         </is>
       </c>
     </row>
@@ -20917,12 +20917,12 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>Rita Pereira</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/rita-marcos-fontes-murta-pereira</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -21052,12 +21052,12 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEIM.pdf</t>
         </is>
       </c>
     </row>
@@ -21079,12 +21079,12 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Diogo Cabral</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEIM.pdf</t>
+          <t>https://www.isel.pt/docente/diogo-nuno-crespo-ribeiro-cabral</t>
         </is>
       </c>
     </row>
@@ -21106,12 +21106,12 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>Diogo Cabral</t>
+          <t>Editais</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docente/diogo-nuno-crespo-ribeiro-cabral</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
         </is>
       </c>
     </row>
@@ -21133,12 +21133,12 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>Editais</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -21160,12 +21160,12 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -21187,12 +21187,12 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -21214,12 +21214,12 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Pedro Fazenda</t>
         </is>
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/docentes/pedro-vicoso-fazenda</t>
         </is>
       </c>
     </row>
@@ -21241,12 +21241,12 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>Pedro Fazenda</t>
+          <t>Pedro Mendes Jorge</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-vicoso-fazenda</t>
+          <t>https://www.isel.pt/docentes/pedro-miguel-torres-mendes-jorge</t>
         </is>
       </c>
     </row>
@@ -21268,12 +21268,12 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>Pedro Mendes Jorge</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-miguel-torres-mendes-jorge</t>
+          <t>https://www.isel.pt/curso/10524/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -21295,12 +21295,12 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10524/plano-de-estudos</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -21403,12 +21403,12 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEIC.pdf</t>
         </is>
       </c>
     </row>
@@ -21430,12 +21430,12 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Editais</t>
         </is>
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEIC.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
         </is>
       </c>
     </row>
@@ -21457,12 +21457,12 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>Editais</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -21484,12 +21484,12 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>José Simão</t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/docentes/jose-manuel-de-campos-lages-garcia-simao</t>
         </is>
       </c>
     </row>
@@ -21511,12 +21511,12 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -21538,12 +21538,12 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>José Simão</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/jose-manuel-de-campos-lages-garcia-simao</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -21565,12 +21565,12 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Nuno Cruz</t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/docentes/nuno-miguel-machado-cruz</t>
         </is>
       </c>
     </row>
@@ -21592,12 +21592,12 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>Nuno Cruz</t>
+          <t>Nuno Datia</t>
         </is>
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-miguel-machado-cruz</t>
+          <t>https://www.isel.pt/docentes/nuno-miguel-soares-datia</t>
         </is>
       </c>
     </row>
@@ -21619,12 +21619,12 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>Nuno Datia</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-miguel-soares-datia</t>
+          <t>https://www.isel.pt/curso/10523/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -21646,12 +21646,12 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10523/plano-de-estudos</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -21835,12 +21835,12 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEM.pdf</t>
         </is>
       </c>
     </row>
@@ -21862,12 +21862,12 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Editais</t>
         </is>
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEM.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
         </is>
       </c>
     </row>
@@ -21889,12 +21889,12 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>Editais</t>
+          <t>Energia, Refrigeração e Climatização</t>
         </is>
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
+          <t>https://www.isel.pt/curso/38000/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -21916,12 +21916,12 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>Energia, Refrigeração e Climatização</t>
+          <t>Gonçalo Duarte</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/38000/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/goncalo-nuno-de-oliveira-duarte</t>
         </is>
       </c>
     </row>
@@ -21943,12 +21943,12 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>Gonçalo Duarte</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/goncalo-nuno-de-oliveira-duarte</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -21970,12 +21970,12 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -21997,12 +21997,12 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Manutenção e Produção</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/curso/38001/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -22024,12 +22024,12 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>Manutenção e Produção</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/38001/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -22051,12 +22051,12 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Mário Mendes</t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/docentes/mario-jose-goncalves-cavaco-mendes</t>
         </is>
       </c>
     </row>
@@ -22078,12 +22078,12 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>Mário Mendes</t>
+          <t>Pedro Abreu e Silva</t>
         </is>
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/mario-jose-goncalves-cavaco-mendes</t>
+          <t>https://www.isel.pt/docentes/pedro-miguel-de-abreu-e-silva</t>
         </is>
       </c>
     </row>
@@ -22105,12 +22105,12 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>Pedro Abreu e Silva</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-miguel-de-abreu-e-silva</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -22186,12 +22186,12 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>Ana Barreiros</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ana-maria-garcia-henriques-barreiros-joanaz-de-melo</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-quimica-e-biologica</t>
         </is>
       </c>
     </row>
@@ -22213,12 +22213,12 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Bioprocessos</t>
         </is>
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-quimica-e-biologica</t>
+          <t>https://www.isel.pt/curso/37951/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -22240,12 +22240,12 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>Bioprocessos</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/37951/plano-de-estudos</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEQB.pdf</t>
         </is>
       </c>
     </row>
@@ -22267,12 +22267,12 @@
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Editais</t>
         </is>
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
         </is>
       </c>
     </row>
@@ -22294,12 +22294,12 @@
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEQB.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -22321,12 +22321,12 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>Editais</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -22348,12 +22348,12 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -22375,12 +22375,12 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Processos Químicos</t>
         </is>
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/curso/37950/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -22402,12 +22402,12 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>José Coelho</t>
+          <t>Ruben Leitão</t>
         </is>
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/jose-augusto-paixao-coelho</t>
+          <t>https://www.isel.pt/docentes/ruben-anacoreta-seabra-elvas-leitao</t>
         </is>
       </c>
     </row>
@@ -22429,12 +22429,12 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -22456,12 +22456,12 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>Nelson Silva</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nelson-alberto-frade-da-silva</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-quimica-e-biologica-testemunhos</t>
         </is>
       </c>
     </row>
@@ -22483,12 +22483,12 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>Processos Químicos</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/37950/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -22510,12 +22510,12 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>Ruben Leitão</t>
+          <t>candidaturas aqui</t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ruben-anacoreta-seabra-elvas-leitao</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
         </is>
       </c>
     </row>
@@ -22532,17 +22532,17 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia da Qualidade e Ambiente</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>Rui Filipe</t>
+          <t>António Oliveira</t>
         </is>
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/rui-manuel-gouveia-filipe</t>
+          <t>https://www.isel.pt/docentes/antonio-victor-carreira-oliveira</t>
         </is>
       </c>
     </row>
@@ -22559,17 +22559,17 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia da Qualidade e Ambiente</t>
         </is>
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-quimica-e-biologica-testemunhos</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-da-qualidade-e-ambiente</t>
         </is>
       </c>
     </row>
@@ -22586,17 +22586,17 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia da Qualidade e Ambiente</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEQA.pdf</t>
         </is>
       </c>
     </row>
@@ -22613,17 +22613,17 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia da Qualidade e Ambiente</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>candidaturas aqui</t>
+          <t>Editais</t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
         </is>
       </c>
     </row>
@@ -22645,12 +22645,12 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>António Oliveira</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/antonio-victor-carreira-oliveira</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -22672,12 +22672,12 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Isabel João</t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-da-qualidade-e-ambiente</t>
+          <t>https://www.isel.pt/docentes/isabel-maria-da-silva-joao</t>
         </is>
       </c>
     </row>
@@ -22699,12 +22699,12 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -22726,12 +22726,12 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>João Gomes</t>
         </is>
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEQA.pdf</t>
+          <t>https://www.isel.pt/docentes/joao-fernando-pereira-gomes</t>
         </is>
       </c>
     </row>
@@ -22753,12 +22753,12 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>Editais</t>
+          <t>João Silva</t>
         </is>
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
+          <t>https://www.isel.pt/docentes/joao-miguel-alves-da-silva</t>
         </is>
       </c>
     </row>
@@ -22780,12 +22780,12 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -22807,12 +22807,12 @@
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Maria Teresa Santos</t>
         </is>
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docentes/maria-teresa-loureiro-dos-santos</t>
         </is>
       </c>
     </row>
@@ -22834,12 +22834,12 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>Isabel João</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/isabel-maria-da-silva-joao</t>
+          <t>https://www.isel.pt/curso/10541/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -22861,12 +22861,12 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>João Gomes</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joao-fernando-pereira-gomes</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -22888,12 +22888,12 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>João Silva</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joao-miguel-alves-da-silva</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -22915,12 +22915,12 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>candidaturas aqui</t>
         </is>
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
         </is>
       </c>
     </row>
@@ -22937,17 +22937,17 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>Engenharia da Qualidade e Ambiente</t>
+          <t>Engenharia de Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>Maria Teresa Santos</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-teresa-loureiro-dos-santos</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-de-eletronica-e-telecomunicacoes</t>
         </is>
       </c>
     </row>
@@ -22964,17 +22964,17 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>Engenharia da Qualidade e Ambiente</t>
+          <t>Engenharia de Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10541/plano-de-estudos</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEET.pdf</t>
         </is>
       </c>
     </row>
@@ -22991,17 +22991,17 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>Engenharia da Qualidade e Ambiente</t>
+          <t>Engenharia de Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>Editais</t>
         </is>
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
         </is>
       </c>
     </row>
@@ -23018,17 +23018,17 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>Engenharia da Qualidade e Ambiente</t>
+          <t>Engenharia de Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>candidaturas aqui</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -23050,12 +23050,12 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-de-eletronica-e-telecomunicacoes</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -23077,12 +23077,12 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -23104,12 +23104,12 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Paula Louro</t>
         </is>
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEET.pdf</t>
+          <t>https://www.isel.pt/docentes/paula-maria-garcia-louro</t>
         </is>
       </c>
     </row>
@@ -23131,12 +23131,12 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>Editais</t>
+          <t>Pedro Vieira</t>
         </is>
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
+          <t>https://www.isel.pt/docentes/pedro-manuel-de-almeida-carvalho-vieira</t>
         </is>
       </c>
     </row>
@@ -23158,12 +23158,12 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/curso/10522/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -23185,12 +23185,12 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Rui Policarpo Duarte</t>
         </is>
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docente/rui-antonio-policarpo-duarte</t>
         </is>
       </c>
     </row>
@@ -23212,12 +23212,12 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -23239,12 +23239,12 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>Paula Louro</t>
+          <t>Vitor Fialho</t>
         </is>
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paula-maria-garcia-louro</t>
+          <t>https://www.isel.pt/docentes/vitor-manuel-de-oliveira-fialho</t>
         </is>
       </c>
     </row>
@@ -23266,12 +23266,12 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>Pedro Vieira</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-manuel-de-almeida-carvalho-vieira</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -23293,12 +23293,12 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>candidaturas aqui</t>
         </is>
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10522/plano-de-estudos</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
         </is>
       </c>
     </row>
@@ -23315,17 +23315,17 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>Engenharia de Eletrónica e Telecomunicações</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>Rui Policarpo Duarte</t>
+          <t>Ana Dias</t>
         </is>
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docente/rui-antonio-policarpo-duarte</t>
+          <t>https://www.isel.pt/docentes/ana-sofia-martins-da-eira-dias</t>
         </is>
       </c>
     </row>
@@ -23342,17 +23342,17 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>Engenharia de Eletrónica e Telecomunicações</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>Vitor Fialho</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/vitor-manuel-de-oliveira-fialho</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-e-gestao-industrial</t>
         </is>
       </c>
     </row>
@@ -23369,17 +23369,17 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>Engenharia de Eletrónica e Telecomunicações</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEGI.pdf</t>
         </is>
       </c>
     </row>
@@ -23396,17 +23396,17 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>Engenharia de Eletrónica e Telecomunicações</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>candidaturas aqui</t>
+          <t>Editais</t>
         </is>
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
         </is>
       </c>
     </row>
@@ -23428,12 +23428,12 @@
       </c>
       <c r="D852" t="inlineStr">
         <is>
-          <t>Ana Dias</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ana-sofia-martins-da-eira-dias</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -23455,12 +23455,12 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-e-gestao-industrial</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -23482,12 +23482,12 @@
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>João Garcia</t>
         </is>
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/docente/joao-nuno-pinto-miranda-garcia</t>
         </is>
       </c>
     </row>
@@ -23509,12 +23509,12 @@
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MEGI.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -23536,12 +23536,12 @@
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t>Editais</t>
+          <t>Pedro Carmona Marques</t>
         </is>
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
+          <t>https://www.isel.pt/docentes/pedro-domingos-belo-carmona-marques</t>
         </is>
       </c>
     </row>
@@ -23563,12 +23563,12 @@
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/curso/10570/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -23590,12 +23590,12 @@
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Rui Dantas</t>
         </is>
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docente/rui-miguel-vieira-dantas</t>
         </is>
       </c>
     </row>
@@ -23617,12 +23617,12 @@
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>João Garcia</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docente/joao-nuno-pinto-miranda-garcia</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -23644,12 +23644,12 @@
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Vítor Anes</t>
         </is>
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/docentes/vitor-manuel-rodrigues-anes</t>
         </is>
       </c>
     </row>
@@ -23671,12 +23671,12 @@
       </c>
       <c r="D861" t="inlineStr">
         <is>
-          <t>Pedro Carmona Marques</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-domingos-belo-carmona-marques</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -23698,12 +23698,12 @@
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>candidaturas aqui</t>
         </is>
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10570/plano-de-estudos</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
         </is>
       </c>
     </row>
@@ -23720,17 +23720,17 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Matemática Aplicada para a Indústria</t>
         </is>
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t>Rui Dantas</t>
+          <t>Ana Martins</t>
         </is>
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docente/rui-miguel-vieira-dantas</t>
+          <t>https://www.isel.pt/docentes/ana-alexandra-antunes-figueiredo-martins</t>
         </is>
       </c>
     </row>
@@ -23747,17 +23747,17 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Matemática Aplicada para a Indústria</t>
         </is>
       </c>
       <c r="D864" t="inlineStr">
         <is>
-          <t>Vítor Anes</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/vitor-manuel-rodrigues-anes</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-matematica-aplicada-para-industria</t>
         </is>
       </c>
     </row>
@@ -23774,17 +23774,17 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Matemática Aplicada para a Indústria</t>
         </is>
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>Descarregar</t>
         </is>
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MMAI.pdf</t>
         </is>
       </c>
     </row>
@@ -23801,17 +23801,17 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Matemática Aplicada para a Indústria</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t>candidaturas aqui</t>
+          <t>Editais</t>
         </is>
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
         </is>
       </c>
     </row>
@@ -23833,12 +23833,12 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>Ana Martins</t>
+          <t>Filipe Cal</t>
         </is>
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ana-alexandra-antunes-figueiredo-martins</t>
+          <t>https://www.isel.pt/docentes/filipe-santiago-cal</t>
         </is>
       </c>
     </row>
@@ -23860,12 +23860,12 @@
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Horários</t>
         </is>
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-matematica-aplicada-para-industria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -23887,12 +23887,12 @@
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -23914,12 +23914,12 @@
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>Descarregar</t>
+          <t>Luís Silva</t>
         </is>
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-MMAI.pdf</t>
+          <t>https://www.isel.pt/docentes/luis-manuel-ferreira-da-silva</t>
         </is>
       </c>
     </row>
@@ -23941,12 +23941,12 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>Editais</t>
+          <t>Mapa de testes e exames</t>
         </is>
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/editais-tfm</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
         </is>
       </c>
     </row>
@@ -23968,12 +23968,12 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>Filipe Cal</t>
+          <t>Modelação e Simulação Numérica</t>
         </is>
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/filipe-santiago-cal</t>
+          <t>https://www.isel.pt/curso/38247/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -23995,12 +23995,12 @@
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>Otimização</t>
         </is>
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/curso/38246/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -24022,12 +24022,12 @@
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -24049,12 +24049,12 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>Luís Silva</t>
+          <t>Teresa Quinteiro</t>
         </is>
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luis-manuel-ferreira-da-silva</t>
+          <t>https://www.isel.pt/docentes/teresa-maria-de-araujo-melo-quinteiro</t>
         </is>
       </c>
     </row>
@@ -24076,12 +24076,12 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>Mapa de testes e exames</t>
+          <t>Tratamento de Dados</t>
         </is>
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/testes_e_exames</t>
+          <t>https://www.isel.pt/curso/38248/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -24103,12 +24103,12 @@
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t>Modelação e Simulação Numérica</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/38247/plano-de-estudos</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
         </is>
       </c>
     </row>
@@ -24130,12 +24130,12 @@
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>Otimização</t>
+          <t>candidaturas aqui</t>
         </is>
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/38246/plano-de-estudos</t>
+          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
         </is>
       </c>
     </row>
@@ -24147,22 +24147,22 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>Mestrados</t>
+          <t>Outros Cursos</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Matemática Aplicada para a Indústria</t>
+          <t>Academia MikroTik</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>Teresa Quinteiro</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/teresa-maria-de-araujo-melo-quinteiro</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/50_MikroTikAcademy_EN.pdf</t>
         </is>
       </c>
     </row>
@@ -24174,22 +24174,22 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Mestrados</t>
+          <t>Outros Cursos</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Matemática Aplicada para a Indústria</t>
+          <t>Curso Preparatório de Física</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>Tratamento de Dados</t>
+          <t>António Casaca</t>
         </is>
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/38248/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/antonio-manuel-carreiras-casaca</t>
         </is>
       </c>
     </row>
@@ -24201,22 +24201,22 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Mestrados</t>
+          <t>Outros Cursos</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Matemática Aplicada para a Indústria</t>
+          <t>Curso Preparatório de Física</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/propinas</t>
+          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-fisica</t>
         </is>
       </c>
     </row>
@@ -24228,22 +24228,22 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>Mestrados</t>
+          <t>Outros Cursos</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Matemática Aplicada para a Indústria</t>
+          <t>Curso Preparatório de Física</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>candidaturas aqui</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/servicos/modalidades-de-ingresso/mestrado</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -24260,17 +24260,17 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Academia MikroTik</t>
+          <t>Curso Preparatório de Física</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>Programa detalhado</t>
         </is>
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/50_MikroTikAcademy_EN.pdf</t>
+          <t>https://www.isel.pt/curso/outros-curso/curso-preparatorio-de-fisica-programa-detalhado</t>
         </is>
       </c>
     </row>
@@ -24292,12 +24292,12 @@
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>António Casaca</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/antonio-manuel-carreiras-casaca</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -24319,12 +24319,12 @@
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-fisica</t>
+          <t>https://www.isel.pt/sites/default/files/DF/Plano_Curso%20Fis2024%20-%20v2.pdf</t>
         </is>
       </c>
     </row>
@@ -24346,12 +24346,12 @@
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/sites/default/files/001_imagens_isel/pdf/15471_2016.pdf</t>
         </is>
       </c>
     </row>
@@ -24368,17 +24368,17 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Curso Preparatório de Física</t>
+          <t>Curso Preparatório de Matemática</t>
         </is>
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-matematica</t>
         </is>
       </c>
     </row>
@@ -24395,17 +24395,17 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Curso Preparatório de Física</t>
+          <t>Curso Preparatório de Matemática</t>
         </is>
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t>Programa detalhado</t>
+          <t>José Rodrigues</t>
         </is>
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-curso/curso-preparatorio-de-fisica-programa-detalhado</t>
+          <t>https://www.isel.pt/docentes/jose-alberto-de-sousa-rodrigues</t>
         </is>
       </c>
     </row>
@@ -24422,17 +24422,17 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Curso Preparatório de Física</t>
+          <t>Curso Preparatório de Matemática</t>
         </is>
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/DF/Plano_Curso%20Fis2024%20-%20v2.pdf</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -24449,17 +24449,17 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Curso Preparatório de Física</t>
+          <t>Curso Preparatório de Matemática</t>
         </is>
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>Programa detalhado</t>
         </is>
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/001_imagens_isel/pdf/15471_2016.pdf</t>
+          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-matematica-programa-detalhado</t>
         </is>
       </c>
     </row>
@@ -24481,12 +24481,12 @@
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-matematica</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -24503,17 +24503,17 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Curso Preparatório de Matemática</t>
+          <t>Formação de Analistas Químicos</t>
         </is>
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/outros-cursos/formacao-de-analistas-quimicos</t>
         </is>
       </c>
     </row>
@@ -24530,17 +24530,17 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Curso Preparatório de Matemática</t>
+          <t>Formação de Analistas Químicos</t>
         </is>
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -24557,17 +24557,17 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Curso Preparatório de Matemática</t>
+          <t>Formação de Analistas Químicos</t>
         </is>
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>José Rodrigues</t>
+          <t>Programa e Avaliação</t>
         </is>
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/jose-alberto-de-sousa-rodrigues</t>
+          <t>https://www.isel.pt/curso/outros-cursos/formacao-de-analistas-quimicos/programa-e-avaliacao</t>
         </is>
       </c>
     </row>
@@ -24584,17 +24584,17 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Curso Preparatório de Matemática</t>
+          <t>Formação de Analistas Químicos</t>
         </is>
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>Programa detalhado</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-cursos/curso-preparatorio-de-matematica-programa-detalhado</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -24606,22 +24606,22 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>Outros Cursos</t>
+          <t>Pós-Graduações</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Formação de Analistas Químicos</t>
+          <t>Conservação e Reabilitação de Construções</t>
         </is>
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Ana Rita Gião</t>
         </is>
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-cursos/formacao-de-analistas-quimicos</t>
+          <t>https://www.isel.pt/docentes/ana-rita-faria-conceicao-de-sousa-giao</t>
         </is>
       </c>
     </row>
@@ -24633,22 +24633,22 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Outros Cursos</t>
+          <t>Pós-Graduações</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Formação de Analistas Químicos</t>
+          <t>Conservação e Reabilitação de Construções</t>
         </is>
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-conservacao-e-reabilitacao-de-construcoes</t>
         </is>
       </c>
     </row>
@@ -24660,22 +24660,22 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>Outros Cursos</t>
+          <t>Pós-Graduações</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Formação de Analistas Químicos</t>
+          <t>Conservação e Reabilitação de Construções</t>
         </is>
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-conservacao-e-reabilitacao-de-construcoes/candidaturas</t>
         </is>
       </c>
     </row>
@@ -24687,22 +24687,22 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>Outros Cursos</t>
+          <t>Pós-Graduações</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Formação de Analistas Químicos</t>
+          <t>Conservação e Reabilitação de Construções</t>
         </is>
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>Programa e Avaliação</t>
+          <t>Cristina Borges Azevedo</t>
         </is>
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/outros-cursos/formacao-de-analistas-quimicos/programa-e-avaliacao</t>
+          <t>https://www.isel.pt/docentes/ana-cristina-gaminha-ribeiro-borges-de-azevedo</t>
         </is>
       </c>
     </row>
@@ -24724,12 +24724,12 @@
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>Ana Rita Gião</t>
+          <t>Disponível aqui</t>
         </is>
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ana-rita-faria-conceicao-de-sousa-giao</t>
+          <t>https://www.isel.pt/sites/default/files/PG_CRC/13%C2%AA.%20EsquemaAulas.pdf</t>
         </is>
       </c>
     </row>
@@ -24751,12 +24751,12 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Dulce Henriques</t>
         </is>
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-conservacao-e-reabilitacao-de-construcoes</t>
+          <t>https://www.isel.pt/docentes/maria-dulce-e-silva-franco-henriques</t>
         </is>
       </c>
     </row>
@@ -24778,12 +24778,12 @@
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-conservacao-e-reabilitacao-de-construcoes/candidaturas</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -24805,12 +24805,12 @@
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -24832,12 +24832,12 @@
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>Cristina Borges Azevedo</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ana-cristina-gaminha-ribeiro-borges-de-azevedo</t>
+          <t>https://www.isel.pt/curso/38154/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -24859,12 +24859,12 @@
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t>Disponível aqui</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_CRC/13%C2%AA.%20EsquemaAulas.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -24886,12 +24886,12 @@
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>Dulce Henriques</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-dulce-e-silva-franco-henriques</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -24913,12 +24913,12 @@
       </c>
       <c r="D907" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -24940,12 +24940,12 @@
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/bolsas-next-level-impulso-adultos</t>
         </is>
       </c>
     </row>
@@ -24967,12 +24967,12 @@
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/38154/plano-de-estudos</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGCRC.pdf</t>
         </is>
       </c>
     </row>
@@ -24994,12 +24994,12 @@
       </c>
       <c r="D910" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>propina</t>
         </is>
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
@@ -25016,17 +25016,17 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Conservação e Reabilitação de Construções</t>
+          <t>Eficiência Energética e Sustentabilidade em Edifícios</t>
         </is>
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-eficiencia-energetica-e-sustentabilidade-em-edificios</t>
         </is>
       </c>
     </row>
@@ -25043,17 +25043,17 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Conservação e Reabilitação de Construções</t>
+          <t>Eficiência Energética e Sustentabilidade em Edifícios</t>
         </is>
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/bolsas-next-level-impulso-adultos</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-eficiencia-energetica-e-sustentabilidade-em-edificios/candidaturas</t>
         </is>
       </c>
     </row>
@@ -25070,17 +25070,17 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Conservação e Reabilitação de Construções</t>
+          <t>Eficiência Energética e Sustentabilidade em Edifícios</t>
         </is>
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Cláudia Casaca</t>
         </is>
       </c>
       <c r="E913" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGCRC.pdf</t>
+          <t>https://www.isel.pt/docentes/claudia-sofia-seneca-da-luz-casaca</t>
         </is>
       </c>
     </row>
@@ -25097,17 +25097,17 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Conservação e Reabilitação de Construções</t>
+          <t>Eficiência Energética e Sustentabilidade em Edifícios</t>
         </is>
       </c>
       <c r="D914" t="inlineStr">
         <is>
-          <t>propina</t>
+          <t>Despacho nº 8933/2022, de 20 de julho – Homologação do curso de pós-graduação em Eficiência Energética e Sustentabilidade em Edifícios</t>
         </is>
       </c>
       <c r="E914" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/PG_EESE/Despacho%208933_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -25129,12 +25129,12 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Gonçalo Duarte</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-eficiencia-energetica-e-sustentabilidade-em-edificios</t>
+          <t>https://www.isel.pt/docentes/goncalo-nuno-de-oliveira-duarte</t>
         </is>
       </c>
     </row>
@@ -25156,12 +25156,12 @@
       </c>
       <c r="D916" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-eficiencia-energetica-e-sustentabilidade-em-edificios/candidaturas</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -25183,12 +25183,12 @@
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>Cláudia Casaca</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E917" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/claudia-sofia-seneca-da-luz-casaca</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -25210,12 +25210,12 @@
       </c>
       <c r="D918" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Nuno Henriques</t>
         </is>
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/docentes/nuno-paulo-ferreira-henriques</t>
         </is>
       </c>
     </row>
@@ -25237,12 +25237,12 @@
       </c>
       <c r="D919" t="inlineStr">
         <is>
-          <t>Despacho nº 8933/2022, de 20 de julho – Homologação do curso de pós-graduação em Eficiência Energética e Sustentabilidade em Edifícios</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_EESE/Despacho%208933_2022.pdf</t>
+          <t>https://www.isel.pt/curso/39616/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -25264,12 +25264,12 @@
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>Gonçalo Duarte</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/goncalo-nuno-de-oliveira-duarte</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -25291,12 +25291,12 @@
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -25318,12 +25318,12 @@
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -25345,12 +25345,12 @@
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>Nuno Henriques</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-paulo-ferreira-henriques</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEESE.pdf</t>
         </is>
       </c>
     </row>
@@ -25367,17 +25367,17 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Eficiência Energética e Sustentabilidade em Edifícios</t>
+          <t>Engenharia Optoeletrónica e Fotónica</t>
         </is>
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>Alessandro Fantoni</t>
         </is>
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39616/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/alessandro-fantoni</t>
         </is>
       </c>
     </row>
@@ -25394,17 +25394,17 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Eficiência Energética e Sustentabilidade em Edifícios</t>
+          <t>Engenharia Optoeletrónica e Fotónica</t>
         </is>
       </c>
       <c r="D925" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-optoeletronica-e-fotonica</t>
         </is>
       </c>
     </row>
@@ -25421,17 +25421,17 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Eficiência Energética e Sustentabilidade em Edifícios</t>
+          <t>Engenharia Optoeletrónica e Fotónica</t>
         </is>
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-optoeletronica-e-fotonica/candidaturas</t>
         </is>
       </c>
     </row>
@@ -25448,17 +25448,17 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Eficiência Energética e Sustentabilidade em Edifícios</t>
+          <t>Engenharia Optoeletrónica e Fotónica</t>
         </is>
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEESE.pdf</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -25480,12 +25480,12 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>Alessandro Fantoni</t>
+          <t>Luís Fernandes</t>
         </is>
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/alessandro-fantoni</t>
+          <t>https://www.isel.pt/docentes/luis-miguel-tavares-fernandes</t>
         </is>
       </c>
     </row>
@@ -25507,12 +25507,12 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Paula Louro</t>
         </is>
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-optoeletronica-e-fotonica</t>
+          <t>https://www.isel.pt/docentes/paula-maria-garcia-louro</t>
         </is>
       </c>
     </row>
@@ -25534,12 +25534,12 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-optoeletronica-e-fotonica/candidaturas</t>
+          <t>https://www.isel.pt/curso/39476/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -25561,12 +25561,12 @@
       </c>
       <c r="D931" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -25588,12 +25588,12 @@
       </c>
       <c r="D932" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -25615,12 +25615,12 @@
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>Luís Fernandes</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luis-miguel-tavares-fernandes</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -25642,12 +25642,12 @@
       </c>
       <c r="D934" t="inlineStr">
         <is>
-          <t>Paula Louro</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paula-maria-garcia-louro</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGOPE.pdf</t>
         </is>
       </c>
     </row>
@@ -25664,17 +25664,17 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Engenharia Optoeletrónica e Fotónica</t>
+          <t>Engenharia e Gestão de Energias Renováveis</t>
         </is>
       </c>
       <c r="D935" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39476/plano-de-estudos</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-e-gestao-de-energias-renovaveis</t>
         </is>
       </c>
     </row>
@@ -25691,17 +25691,17 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Engenharia Optoeletrónica e Fotónica</t>
+          <t>Engenharia e Gestão de Energias Renováveis</t>
         </is>
       </c>
       <c r="D936" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Calendário de aulas 2025/2026</t>
         </is>
       </c>
       <c r="E936" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/PG_EGER/Calend%C3%A1rio%20EGER%2025_26.pdf</t>
         </is>
       </c>
     </row>
@@ -25718,17 +25718,17 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Engenharia Optoeletrónica e Fotónica</t>
+          <t>Engenharia e Gestão de Energias Renováveis</t>
         </is>
       </c>
       <c r="D937" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E937" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-e-gestao-de-energias-renovaveis/candidaturas</t>
         </is>
       </c>
     </row>
@@ -25745,17 +25745,17 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Engenharia Optoeletrónica e Fotónica</t>
+          <t>Engenharia e Gestão de Energias Renováveis</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Cristina Camus</t>
         </is>
       </c>
       <c r="E938" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGOPE.pdf</t>
+          <t>https://www.isel.pt/docentes/cristina-ines-camus</t>
         </is>
       </c>
     </row>
@@ -25777,12 +25777,12 @@
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Filipe Barata</t>
         </is>
       </c>
       <c r="E939" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-e-gestao-de-energias-renovaveis</t>
+          <t>https://www.isel.pt/docentes/filipe-andre-de-sousa-figueira-barata</t>
         </is>
       </c>
     </row>
@@ -25804,12 +25804,12 @@
       </c>
       <c r="D940" t="inlineStr">
         <is>
-          <t>Calendário de aulas 2025/2026</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E940" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_EGER/Calend%C3%A1rio%20EGER%2025_26.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -25831,12 +25831,12 @@
       </c>
       <c r="D941" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E941" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-engenharia-e-gestao-de-energias-renovaveis/candidaturas</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -25858,12 +25858,12 @@
       </c>
       <c r="D942" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>João Lagarto</t>
         </is>
       </c>
       <c r="E942" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/docentes/joao-herminio-ninitas-lagarto</t>
         </is>
       </c>
     </row>
@@ -25885,12 +25885,12 @@
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>Cristina Camus</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E943" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/cristina-ines-camus</t>
+          <t>https://www.isel.pt/curso/10532/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -25912,12 +25912,12 @@
       </c>
       <c r="D944" t="inlineStr">
         <is>
-          <t>Filipe Barata</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E944" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/filipe-andre-de-sousa-figueira-barata</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -25939,12 +25939,12 @@
       </c>
       <c r="D945" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E945" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -25966,12 +25966,12 @@
       </c>
       <c r="D946" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E946" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -25993,12 +25993,12 @@
       </c>
       <c r="D947" t="inlineStr">
         <is>
-          <t>João Lagarto</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="E947" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joao-herminio-ninitas-lagarto</t>
+          <t>https://www.isel.pt/curso/pos-graduacao-em-engenharia-e-gestao-de-energias-renovaveis/testemunhos</t>
         </is>
       </c>
     </row>
@@ -26020,12 +26020,12 @@
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E948" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/10532/plano-de-estudos</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEGER.pdf</t>
         </is>
       </c>
     </row>
@@ -26047,12 +26047,12 @@
       </c>
       <c r="D949" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>propina</t>
         </is>
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
@@ -26069,17 +26069,17 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão de Energias Renováveis</t>
+          <t>Engenharia e Gestão de Risco de Desastres</t>
         </is>
       </c>
       <c r="D950" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E950" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-engenharia_e_gestao_do_risco_de_desastres</t>
         </is>
       </c>
     </row>
@@ -26096,17 +26096,17 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão de Energias Renováveis</t>
+          <t>Engenharia e Gestão de Risco de Desastres</t>
         </is>
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E951" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao-em-engenharia-e-gestao-de-energias-renovaveis/testemunhos</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-engenharia_e_gestao_do_risco_de_desastres/candidaturas</t>
         </is>
       </c>
     </row>
@@ -26123,17 +26123,17 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão de Energias Renováveis</t>
+          <t>Engenharia e Gestão de Risco de Desastres</t>
         </is>
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Carla Costa</t>
         </is>
       </c>
       <c r="E952" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEGER.pdf</t>
+          <t>https://www.isel.pt/docentes/carla-maria-duarte-da-silva-e-costa</t>
         </is>
       </c>
     </row>
@@ -26150,17 +26150,17 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão de Energias Renováveis</t>
+          <t>Engenharia e Gestão de Risco de Desastres</t>
         </is>
       </c>
       <c r="D953" t="inlineStr">
         <is>
-          <t>propina</t>
+          <t>Despacho n.º 5379/2024</t>
         </is>
       </c>
       <c r="E953" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/PG_EGRD/Despacho5379_2024_PG%20EGRD.pdf</t>
         </is>
       </c>
     </row>
@@ -26182,12 +26182,12 @@
       </c>
       <c r="D954" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Duarte Caldeira</t>
         </is>
       </c>
       <c r="E954" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-engenharia_e_gestao_do_risco_de_desastres</t>
+          <t>https://www.isel.pt/docente/duarte-caldeira</t>
         </is>
       </c>
     </row>
@@ -26209,12 +26209,12 @@
       </c>
       <c r="D955" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E955" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-engenharia_e_gestao_do_risco_de_desastres/candidaturas</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -26236,12 +26236,12 @@
       </c>
       <c r="D956" t="inlineStr">
         <is>
-          <t>Carla Costa</t>
+          <t>José Nascimento</t>
         </is>
       </c>
       <c r="E956" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/carla-maria-duarte-da-silva-e-costa</t>
+          <t>https://www.isel.pt/docentes/jose-manuel-peixoto-nascimento</t>
         </is>
       </c>
     </row>
@@ -26263,12 +26263,12 @@
       </c>
       <c r="D957" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E957" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -26290,12 +26290,12 @@
       </c>
       <c r="D958" t="inlineStr">
         <is>
-          <t>Despacho n.º 5379/2024</t>
+          <t>Maria Ana Baptista</t>
         </is>
       </c>
       <c r="E958" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_EGRD/Despacho5379_2024_PG%20EGRD.pdf</t>
+          <t>https://www.isel.pt/docentes/maria-ana-carvalho-viana-baptista</t>
         </is>
       </c>
     </row>
@@ -26317,12 +26317,12 @@
       </c>
       <c r="D959" t="inlineStr">
         <is>
-          <t>Duarte Caldeira</t>
+          <t>Pedro Silva</t>
         </is>
       </c>
       <c r="E959" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docente/duarte-caldeira</t>
+          <t>https://www.isel.pt/docentes/pedro-manuel-fernandes-carvalho-da-silva</t>
         </is>
       </c>
     </row>
@@ -26344,12 +26344,12 @@
       </c>
       <c r="D960" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E960" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/curso/40413/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -26371,12 +26371,12 @@
       </c>
       <c r="D961" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E961" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -26398,12 +26398,12 @@
       </c>
       <c r="D962" t="inlineStr">
         <is>
-          <t>José Nascimento</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E962" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/jose-manuel-peixoto-nascimento</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -26425,12 +26425,12 @@
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t>Maria Ana Baptista</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E963" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-ana-carvalho-viana-baptista</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -26452,12 +26452,12 @@
       </c>
       <c r="D964" t="inlineStr">
         <is>
-          <t>Pedro Silva</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="E964" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-manuel-fernandes-carvalho-da-silva</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEGRD.pdf</t>
         </is>
       </c>
     </row>
@@ -26479,12 +26479,12 @@
       </c>
       <c r="D965" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>propina</t>
         </is>
       </c>
       <c r="E965" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/40413/plano-de-estudos</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
@@ -26501,17 +26501,17 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão de Risco de Desastres</t>
+          <t>Especialização em Engenharia Ferroviária</t>
         </is>
       </c>
       <c r="D966" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Alexandra Costa</t>
         </is>
       </c>
       <c r="E966" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/docentes/maria-alexandra-cardoso-da-costa</t>
         </is>
       </c>
     </row>
@@ -26528,17 +26528,17 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão de Risco de Desastres</t>
+          <t>Especialização em Engenharia Ferroviária</t>
         </is>
       </c>
       <c r="D967" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E967" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-especializacao-em-engenharia-ferroviaria</t>
         </is>
       </c>
     </row>
@@ -26555,17 +26555,17 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão de Risco de Desastres</t>
+          <t>Especialização em Engenharia Ferroviária</t>
         </is>
       </c>
       <c r="D968" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E968" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEGRD.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-especializacao-em-engenharia-ferroviaria/candidaturas</t>
         </is>
       </c>
     </row>
@@ -26582,17 +26582,17 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão de Risco de Desastres</t>
+          <t>Especialização em Engenharia Ferroviária</t>
         </is>
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>propina</t>
+          <t>Despacho nº 2313/2022, de 22 de fevereiro – Homologação do curso de pós-graduação em Especialização em Engenharia Ferroviária</t>
         </is>
       </c>
       <c r="E969" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/2022-02/Despacho_n_2313_2022_22_fev.pdf</t>
         </is>
       </c>
     </row>
@@ -26614,12 +26614,12 @@
       </c>
       <c r="D970" t="inlineStr">
         <is>
-          <t>Alexandra Costa</t>
+          <t>Henrique Miranda</t>
         </is>
       </c>
       <c r="E970" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-alexandra-cardoso-da-costa</t>
+          <t>https://www.isel.pt/docentes/henrique-manuel-borges-miranda</t>
         </is>
       </c>
     </row>
@@ -26641,12 +26641,12 @@
       </c>
       <c r="D971" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E971" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-especializacao-em-engenharia-ferroviaria</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -26668,12 +26668,12 @@
       </c>
       <c r="D972" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E972" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-especializacao-em-engenharia-ferroviaria/candidaturas</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -26695,12 +26695,12 @@
       </c>
       <c r="D973" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Luísa Teles Fortes</t>
         </is>
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/docentes/luisa-maria-conceicao-ferreira-cardoso-teles-fortes</t>
         </is>
       </c>
     </row>
@@ -26722,12 +26722,12 @@
       </c>
       <c r="D974" t="inlineStr">
         <is>
-          <t>Despacho nº 2313/2022, de 22 de fevereiro – Homologação do curso de pós-graduação em Especialização em Engenharia Ferroviária</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E974" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/2022-02/Despacho_n_2313_2022_22_fev.pdf</t>
+          <t>https://www.isel.pt/curso/39431/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -26749,12 +26749,12 @@
       </c>
       <c r="D975" t="inlineStr">
         <is>
-          <t>Henrique Miranda</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E975" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/henrique-manuel-borges-miranda</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -26776,12 +26776,12 @@
       </c>
       <c r="D976" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -26803,12 +26803,12 @@
       </c>
       <c r="D977" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -26830,12 +26830,12 @@
       </c>
       <c r="D978" t="inlineStr">
         <is>
-          <t>Luísa Teles Fortes</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luisa-maria-conceicao-ferreira-cardoso-teles-fortes</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-especializacao-em-engenharia-ferroviaria/testemunhos</t>
         </is>
       </c>
     </row>
@@ -26857,12 +26857,12 @@
       </c>
       <c r="D979" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39431/plano-de-estudos</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEEF.pdf</t>
         </is>
       </c>
     </row>
@@ -26884,12 +26884,12 @@
       </c>
       <c r="D980" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>propina</t>
         </is>
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
@@ -26906,17 +26906,17 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Especialização em Engenharia Ferroviária</t>
+          <t>Matemática para Ciência de Dados</t>
         </is>
       </c>
       <c r="D981" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Ana Martins</t>
         </is>
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/docentes/ana-alexandra-antunes-figueiredo-martins</t>
         </is>
       </c>
     </row>
@@ -26933,17 +26933,17 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>Especialização em Engenharia Ferroviária</t>
+          <t>Matemática para Ciência de Dados</t>
         </is>
       </c>
       <c r="D982" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-especializacao-em-engenharia-ferroviaria/testemunhos</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-matematica-para-ciencia-de-dados</t>
         </is>
       </c>
     </row>
@@ -26960,17 +26960,17 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>Especialização em Engenharia Ferroviária</t>
+          <t>Matemática para Ciência de Dados</t>
         </is>
       </c>
       <c r="D983" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGEEF.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-matematica-para-ciencia-de-dados/candidaturas</t>
         </is>
       </c>
     </row>
@@ -26987,17 +26987,17 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>Especialização em Engenharia Ferroviária</t>
+          <t>Matemática para Ciência de Dados</t>
         </is>
       </c>
       <c r="D984" t="inlineStr">
         <is>
-          <t>propina</t>
+          <t>Despacho nº 8888/2022, de 20 de julho – Homologação do curso de pós-graduação em Matemática para Ciência de Dados</t>
         </is>
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/PG_MCD/Despacho%208888_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -27019,12 +27019,12 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>Ana Martins</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ana-alexandra-antunes-figueiredo-martins</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -27046,12 +27046,12 @@
       </c>
       <c r="D986" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-matematica-para-ciencia-de-dados</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -27073,12 +27073,12 @@
       </c>
       <c r="D987" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-matematica-para-ciencia-de-dados/candidaturas</t>
+          <t>https://www.isel.pt/curso/39610/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -27100,12 +27100,12 @@
       </c>
       <c r="D988" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -27127,12 +27127,12 @@
       </c>
       <c r="D989" t="inlineStr">
         <is>
-          <t>Despacho nº 8888/2022, de 20 de julho – Homologação do curso de pós-graduação em Matemática para Ciência de Dados</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E989" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_MCD/Despacho%208888_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -27154,12 +27154,12 @@
       </c>
       <c r="D990" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -27181,12 +27181,12 @@
       </c>
       <c r="D991" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Sónia Carvalho</t>
         </is>
       </c>
       <c r="E991" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/docentes/sonia-raquel-ferreira-carvalho</t>
         </is>
       </c>
     </row>
@@ -27208,12 +27208,12 @@
       </c>
       <c r="D992" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E992" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39610/plano-de-estudos</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGMCD.pdf</t>
         </is>
       </c>
     </row>
@@ -27235,12 +27235,12 @@
       </c>
       <c r="D993" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>propina</t>
         </is>
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
@@ -27257,17 +27257,17 @@
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>Matemática para Ciência de Dados</t>
+          <t>Novas Abordagens em Acústica Aplicada e Áudio</t>
         </is>
       </c>
       <c r="D994" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E994" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-novas-abordagens-em-acustica-aplicada-e-audio</t>
         </is>
       </c>
     </row>
@@ -27284,17 +27284,17 @@
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>Matemática para Ciência de Dados</t>
+          <t>Novas Abordagens em Acústica Aplicada e Áudio</t>
         </is>
       </c>
       <c r="D995" t="inlineStr">
         <is>
-          <t>Sónia Carvalho</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E995" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/sonia-raquel-ferreira-carvalho</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-novas-abordagens-em-acustica-aplicada-e-audio/candidaturas</t>
         </is>
       </c>
     </row>
@@ -27311,17 +27311,17 @@
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>Matemática para Ciência de Dados</t>
+          <t>Novas Abordagens em Acústica Aplicada e Áudio</t>
         </is>
       </c>
       <c r="D996" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Despacho nº 8887/2022, de 20 de julho – Homologação do curso de pós-graduação em Novas Abordagens em Acústica Aplicada e Áudio</t>
         </is>
       </c>
       <c r="E996" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGMCD.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/PG_N4A/Despacho%208887_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -27338,17 +27338,17 @@
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>Matemática para Ciência de Dados</t>
+          <t>Novas Abordagens em Acústica Aplicada e Áudio</t>
         </is>
       </c>
       <c r="D997" t="inlineStr">
         <is>
-          <t>propina</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -27370,12 +27370,12 @@
       </c>
       <c r="D998" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Joel Paulo</t>
         </is>
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-novas-abordagens-em-acustica-aplicada-e-audio</t>
+          <t>https://www.isel.pt/docentes/joel-vera-cruz-preto-paulo</t>
         </is>
       </c>
     </row>
@@ -27397,12 +27397,12 @@
       </c>
       <c r="D999" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E999" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-novas-abordagens-em-acustica-aplicada-e-audio/candidaturas</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -27424,12 +27424,12 @@
       </c>
       <c r="D1000" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Paulo Trigo</t>
         </is>
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/docentes/paulo-manuel-trigo-candido-da-silva</t>
         </is>
       </c>
     </row>
@@ -27451,12 +27451,12 @@
       </c>
       <c r="D1001" t="inlineStr">
         <is>
-          <t>Despacho nº 8887/2022, de 20 de julho – Homologação do curso de pós-graduação em Novas Abordagens em Acústica Aplicada e Áudio</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_N4A/Despacho%208887_2022.pdf</t>
+          <t>https://www.isel.pt/curso/39595/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -27478,12 +27478,12 @@
       </c>
       <c r="D1002" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E1002" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -27505,12 +27505,12 @@
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -27532,12 +27532,12 @@
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>Joel Paulo</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joel-vera-cruz-preto-paulo</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -27559,12 +27559,12 @@
       </c>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>Paulo Trigo</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paulo-manuel-trigo-candido-da-silva</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGNAAAA.pdf</t>
         </is>
       </c>
     </row>
@@ -27581,17 +27581,17 @@
       </c>
       <c r="C1006" t="inlineStr">
         <is>
-          <t>Novas Abordagens em Acústica Aplicada e Áudio</t>
+          <t>Processos Avançados de Fabrico</t>
         </is>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39595/plano-de-estudos</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-processos-avancados-de-fabrico</t>
         </is>
       </c>
     </row>
@@ -27608,17 +27608,17 @@
       </c>
       <c r="C1007" t="inlineStr">
         <is>
-          <t>Novas Abordagens em Acústica Aplicada e Áudio</t>
+          <t>Processos Avançados de Fabrico</t>
         </is>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E1007" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-processos-avancados-de-fabrico/candidaturas</t>
         </is>
       </c>
     </row>
@@ -27635,17 +27635,17 @@
       </c>
       <c r="C1008" t="inlineStr">
         <is>
-          <t>Novas Abordagens em Acústica Aplicada e Áudio</t>
+          <t>Processos Avançados de Fabrico</t>
         </is>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Despacho nº 8886/2022, de 20 de julho – Homologação do curso de pós-graduação em Processos Avançados de Fabrico</t>
         </is>
       </c>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/PG_PAF/Despacho%208886_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -27662,17 +27662,17 @@
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>Novas Abordagens em Acústica Aplicada e Áudio</t>
+          <t>Processos Avançados de Fabrico</t>
         </is>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Ivan Galvão</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGNAAAA.pdf</t>
+          <t>https://www.isel.pt/docentes/ivan-rodolfo-pereira-garcia-de-galvao</t>
         </is>
       </c>
     </row>
@@ -27694,12 +27694,12 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Ivo Bragança</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-processos-avancados-de-fabrico</t>
+          <t>https://www.isel.pt/docentes/ivo-manuel-ferreira-de-braganca</t>
         </is>
       </c>
     </row>
@@ -27721,12 +27721,12 @@
       </c>
       <c r="D1011" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-processos-avancados-de-fabrico/candidaturas</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -27748,12 +27748,12 @@
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Plano de Estudos</t>
         </is>
       </c>
       <c r="E1012" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/curso/39639/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -27775,12 +27775,12 @@
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>Despacho nº 8886/2022, de 20 de julho – Homologação do curso de pós-graduação em Processos Avançados de Fabrico</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E1013" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_PAF/Despacho%208886_2022.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -27802,12 +27802,12 @@
       </c>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E1014" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -27829,12 +27829,12 @@
       </c>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>Ivan Galvão</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E1015" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ivan-rodolfo-pereira-garcia-de-galvao</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -27856,12 +27856,12 @@
       </c>
       <c r="D1016" t="inlineStr">
         <is>
-          <t>Ivo Bragança</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E1016" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ivo-manuel-ferreira-de-braganca</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGPAF.pdf</t>
         </is>
       </c>
     </row>
@@ -27878,17 +27878,17 @@
       </c>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>Processos Avançados de Fabrico</t>
+          <t>Projeto e Manutenção de Instalações Elétricas</t>
         </is>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>Plano de Estudos</t>
+          <t>António Antunes</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39639/plano-de-estudos</t>
+          <t>https://www.isel.pt/docentes/antonio-moises-ribeiro-antunes</t>
         </is>
       </c>
     </row>
@@ -27905,17 +27905,17 @@
       </c>
       <c r="C1018" t="inlineStr">
         <is>
-          <t>Processos Avançados de Fabrico</t>
+          <t>Projeto e Manutenção de Instalações Elétricas</t>
         </is>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E1018" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-projeto-e-manutencao-de-instalacoes-eletricas</t>
         </is>
       </c>
     </row>
@@ -27932,17 +27932,17 @@
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t>Processos Avançados de Fabrico</t>
+          <t>Projeto e Manutenção de Instalações Elétricas</t>
         </is>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>Candidaturas</t>
         </is>
       </c>
       <c r="E1019" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-projeto-e-manutencao-de-instalacoes-eletricas/candidaturas</t>
         </is>
       </c>
     </row>
@@ -27959,17 +27959,17 @@
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>Processos Avançados de Fabrico</t>
+          <t>Projeto e Manutenção de Instalações Elétricas</t>
         </is>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>Despacho nº 9366/2025, de 07 de agosto – Homologação do curso de pós-graduação em Projeto e Manutenção de Instalações Elétricas</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGPAF.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/PG_PMIE/PG_PMIE_Despacho_9366_2025.pdf</t>
         </is>
       </c>
     </row>
@@ -27991,12 +27991,12 @@
       </c>
       <c r="D1021" t="inlineStr">
         <is>
-          <t>António Antunes</t>
+          <t>Filipe Barata</t>
         </is>
       </c>
       <c r="E1021" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/antonio-moises-ribeiro-antunes</t>
+          <t>https://www.isel.pt/docentes/filipe-andre-de-sousa-figueira-barata</t>
         </is>
       </c>
     </row>
@@ -28018,12 +28018,12 @@
       </c>
       <c r="D1022" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Horários do curso</t>
         </is>
       </c>
       <c r="E1022" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-projeto-e-manutencao-de-instalacoes-eletricas</t>
+          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
         </is>
       </c>
     </row>
@@ -28045,12 +28045,12 @@
       </c>
       <c r="D1023" t="inlineStr">
         <is>
-          <t>Candidaturas</t>
+          <t>João Dias</t>
         </is>
       </c>
       <c r="E1023" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/pos-graduacao/pos-graduacao-em-projeto-e-manutencao-de-instalacoes-eletricas/candidaturas</t>
+          <t>https://www.isel.pt/noticias/estudante-do-isel-conquista-medalha-no-campeonato-nacional-universitario-de-judo</t>
         </is>
       </c>
     </row>
@@ -28072,12 +28072,12 @@
       </c>
       <c r="D1024" t="inlineStr">
         <is>
-          <t>Copilot</t>
+          <t>Luís Elvas</t>
         </is>
       </c>
       <c r="E1024" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/eventos/apresentacao-microsoft-copilot-365</t>
+          <t>https://www.isel.pt/docentes/luis-miguel-silveiro-elvas</t>
         </is>
       </c>
     </row>
@@ -28099,12 +28099,12 @@
       </c>
       <c r="D1025" t="inlineStr">
         <is>
-          <t>Despacho nº 9366/2025, de 07 de agosto – Homologação do curso de pós-graduação em Projeto e Manutenção de Instalações Elétricas</t>
+          <t>Plano de estudos</t>
         </is>
       </c>
       <c r="E1025" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/PG_PMIE/PG_PMIE_Despacho_9366_2025.pdf</t>
+          <t>https://www.isel.pt/curso/39612/plano-de-estudos</t>
         </is>
       </c>
     </row>
@@ -28126,12 +28126,12 @@
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>Filipe Barata</t>
+          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
         </is>
       </c>
       <c r="E1026" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/filipe-andre-de-sousa-figueira-barata</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
         </is>
       </c>
     </row>
@@ -28153,12 +28153,12 @@
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t>Horários do curso</t>
+          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E1027" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/informacoes-academicas/horarios</t>
+          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
         </is>
       </c>
     </row>
@@ -28180,12 +28180,12 @@
       </c>
       <c r="D1028" t="inlineStr">
         <is>
-          <t>Incentivo à Investigação Exploratória</t>
+          <t>Seminário - Blockchain</t>
         </is>
       </c>
       <c r="E1028" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/noticias/fundacao-santander-e-isel-atribuem-incentivo-investigacao-exploratoria</t>
+          <t>https://www.isel.pt/eventos/seminario-blockchain</t>
         </is>
       </c>
     </row>
@@ -28207,12 +28207,12 @@
       </c>
       <c r="D1029" t="inlineStr">
         <is>
-          <t>Luís Elvas</t>
+          <t>aqui.</t>
         </is>
       </c>
       <c r="E1029" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/luis-miguel-silveiro-elvas</t>
+          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGPMIE.pdf</t>
         </is>
       </c>
     </row>
@@ -28234,120 +28234,120 @@
       </c>
       <c r="D1030" t="inlineStr">
         <is>
-          <t>Plano de estudos</t>
+          <t>propina</t>
         </is>
       </c>
       <c r="E1030" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/39612/plano-de-estudos</t>
+          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
         </is>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Programas de Mobilidade</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Pós-Graduações</t>
+          <t>BIP – Blended Intensive Programmes</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t>Projeto e Manutenção de Instalações Elétricas</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t>Regulamento Geral dos Cursos de ​Pós-Graduação</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_14_02_Regulamento_Geral_dos_Cursos_de_Pos-Graduacao.pdf</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip</t>
         </is>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Programas de Mobilidade</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Pós-Graduações</t>
+          <t>BIP – Blended Intensive Programmes</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>Projeto e Manutenção de Instalações Elétricas</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
-          <t>Regulamento de Creditação de Competências do Instituto Superior de Engenharia de Lisboa</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="E1032" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SGAAE/Concursos_Acesso/despacho_n_4027_2022.pdf</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
         </is>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Programas de Mobilidade</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Pós-Graduações</t>
+          <t>BIP – Blended Intensive Programmes</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
         <is>
-          <t>Projeto e Manutenção de Instalações Elétricas</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
-          <t>aqui.</t>
+          <t>FURTHER DETAILS &gt;</t>
         </is>
       </c>
       <c r="E1033" t="inlineStr">
         <is>
-          <t>https://isel.pt/sites/default/files/001_imagens_isel/pdf/flyers_2025_04/FolhetoISEL-PGPMIE.pdf</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425-speakers</t>
         </is>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Programas de Mobilidade</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Pós-Graduações</t>
+          <t>BIP – Blended Intensive Programmes</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
         <is>
-          <t>Projeto e Manutenção de Instalações Elétricas</t>
+          <t>BIP 2024/25</t>
         </is>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
-          <t>propina</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1034" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/Despachos/2025/39_P_2025_Propinas_2025-2026.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -28369,12 +28369,12 @@
       </c>
       <c r="D1035" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>physical component</t>
         </is>
       </c>
       <c r="E1035" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip</t>
+          <t>https://www.isel.pt/sites/default/files/BIP/BIP_2025-03_Detailed_Programme_Physical_Component_v4.pdf</t>
         </is>
       </c>
     </row>
@@ -28396,12 +28396,12 @@
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>BIP 2024/25</t>
+          <t>virtual component</t>
         </is>
       </c>
       <c r="E1036" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
+          <t>https://www.isel.pt/sites/default/files/BIP/3%20BIP%202025-03%20Detailed%20Description%20Virtual%20Component.pdf</t>
         </is>
       </c>
     </row>
@@ -28418,17 +28418,17 @@
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t>BIP 2024/25</t>
+          <t>BIP – Blended Intensive Programmes</t>
         </is>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>FURTHER DETAILS &gt;</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425-speakers</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip</t>
         </is>
       </c>
     </row>
@@ -28445,17 +28445,17 @@
       </c>
       <c r="C1038" t="inlineStr">
         <is>
+          <t>BIP – Blended Intensive Programmes</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
           <t>BIP 2024/25</t>
         </is>
       </c>
-      <c r="D1038" t="inlineStr">
-        <is>
-          <t>Sugestões, reclamações ou denúncias</t>
-        </is>
-      </c>
       <c r="E1038" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
         </is>
       </c>
     </row>
@@ -28472,17 +28472,17 @@
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>BIP 2024/25</t>
+          <t>BIP – Blended Intensive Programmes</t>
         </is>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>physical component</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/BIP/BIP_2025-03_Detailed_Programme_Physical_Component_v4.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -28494,22 +28494,22 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>BIP – Blended Intensive Programmes</t>
+          <t>Erasmus+ Alunos Outgoing</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t>BIP 2024/25</t>
+          <t>Erasmus+ Alunos Outgoing</t>
         </is>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>virtual component</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/BIP/3%20BIP%202025-03%20Detailed%20Description%20Virtual%20Component.pdf</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
         </is>
       </c>
     </row>
@@ -28521,22 +28521,22 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>BIP – Blended Intensive Programmes</t>
+          <t>Erasmus+ Alunos Outgoing</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
         <is>
-          <t>BIP – Blended Intensive Programmes</t>
+          <t>Erasmus+ Alunos Outgoing</t>
         </is>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
-          <t>Apresentação</t>
+          <t>Guia Erasmus+ para Estudantes Outgoing</t>
         </is>
       </c>
       <c r="E1041" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip</t>
+          <t>https://www.isel.pt/sites/default/files/001_imagens_isel/pdf/Guia_ERASMUS-Plus_Outgoing_Alunos_Ver_05102024.pdf</t>
         </is>
       </c>
     </row>
@@ -28548,22 +28548,22 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>BIP – Blended Intensive Programmes</t>
+          <t>Erasmus+ Alunos Outgoing</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>BIP – Blended Intensive Programmes</t>
+          <t>Erasmus+ Alunos Outgoing</t>
         </is>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
-          <t>BIP 2024/25</t>
+          <t>Informação sobre as Bolsas Santander Mobilidade Global</t>
         </is>
       </c>
       <c r="E1042" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/bip/bip-2425</t>
+          <t>https://www.isel.pt/comunidade/estudantes/bolsa-para-estudantes</t>
         </is>
       </c>
     </row>
@@ -28575,22 +28575,22 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>BIP – Blended Intensive Programmes</t>
+          <t>Erasmus+ Alunos Outgoing</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t>BIP – Blended Intensive Programmes</t>
+          <t>Erasmus+ Alunos Outgoing</t>
         </is>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -28612,12 +28612,12 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>FAQ</t>
+          <t>LEB – Elisabete Alegria</t>
         </is>
       </c>
       <c r="E1044" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>https://www.isel.pt/docentes/elisabete-clara-bastos-do-amaral-alegria</t>
         </is>
       </c>
     </row>
@@ -28639,12 +28639,12 @@
       </c>
       <c r="D1045" t="inlineStr">
         <is>
-          <t>Guia Erasmus+ para Estudantes Outgoing</t>
+          <t>LEC – Paulo Gil Pedro</t>
         </is>
       </c>
       <c r="E1045" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/001_imagens_isel/pdf/Guia_ERASMUS-Plus_Outgoing_Alunos_Ver_05102024.pdf</t>
+          <t>https://www.isel.pt/docentes/paulo-gil-figueiredo-tavares-pedro</t>
         </is>
       </c>
     </row>
@@ -28666,12 +28666,12 @@
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>Informação sobre as Bolsas Santander Mobilidade Global</t>
+          <t>LEE – Ricardo Luís</t>
         </is>
       </c>
       <c r="E1046" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/comunidade/estudantes/bolsa-para-estudantes</t>
+          <t>https://www.isel.pt/docentes/ricardo-jorge-ferreira-luis</t>
         </is>
       </c>
     </row>
@@ -28693,12 +28693,12 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>LEETC – António Serrador</t>
         </is>
       </c>
       <c r="E1047" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/informacoes-gerais</t>
+          <t>https://www.isel.pt/docentes/antonio-joao-nunes-serrador</t>
         </is>
       </c>
     </row>
@@ -28720,12 +28720,12 @@
       </c>
       <c r="D1048" t="inlineStr">
         <is>
-          <t>LEB – Elisabete Alegria</t>
+          <t>LEFA - Pedro Patrício</t>
         </is>
       </c>
       <c r="E1048" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/elisabete-clara-bastos-do-amaral-alegria</t>
+          <t>https://www.isel.pt/docentes/pedro-manuel-alves-patricio-da-silva</t>
         </is>
       </c>
     </row>
@@ -28747,12 +28747,12 @@
       </c>
       <c r="D1049" t="inlineStr">
         <is>
-          <t>LEC – Paulo Gil Pedro</t>
+          <t>LEIC – Nuno Leite</t>
         </is>
       </c>
       <c r="E1049" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paulo-gil-figueiredo-tavares-pedro</t>
+          <t>https://www.isel.pt/docentes/nuno-miguel-da-costa-de-sousa-leite</t>
         </is>
       </c>
     </row>
@@ -28774,12 +28774,12 @@
       </c>
       <c r="D1050" t="inlineStr">
         <is>
-          <t>LEE – Ricardo Luís</t>
+          <t>LEIM – Manfred Niehus</t>
         </is>
       </c>
       <c r="E1050" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ricardo-jorge-ferreira-luis</t>
+          <t>https://www.isel.pt/docentes/manfred-niehus</t>
         </is>
       </c>
     </row>
@@ -28801,12 +28801,12 @@
       </c>
       <c r="D1051" t="inlineStr">
         <is>
-          <t>LEETC – António Serrador</t>
+          <t>LEIRT – João Ferreira Martins</t>
         </is>
       </c>
       <c r="E1051" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/antonio-joao-nunes-serrador</t>
+          <t>https://www.isel.pt/docentes/joao-manuel-ferreira-martins</t>
         </is>
       </c>
     </row>
@@ -28828,12 +28828,12 @@
       </c>
       <c r="D1052" t="inlineStr">
         <is>
-          <t>LEFA - Pedro Patrício</t>
+          <t>LEM – Nuno Serra</t>
         </is>
       </c>
       <c r="E1052" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-manuel-alves-patricio-da-silva</t>
+          <t>https://www.isel.pt/docentes/nuno-ricardo-piedade-antunes-serra</t>
         </is>
       </c>
     </row>
@@ -28855,12 +28855,12 @@
       </c>
       <c r="D1053" t="inlineStr">
         <is>
-          <t>LEIC – Nuno Leite</t>
+          <t>LMATE – Cátia Dias</t>
         </is>
       </c>
       <c r="E1053" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-miguel-da-costa-de-sousa-leite</t>
+          <t>https://www.isel.pt/docentes/catia-sofia-peniche-lente-dinis-dias</t>
         </is>
       </c>
     </row>
@@ -28882,12 +28882,12 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>LEIM – Manfred Niehus</t>
+          <t>LTGM – Maria Teresa Santos</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/manfred-niehus</t>
+          <t>https://www.isel.pt/docentes/maria-teresa-loureiro-dos-santos</t>
         </is>
       </c>
     </row>
@@ -28909,12 +28909,12 @@
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t>LEIRT – João Ferreira Martins</t>
+          <t>MEET – Alessandro Fantoni</t>
         </is>
       </c>
       <c r="E1055" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joao-manuel-ferreira-martins</t>
+          <t>https://www.isel.pt/docentes/alessandro-fantoni</t>
         </is>
       </c>
     </row>
@@ -28936,12 +28936,12 @@
       </c>
       <c r="D1056" t="inlineStr">
         <is>
-          <t>LEM – Nuno Serra</t>
+          <t>MEGI – Vítor Anes</t>
         </is>
       </c>
       <c r="E1056" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-ricardo-piedade-antunes-serra</t>
+          <t>https://www.isel.pt/docentes/vitor-manuel-rodrigues-anes</t>
         </is>
       </c>
     </row>
@@ -28963,12 +28963,12 @@
       </c>
       <c r="D1057" t="inlineStr">
         <is>
-          <t>LMATE – Cátia Dias</t>
+          <t>MEIC – Nuno Datia</t>
         </is>
       </c>
       <c r="E1057" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/catia-sofia-peniche-lente-dinis-dias</t>
+          <t>https://www.isel.pt/docentes/nuno-miguel-soares-datia</t>
         </is>
       </c>
     </row>
@@ -28990,12 +28990,12 @@
       </c>
       <c r="D1058" t="inlineStr">
         <is>
-          <t>LTGM – Maria Teresa Santos</t>
+          <t>MEIM – Pedro Santos</t>
         </is>
       </c>
       <c r="E1058" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-teresa-loureiro-dos-santos</t>
+          <t>https://www.isel.pt/docente/pedro-emanuel-albuquerque-e-baptista-dos-santos</t>
         </is>
       </c>
     </row>
@@ -29017,12 +29017,12 @@
       </c>
       <c r="D1059" t="inlineStr">
         <is>
-          <t>MEET – Alessandro Fantoni</t>
+          <t>MEM – André Carvalho</t>
         </is>
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/alessandro-fantoni</t>
+          <t>https://www.isel.pt/docentes/andre-rui-dantas-carvalho</t>
         </is>
       </c>
     </row>
@@ -29044,12 +29044,12 @@
       </c>
       <c r="D1060" t="inlineStr">
         <is>
-          <t>MEGI – Vítor Anes</t>
+          <t>MEQA – Isabel João</t>
         </is>
       </c>
       <c r="E1060" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/vitor-manuel-rodrigues-anes</t>
+          <t>https://www.isel.pt/docentes/isabel-maria-da-silva-joao</t>
         </is>
       </c>
     </row>
@@ -29071,12 +29071,12 @@
       </c>
       <c r="D1061" t="inlineStr">
         <is>
-          <t>MEIC – Nuno Datia</t>
+          <t>MMAI – Teresa Melo Quinteiro</t>
         </is>
       </c>
       <c r="E1061" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-miguel-soares-datia</t>
+          <t>https://www.isel.pt/docentes/teresa-maria-de-araujo-melo-quinteiro</t>
         </is>
       </c>
     </row>
@@ -29098,12 +29098,12 @@
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>MEIM – Pedro Santos</t>
+          <t>Regulamento do Incentivo à Mobilidade Internacional do ISEL</t>
         </is>
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docente/pedro-emanuel-albuquerque-e-baptista-dos-santos</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_15_01_Regulamento_Incentivo_Mobilidade_internacional_ISEL_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -29125,12 +29125,12 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>MEM – André Carvalho</t>
+          <t>Regulamento para Mobilidade Académica do Instituto Superior de Engenharia de Lisboa</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/andre-rui-dantas-carvalho</t>
+          <t>https://www.isel.pt/sites/default/files/SREI/SREI_RG_01_01%20Regulamento_Mobilidade%20Academica_ISEL_17Marco2023_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -29152,12 +29152,12 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>MEQA – Isabel João</t>
+          <t>Regulamento para Mobilidade Académica no Instituto Politécnico de Lisboa</t>
         </is>
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/isabel-maria-da-silva-joao</t>
+          <t>https://www.isel.pt/sites/default/files/SREI/03_regulamento_mobilidade_academica_IPL_DR.pdf</t>
         </is>
       </c>
     </row>
@@ -29179,12 +29179,12 @@
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>MMAI – Teresa Melo Quinteiro</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/teresa-maria-de-araujo-melo-quinteiro</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -29206,12 +29206,12 @@
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>Regulamento do Incentivo à Mobilidade Internacional do ISEL</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_15_01_Regulamento_Incentivo_Mobilidade_internacional_ISEL_signed.pdf</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
         </is>
       </c>
     </row>
@@ -29233,12 +29233,12 @@
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>Regulamento para Mobilidade Académica do Instituto Superior de Engenharia de Lisboa</t>
+          <t>também podes consultar este esquema</t>
         </is>
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SREI/SREI_RG_01_01%20Regulamento_Mobilidade%20Academica_ISEL_17Marco2023_signed.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/inline-images/06_Erasmus%2BOUT_QGuide_NEW_1.png</t>
         </is>
       </c>
     </row>
@@ -29255,17 +29255,17 @@
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>Erasmus+ Alunos Outgoing</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
-          <t>Regulamento para Mobilidade Académica no Instituto Politécnico de Lisboa</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SREI/03_regulamento_mobilidade_academica_IPL_DR.pdf</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
         </is>
       </c>
     </row>
@@ -29282,17 +29282,17 @@
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>Erasmus+ Alunos Outgoing</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -29309,17 +29309,17 @@
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>Erasmus+ Alunos Outgoing</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>LEB – Manuel Matos</t>
         </is>
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
+          <t>https://www.isel.pt/docentes/manuel-jose-de-matos</t>
         </is>
       </c>
     </row>
@@ -29336,17 +29336,17 @@
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>Erasmus+ Alunos Outgoing</t>
+          <t>FAQ</t>
         </is>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>também podes consultar este esquema</t>
+          <t>LEC – Paulo Gil Pedro</t>
         </is>
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/inline-images/06_Erasmus%2BOUT_QGuide_NEW_1.png</t>
+          <t>https://www.isel.pt/docentes/paulo-gil-figueiredo-tavares-pedro</t>
         </is>
       </c>
     </row>
@@ -29368,12 +29368,12 @@
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>FAQ</t>
+          <t>LEE – Ricardo Luís</t>
         </is>
       </c>
       <c r="E1072" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>https://www.isel.pt/docentes/ricardo-jorge-ferreira-luis</t>
         </is>
       </c>
     </row>
@@ -29395,12 +29395,12 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>LEETC – António Serrador</t>
         </is>
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/informacoes-gerais</t>
+          <t>https://www.isel.pt/docentes/antonio-joao-nunes-serrador</t>
         </is>
       </c>
     </row>
@@ -29422,12 +29422,12 @@
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>LEB – Manuel Matos</t>
+          <t>LEFA - Pedro Patrício</t>
         </is>
       </c>
       <c r="E1074" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/manuel-jose-de-matos</t>
+          <t>https://www.isel.pt/docentes/pedro-manuel-alves-patricio-da-silva</t>
         </is>
       </c>
     </row>
@@ -29449,12 +29449,12 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>LEC – Paulo Gil Pedro</t>
+          <t>LEIC – Nuno Leite</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/paulo-gil-figueiredo-tavares-pedro</t>
+          <t>https://www.isel.pt/docentes/nuno-miguel-da-costa-de-sousa-leite</t>
         </is>
       </c>
     </row>
@@ -29476,12 +29476,12 @@
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>LEE – Ricardo Luís</t>
+          <t>LEIM – Manfred Niehus</t>
         </is>
       </c>
       <c r="E1076" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/ricardo-jorge-ferreira-luis</t>
+          <t>https://www.isel.pt/docentes/manfred-niehus</t>
         </is>
       </c>
     </row>
@@ -29503,12 +29503,12 @@
       </c>
       <c r="D1077" t="inlineStr">
         <is>
-          <t>LEETC – António Serrador</t>
+          <t>LEIRT – João Ferreira Martins</t>
         </is>
       </c>
       <c r="E1077" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/antonio-joao-nunes-serrador</t>
+          <t>https://www.isel.pt/docentes/joao-manuel-ferreira-martins</t>
         </is>
       </c>
     </row>
@@ -29530,12 +29530,12 @@
       </c>
       <c r="D1078" t="inlineStr">
         <is>
-          <t>LEFA - Pedro Patrício</t>
+          <t>LEM – Nuno Serra</t>
         </is>
       </c>
       <c r="E1078" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/pedro-manuel-alves-patricio-da-silva</t>
+          <t>https://www.isel.pt/docentes/nuno-ricardo-piedade-antunes-serra</t>
         </is>
       </c>
     </row>
@@ -29557,12 +29557,12 @@
       </c>
       <c r="D1079" t="inlineStr">
         <is>
-          <t>LEIC – Nuno Leite</t>
+          <t>LEQB – Elisabete Alegria</t>
         </is>
       </c>
       <c r="E1079" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-miguel-da-costa-de-sousa-leite</t>
+          <t>https://www.isel.pt/docentes/elisabete-clara-bastos-do-amaral-alegria</t>
         </is>
       </c>
     </row>
@@ -29584,12 +29584,12 @@
       </c>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>LEIM – Manfred Niehus</t>
+          <t>LMATE – Cátia Dias</t>
         </is>
       </c>
       <c r="E1080" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/manfred-niehus</t>
+          <t>https://www.isel.pt/docentes/catia-sofia-peniche-lente-dinis-dias</t>
         </is>
       </c>
     </row>
@@ -29611,12 +29611,12 @@
       </c>
       <c r="D1081" t="inlineStr">
         <is>
-          <t>LEIRT – João Ferreira Martins</t>
+          <t>LTGM – Maria Teresa Santos</t>
         </is>
       </c>
       <c r="E1081" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/joao-manuel-ferreira-martins</t>
+          <t>https://www.isel.pt/docentes/maria-teresa-loureiro-dos-santos</t>
         </is>
       </c>
     </row>
@@ -29638,12 +29638,12 @@
       </c>
       <c r="D1082" t="inlineStr">
         <is>
-          <t>LEM – Nuno Serra</t>
+          <t>MEET – Alessandro Fantoni</t>
         </is>
       </c>
       <c r="E1082" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-ricardo-piedade-antunes-serra</t>
+          <t>https://www.isel.pt/docentes/alessandro-fantoni</t>
         </is>
       </c>
     </row>
@@ -29665,12 +29665,12 @@
       </c>
       <c r="D1083" t="inlineStr">
         <is>
-          <t>LEQB – Elisabete Alegria</t>
+          <t>MEGI – Vítor Anes</t>
         </is>
       </c>
       <c r="E1083" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/elisabete-clara-bastos-do-amaral-alegria</t>
+          <t>https://www.isel.pt/docentes/vitor-manuel-rodrigues-anes</t>
         </is>
       </c>
     </row>
@@ -29692,12 +29692,12 @@
       </c>
       <c r="D1084" t="inlineStr">
         <is>
-          <t>LMATE – Cátia Dias</t>
+          <t>MEIC – Nuno Datia</t>
         </is>
       </c>
       <c r="E1084" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/catia-sofia-peniche-lente-dinis-dias</t>
+          <t>https://www.isel.pt/docentes/nuno-miguel-soares-datia</t>
         </is>
       </c>
     </row>
@@ -29719,12 +29719,12 @@
       </c>
       <c r="D1085" t="inlineStr">
         <is>
-          <t>LTGM – Maria Teresa Santos</t>
+          <t>MEIM – Rui Jesus</t>
         </is>
       </c>
       <c r="E1085" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/maria-teresa-loureiro-dos-santos</t>
+          <t>https://www.isel.pt/docentes/rui-manuel-feliciano-de-jesus</t>
         </is>
       </c>
     </row>
@@ -29746,12 +29746,12 @@
       </c>
       <c r="D1086" t="inlineStr">
         <is>
-          <t>MEET – Alessandro Fantoni</t>
+          <t>MEM – André Carvalho</t>
         </is>
       </c>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/alessandro-fantoni</t>
+          <t>https://www.isel.pt/docentes/andre-rui-dantas-carvalho</t>
         </is>
       </c>
     </row>
@@ -29773,12 +29773,12 @@
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>MEGI – Vítor Anes</t>
+          <t>MEQA – Isabel João</t>
         </is>
       </c>
       <c r="E1087" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/vitor-manuel-rodrigues-anes</t>
+          <t>https://www.isel.pt/docentes/isabel-maria-da-silva-joao</t>
         </is>
       </c>
     </row>
@@ -29800,12 +29800,12 @@
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t>MEIC – Nuno Datia</t>
+          <t>MMAI – Teresa Melo Quinteiro</t>
         </is>
       </c>
       <c r="E1088" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/nuno-miguel-soares-datia</t>
+          <t>https://www.isel.pt/docentes/teresa-maria-de-araujo-melo-quinteiro</t>
         </is>
       </c>
     </row>
@@ -29827,12 +29827,12 @@
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>MEIM – Rui Jesus</t>
+          <t>Regulamento para a Mobilidade Académica no IPL</t>
         </is>
       </c>
       <c r="E1089" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/rui-manuel-feliciano-de-jesus</t>
+          <t>https://static.escs.ipl.pt/old/pdfs/regulamentos/Regulamento-Mobilidade-IPL.pdf</t>
         </is>
       </c>
     </row>
@@ -29854,12 +29854,12 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>MEM – André Carvalho</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1090" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/andre-rui-dantas-carvalho</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -29881,12 +29881,12 @@
       </c>
       <c r="D1091" t="inlineStr">
         <is>
-          <t>MEQA – Isabel João</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="E1091" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/isabel-maria-da-silva-joao</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
         </is>
       </c>
     </row>
@@ -29903,17 +29903,17 @@
       </c>
       <c r="C1092" t="inlineStr">
         <is>
+          <t>Testemunhos</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
           <t>FAQ</t>
         </is>
       </c>
-      <c r="D1092" t="inlineStr">
-        <is>
-          <t>MMAI – Teresa Melo Quinteiro</t>
-        </is>
-      </c>
       <c r="E1092" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/docentes/teresa-maria-de-araujo-melo-quinteiro</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
         </is>
       </c>
     </row>
@@ -29930,17 +29930,17 @@
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>FAQ</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>Regulamento para a Mobilidade Académica no IPL</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1093" t="inlineStr">
         <is>
-          <t>https://static.escs.ipl.pt/old/pdfs/regulamentos/Regulamento-Mobilidade-IPL.pdf</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -29957,7 +29957,7 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>FAQ</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr">
@@ -29984,7 +29984,7 @@
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>FAQ</t>
+          <t>Testemunhos</t>
         </is>
       </c>
       <c r="D1095" t="inlineStr">
@@ -30006,22 +30006,22 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Erasmus+ Alunos Outgoing</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
-          <t>FAQ</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="E1096" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/faq</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
         </is>
       </c>
     </row>
@@ -30033,22 +30033,22 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Erasmus+ Alunos Outgoing</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E1097" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/informacoes-gerais</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-biomedica</t>
         </is>
       </c>
     </row>
@@ -30060,22 +30060,22 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Erasmus+ Alunos Outgoing</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Engenharia Biomédica</t>
         </is>
       </c>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-biomedica</t>
         </is>
       </c>
     </row>
@@ -30087,22 +30087,22 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Erasmus+ Alunos Outgoing</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>Testemunhos</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E1099" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-outgoing/testemunhos</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-civil</t>
         </is>
       </c>
     </row>
@@ -30124,12 +30124,12 @@
       </c>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-civil</t>
         </is>
       </c>
     </row>
@@ -30151,12 +30151,12 @@
       </c>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-biomedica</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-eletrotecnica</t>
         </is>
       </c>
     </row>
@@ -30178,12 +30178,12 @@
       </c>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>Engenharia Biomédica</t>
+          <t>Engenharia Eletrotécnica</t>
         </is>
       </c>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-biomedica</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-eletrotecnica</t>
         </is>
       </c>
     </row>
@@ -30205,12 +30205,12 @@
       </c>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
         </is>
       </c>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-civil</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-eletronica-e-telecomunicacoes-e-de-computadores</t>
         </is>
       </c>
     </row>
@@ -30232,12 +30232,12 @@
       </c>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia Física Aplicada</t>
         </is>
       </c>
       <c r="E1104" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-civil</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-fisica-aplicada</t>
         </is>
       </c>
     </row>
@@ -30259,12 +30259,12 @@
       </c>
       <c r="D1105" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E1105" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-eletrotecnica</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-e-multimedia</t>
         </is>
       </c>
     </row>
@@ -30286,12 +30286,12 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>Engenharia Eletrotécnica</t>
+          <t>Engenharia Informática e Multimédia</t>
         </is>
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-eletrotecnica</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-informatica-e-multimedia</t>
         </is>
       </c>
     </row>
@@ -30313,12 +30313,12 @@
       </c>
       <c r="D1107" t="inlineStr">
         <is>
-          <t>Engenharia Eletrónica e Telecomunicações e de Computadores</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-eletronica-e-telecomunicacoes-e-de-computadores</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-e-de-computadores</t>
         </is>
       </c>
     </row>
@@ -30340,12 +30340,12 @@
       </c>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>Engenharia Física Aplicada</t>
+          <t>Engenharia Informática e de Computadores</t>
         </is>
       </c>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-fisica-aplicada</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-informatica-e-de-computadores</t>
         </is>
       </c>
     </row>
@@ -30367,12 +30367,12 @@
       </c>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Informática, Redes e Telecomunicações</t>
         </is>
       </c>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-e-multimedia</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-redes-e-telecomunicacoes</t>
         </is>
       </c>
     </row>
@@ -30394,12 +30394,12 @@
       </c>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>Engenharia Informática e Multimédia</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E1110" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-informatica-e-multimedia</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-mecanica</t>
         </is>
       </c>
     </row>
@@ -30421,12 +30421,12 @@
       </c>
       <c r="D1111" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E1111" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-e-de-computadores</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-mecanica</t>
         </is>
       </c>
     </row>
@@ -30448,12 +30448,12 @@
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>Engenharia Informática e de Computadores</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E1112" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-informatica-e-de-computadores</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-quimica-e-biologica</t>
         </is>
       </c>
     </row>
@@ -30475,12 +30475,12 @@
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>Engenharia Informática, Redes e Telecomunicações</t>
+          <t>Engenharia Química e Biológica</t>
         </is>
       </c>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-informatica-redes-e-telecomunicacoes</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-quimica-e-biologica</t>
         </is>
       </c>
     </row>
@@ -30502,12 +30502,12 @@
       </c>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia da Qualidade e Ambiente</t>
         </is>
       </c>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-mecanica</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-da-qualidade-e-ambiente</t>
         </is>
       </c>
     </row>
@@ -30529,12 +30529,12 @@
       </c>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia de Eletrónica e Telecomunicações</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-mecanica</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-de-eletronica-e-telecomunicacoes</t>
         </is>
       </c>
     </row>
@@ -30556,12 +30556,12 @@
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Engenharia e Gestão Industrial</t>
         </is>
       </c>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-engenharia-quimica-e-biologica</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-e-gestao-industrial</t>
         </is>
       </c>
     </row>
@@ -30583,12 +30583,12 @@
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>Engenharia Química e Biológica</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-quimica-e-biologica</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -30610,12 +30610,12 @@
       </c>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>Engenharia da Qualidade e Ambiente</t>
+          <t>Matemática Aplicada para a Indústria</t>
         </is>
       </c>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-da-qualidade-e-ambiente</t>
+          <t>https://www.isel.pt/curso/mestrado/mestrado-em-matematica-aplicada-para-industria</t>
         </is>
       </c>
     </row>
@@ -30637,12 +30637,12 @@
       </c>
       <c r="D1119" t="inlineStr">
         <is>
-          <t>Engenharia de Eletrónica e Telecomunicações</t>
+          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
         </is>
       </c>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-de-eletronica-e-telecomunicacoes</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-matematica-aplicada-tecnologia-e-empresa</t>
         </is>
       </c>
     </row>
@@ -30664,12 +30664,12 @@
       </c>
       <c r="D1120" t="inlineStr">
         <is>
-          <t>Engenharia e Gestão Industrial</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-engenharia-e-gestao-industrial</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -30691,12 +30691,12 @@
       </c>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>Tecnologias e Gestão Municipal</t>
         </is>
       </c>
       <c r="E1121" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/informacoes-gerais</t>
+          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-tecnologias-e-gestao-municipal</t>
         </is>
       </c>
     </row>
@@ -30718,12 +30718,12 @@
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>Matemática Aplicada para a Indústria</t>
+          <t>Unidades Curriculares</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/mestrado/mestrado-em-matematica-aplicada-para-industria</t>
+          <t>https://www.isel.pt/sites/default/files/SREI/Ofertas_ucs_incoming_EN_2024.pdf</t>
         </is>
       </c>
     </row>
@@ -30740,17 +30740,17 @@
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>Matemática Aplicada à Tecnologia e à Empresa</t>
+          <t>Cursos</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-matematica-aplicada-tecnologia-e-empresa</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
         </is>
       </c>
     </row>
@@ -30767,17 +30767,17 @@
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Informações Gerais</t>
         </is>
       </c>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -30794,17 +30794,17 @@
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>Tecnologias e Gestão Municipal</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/curso/licenciatura/licenciatura-em-tecnologias-e-gestao-municipal</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -30821,7 +30821,7 @@
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Erasmus+ Incoming Students</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr">
@@ -30843,22 +30843,22 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Erasmus+ Staff</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Erasmus+ Staff</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>Cursos</t>
+          <t>Guia Erasmus+ para Staff</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/os-nossos-cursos</t>
+          <t>https://www.isel.pt/sites/default/files/SREI/Guia_ERASMUS-Plus_Staff.pdf</t>
         </is>
       </c>
     </row>
@@ -30870,12 +30870,12 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Erasmus+ Staff</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Erasmus+ Staff</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr">
@@ -30885,7 +30885,7 @@
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-alunos-incoming/informacoes-gerais</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-staff/informacoes-gerais</t>
         </is>
       </c>
     </row>
@@ -30897,22 +30897,22 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Erasmus+ Staff</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Erasmus+ Staff</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Instituições parceiras</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-staff/instituicoes-parceiras</t>
         </is>
       </c>
     </row>
@@ -30924,22 +30924,22 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Erasmus+ Staff</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Erasmus+ Incoming Students</t>
+          <t>Erasmus+ Staff</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>Unidades Curriculares</t>
+          <t>Regulamento do Incentivo à Mobilidade Internacional do ISEL</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SREI/Ofertas_ucs_incoming_EN_2024.pdf</t>
+          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_15_01_Regulamento_Incentivo_Mobilidade_internacional_ISEL_signed.pdf</t>
         </is>
       </c>
     </row>
@@ -30961,12 +30961,12 @@
       </c>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>Guia Erasmus+ para Staff</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/SREI/Guia_ERASMUS-Plus_Staff.pdf</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -30983,17 +30983,17 @@
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Erasmus+ Staff</t>
+          <t>Instituições parceiras</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>Informações Gerais</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-staff/informacoes-gerais</t>
+          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
       </c>
     </row>
@@ -31005,22 +31005,22 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Erasmus+ Staff</t>
+          <t>Outros Programas</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Erasmus+ Staff</t>
+          <t>Outros Programas</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>Instituições parceiras</t>
+          <t>Programa Vulcanus</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/erasmus-staff/instituicoes-parceiras</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programa-vulcanus</t>
         </is>
       </c>
     </row>
@@ -31032,22 +31032,22 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Erasmus+ Staff</t>
+          <t>Outros Programas</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Erasmus+ Staff</t>
+          <t>Outros Programas</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>Regulamento do Incentivo à Mobilidade Internacional do ISEL</t>
+          <t>Programas de intercâmbio</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sites/default/files/002_pdf/PRE_RG_15_01_Regulamento_Incentivo_Mobilidade_internacional_ISEL_signed.pdf</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programas-de-intercambio</t>
         </is>
       </c>
     </row>
@@ -31059,12 +31059,12 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Erasmus+ Staff</t>
+          <t>Outros Programas</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Erasmus+ Staff</t>
+          <t>Outros Programas</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr">
@@ -31086,22 +31086,22 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Erasmus+ Staff</t>
+          <t>Outros Programas</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Instituições parceiras</t>
+          <t>Programa Vulcanus</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>Sugestões, reclamações ou denúncias</t>
+          <t>Programa Vulcanus</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programa-vulcanus</t>
         </is>
       </c>
     </row>
@@ -31118,17 +31118,17 @@
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Outros Programas</t>
+          <t>Programa Vulcanus</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>Programa Vulcanus</t>
+          <t>Programas de intercâmbio</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programa-vulcanus</t>
+          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programas-de-intercambio</t>
         </is>
       </c>
     </row>
@@ -31145,123 +31145,15 @@
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Outros Programas</t>
+          <t>Programa Vulcanus</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>Programas de intercâmbio</t>
+          <t>Sugestões, reclamações ou denúncias</t>
         </is>
       </c>
       <c r="E1138" t="inlineStr">
-        <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programas-de-intercambio</t>
-        </is>
-      </c>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>Programas de Mobilidade</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>Outros Programas</t>
-        </is>
-      </c>
-      <c r="C1139" t="inlineStr">
-        <is>
-          <t>Outros Programas</t>
-        </is>
-      </c>
-      <c r="D1139" t="inlineStr">
-        <is>
-          <t>Sugestões, reclamações ou denúncias</t>
-        </is>
-      </c>
-      <c r="E1139" t="inlineStr">
-        <is>
-          <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
-        </is>
-      </c>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>Programas de Mobilidade</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>Outros Programas</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr">
-        <is>
-          <t>Programa Vulcanus</t>
-        </is>
-      </c>
-      <c r="D1140" t="inlineStr">
-        <is>
-          <t>Programa Vulcanus</t>
-        </is>
-      </c>
-      <c r="E1140" t="inlineStr">
-        <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programa-vulcanus</t>
-        </is>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>Programas de Mobilidade</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr">
-        <is>
-          <t>Outros Programas</t>
-        </is>
-      </c>
-      <c r="C1141" t="inlineStr">
-        <is>
-          <t>Programa Vulcanus</t>
-        </is>
-      </c>
-      <c r="D1141" t="inlineStr">
-        <is>
-          <t>Programas de intercâmbio</t>
-        </is>
-      </c>
-      <c r="E1141" t="inlineStr">
-        <is>
-          <t>https://www.isel.pt/ensino/programas-de-mobilidade/outros-programas/informacoes-gerais/programas-de-intercambio</t>
-        </is>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>Programas de Mobilidade</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr">
-        <is>
-          <t>Outros Programas</t>
-        </is>
-      </c>
-      <c r="C1142" t="inlineStr">
-        <is>
-          <t>Programa Vulcanus</t>
-        </is>
-      </c>
-      <c r="D1142" t="inlineStr">
-        <is>
-          <t>Sugestões, reclamações ou denúncias</t>
-        </is>
-      </c>
-      <c r="E1142" t="inlineStr">
         <is>
           <t>https://www.isel.pt/sugestoes-reclamacoes-ou-denuncias</t>
         </is>
